--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -7,20 +7,21 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1NF Data" sheetId="1" r:id="rId1"/>
-    <sheet name="2NF Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="3NF Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="EMPDEPT" sheetId="5" r:id="rId2"/>
+    <sheet name="1NF Data" sheetId="1" r:id="rId3"/>
+    <sheet name="2NF Data" sheetId="2" r:id="rId4"/>
+    <sheet name="3NF Data" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2NF Data'!$R$3:$V$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2NF Data'!$L$3:$P$143</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="535">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1372,9 +1373,6 @@
     <t>NATURE</t>
   </si>
   <si>
-    <t>EMPLOYEER</t>
-  </si>
-  <si>
     <t>Arjun</t>
   </si>
   <si>
@@ -1580,6 +1578,54 @@
   </si>
   <si>
     <t>Finance</t>
+  </si>
+  <si>
+    <t>EMPLOYER</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>BONUS</t>
+  </si>
+  <si>
+    <t>SALGRAQDE</t>
+  </si>
+  <si>
+    <t>EMPNO(PK)</t>
+  </si>
+  <si>
+    <t>DEMPNO (PK)</t>
+  </si>
+  <si>
+    <t>DNAME</t>
+  </si>
+  <si>
+    <t>REATE</t>
+  </si>
+  <si>
+    <t>LOSAL</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>HISAL</t>
+  </si>
+  <si>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>MGR</t>
+  </si>
+  <si>
+    <t>DEPTNO (FK)</t>
+  </si>
+  <si>
+    <t>BONUSID</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1636,7 @@
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,6 +1669,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1712,7 +1771,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1838,6 +1897,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1856,8 +1918,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2165,6 +2229,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:D25"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="37">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="37">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="37">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="37">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="37">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="37">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="37">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="37">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="37">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="37">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="37">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="37">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="37">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="37">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="37">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="37">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="37">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="37">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="37">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D1:D27">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3769,13 +4063,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC72" sqref="BC72"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,7 +4086,7 @@
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="4.140625" customWidth="1"/>
     <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.140625" customWidth="1"/>
@@ -3841,86 +4135,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:62" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="23"/>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AD2" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="51" t="s">
+      <c r="AI2" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="53" t="s">
+      <c r="AP2" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
       <c r="AZ2" s="39"/>
-      <c r="BA2" s="50" t="s">
+      <c r="BA2" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BE2" s="49" t="s">
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BE2" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="50"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3952,7 +4246,7 @@
         <v>249</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>280</v>
@@ -4000,7 +4294,7 @@
         <v>280</v>
       </c>
       <c r="AF3" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG3" s="14" t="s">
         <v>289</v>
@@ -4033,7 +4327,7 @@
         <v>250</v>
       </c>
       <c r="AS3" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AT3" s="14" t="s">
         <v>406</v>
@@ -4071,7 +4365,7 @@
         <v>280</v>
       </c>
       <c r="BG3" s="14" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="BH3" s="14" t="s">
         <v>281</v>
@@ -4196,7 +4490,7 @@
         <v>10</v>
       </c>
       <c r="AS4" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT4" s="19">
         <v>21034</v>
@@ -4234,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="BG4" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BH4" s="19">
         <v>23540</v>
@@ -4357,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="AS5" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT5" s="19">
         <v>21723</v>
@@ -4395,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="BG5" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BH5" s="19">
         <v>24301</v>
@@ -4518,7 +4812,7 @@
         <v>412</v>
       </c>
       <c r="AS6" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AT6" s="19">
         <v>22079</v>
@@ -4555,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="BG6" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BH6" s="19">
         <v>25763</v>
@@ -4678,7 +4972,7 @@
         <v>10</v>
       </c>
       <c r="AS7" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT7" s="19">
         <v>20839</v>
@@ -4716,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="BG7" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BH7" s="19">
         <v>27590</v>
@@ -4839,7 +5133,7 @@
         <v>12</v>
       </c>
       <c r="AS8" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT8" s="19">
         <v>21846</v>
@@ -4876,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="BG8" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BH8" s="19">
         <v>29080</v>
@@ -4996,10 +5290,10 @@
         <v>2</v>
       </c>
       <c r="AR9" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AS9" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AT9" s="19">
         <v>22079</v>
@@ -5037,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="BG9" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH9" s="19">
         <v>23675</v>
@@ -5160,7 +5454,7 @@
         <v>10</v>
       </c>
       <c r="AS10" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT10" s="19">
         <v>21149</v>
@@ -5198,7 +5492,7 @@
         <v>2</v>
       </c>
       <c r="BG10" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BH10" s="19">
         <v>25540</v>
@@ -5231,7 +5525,7 @@
         <v>80</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>275</v>
@@ -5321,7 +5615,7 @@
         <v>12</v>
       </c>
       <c r="AS11" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT11" s="19">
         <v>21598</v>
@@ -5330,7 +5624,7 @@
         <v>417</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AW11" s="10">
         <v>1960</v>
@@ -5359,7 +5653,7 @@
         <v>2</v>
       </c>
       <c r="BG11" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BH11" s="19">
         <v>27218</v>
@@ -5482,7 +5776,7 @@
         <v>412</v>
       </c>
       <c r="AS12" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AT12" s="19">
         <v>22079</v>
@@ -5519,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="BG12" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BH12" s="19">
         <v>28908</v>
@@ -5642,7 +5936,7 @@
         <v>10</v>
       </c>
       <c r="AS13" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT13" s="19">
         <v>21263</v>
@@ -5651,7 +5945,7 @@
         <v>419</v>
       </c>
       <c r="AV13" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AW13" s="10">
         <v>1959</v>
@@ -5680,7 +5974,7 @@
         <v>2</v>
       </c>
       <c r="BG13" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BH13" s="19">
         <v>29302</v>
@@ -5803,7 +6097,7 @@
         <v>12</v>
       </c>
       <c r="AS14" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT14" s="19">
         <v>22057</v>
@@ -5840,7 +6134,7 @@
         <v>3</v>
       </c>
       <c r="BG14" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BH14" s="19">
         <v>23675</v>
@@ -5960,10 +6254,10 @@
         <v>4</v>
       </c>
       <c r="AR15" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AS15" s="38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AT15" s="19">
         <v>22585</v>
@@ -6001,7 +6295,7 @@
         <v>3</v>
       </c>
       <c r="BG15" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BH15" s="19">
         <v>25540</v>
@@ -6124,7 +6418,7 @@
         <v>10</v>
       </c>
       <c r="AS16" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT16" s="19">
         <v>21296</v>
@@ -6161,7 +6455,7 @@
         <v>3</v>
       </c>
       <c r="BG16" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BH16" s="19">
         <v>27218</v>
@@ -6284,7 +6578,7 @@
         <v>12</v>
       </c>
       <c r="AS17" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT17" s="19">
         <v>22058</v>
@@ -6322,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="BG17" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BH17" s="19">
         <v>28908</v>
@@ -6442,10 +6736,10 @@
         <v>5</v>
       </c>
       <c r="AR18" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="AS18" s="11" t="s">
         <v>499</v>
-      </c>
-      <c r="AS18" s="11" t="s">
-        <v>500</v>
       </c>
       <c r="AT18" s="19">
         <v>22585</v>
@@ -6482,7 +6776,7 @@
         <v>3</v>
       </c>
       <c r="BG18" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="BH18" s="19">
         <v>29302</v>
@@ -6597,7 +6891,7 @@
         <v>10</v>
       </c>
       <c r="AS19" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT19" s="19">
         <v>21209</v>
@@ -6635,7 +6929,7 @@
         <v>4</v>
       </c>
       <c r="BG19" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="BH19" s="19">
         <v>24046</v>
@@ -6750,7 +7044,7 @@
         <v>12</v>
       </c>
       <c r="AS20" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT20" s="19">
         <v>21988</v>
@@ -6787,7 +7081,7 @@
         <v>4</v>
       </c>
       <c r="BG20" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BH20" s="19">
         <v>25700</v>
@@ -6902,7 +7196,7 @@
         <v>412</v>
       </c>
       <c r="AS21" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AT21" s="19">
         <v>22585</v>
@@ -6939,7 +7233,7 @@
         <v>4</v>
       </c>
       <c r="BG21" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BH21" s="19">
         <v>27593</v>
@@ -7054,7 +7348,7 @@
         <v>10</v>
       </c>
       <c r="AS22" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT22" s="19">
         <v>19524</v>
@@ -7091,7 +7385,7 @@
         <v>4</v>
       </c>
       <c r="BG22" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BH22" s="19">
         <v>29528</v>
@@ -7205,7 +7499,7 @@
         <v>12</v>
       </c>
       <c r="AS23" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT23" s="19">
         <v>20203</v>
@@ -7243,7 +7537,7 @@
         <v>4</v>
       </c>
       <c r="BG23" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BH23" s="19">
         <v>30051</v>
@@ -7357,7 +7651,7 @@
         <v>412</v>
       </c>
       <c r="AS24" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AT24" s="19">
         <v>20803</v>
@@ -7394,7 +7688,7 @@
         <v>4</v>
       </c>
       <c r="BG24" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BH24" s="19">
         <v>30434</v>
@@ -7508,7 +7802,7 @@
         <v>10</v>
       </c>
       <c r="AS25" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT25" s="19">
         <v>19428</v>
@@ -7546,7 +7840,7 @@
         <v>5</v>
       </c>
       <c r="BG25" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="BH25" s="19">
         <v>23754</v>
@@ -7660,7 +7954,7 @@
         <v>12</v>
       </c>
       <c r="AS26" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT26" s="19">
         <v>20198</v>
@@ -7669,7 +7963,7 @@
         <v>413</v>
       </c>
       <c r="AV26" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AW26" s="10">
         <v>1956</v>
@@ -7697,7 +7991,7 @@
         <v>5</v>
       </c>
       <c r="BG26" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BH26" s="19">
         <v>25216</v>
@@ -7808,10 +8102,10 @@
         <v>8</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AS27" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AT27" s="19">
         <v>20803</v>
@@ -7849,7 +8143,7 @@
         <v>5</v>
       </c>
       <c r="BG27" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BH27" s="19">
         <v>26548</v>
@@ -7963,7 +8257,7 @@
         <v>10</v>
       </c>
       <c r="AS28" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT28" s="19">
         <v>27483</v>
@@ -7972,7 +8266,7 @@
         <v>424</v>
       </c>
       <c r="AV28" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AW28" s="34">
         <v>1976</v>
@@ -8000,7 +8294,7 @@
         <v>5</v>
       </c>
       <c r="BG28" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BH28" s="19">
         <v>28443</v>
@@ -8114,7 +8408,7 @@
         <v>12</v>
       </c>
       <c r="AS29" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT29" s="19">
         <v>28241</v>
@@ -8152,7 +8446,7 @@
         <v>5</v>
       </c>
       <c r="BG29" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BH29" s="19">
         <v>29952</v>
@@ -8266,7 +8560,7 @@
         <v>412</v>
       </c>
       <c r="AS30" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AT30" s="19">
         <v>28789</v>
@@ -8303,7 +8597,7 @@
         <v>5</v>
       </c>
       <c r="BG30" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BH30" s="19">
         <v>30399</v>
@@ -8318,10 +8612,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>513</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>18</v>
@@ -8402,7 +8696,7 @@
         <v>10</v>
       </c>
       <c r="AS31" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT31" s="19">
         <v>27862</v>
@@ -8439,7 +8733,7 @@
         <v>6</v>
       </c>
       <c r="BG31" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BH31" s="19">
         <v>24077</v>
@@ -8454,10 +8748,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>19</v>
@@ -8538,7 +8832,7 @@
         <v>12</v>
       </c>
       <c r="AS32" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT32" s="19">
         <v>28627</v>
@@ -8575,7 +8869,7 @@
         <v>6</v>
       </c>
       <c r="BG32" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH32" s="19">
         <v>26723</v>
@@ -8590,10 +8884,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>515</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>516</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>19</v>
@@ -8671,10 +8965,10 @@
         <v>10</v>
       </c>
       <c r="AR33" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AS33" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AT33" s="19">
         <v>29154</v>
@@ -8683,7 +8977,7 @@
         <v>431</v>
       </c>
       <c r="AV33" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AW33" s="10">
         <v>1983</v>
@@ -8711,7 +9005,7 @@
         <v>6</v>
       </c>
       <c r="BG33" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BH33" s="19">
         <v>27895</v>
@@ -8795,7 +9089,7 @@
         <v>10</v>
       </c>
       <c r="AS34" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT34" s="19">
         <v>28155</v>
@@ -8832,7 +9126,7 @@
         <v>6</v>
       </c>
       <c r="BG34" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BH34" s="19">
         <v>28597</v>
@@ -8916,7 +9210,7 @@
         <v>12</v>
       </c>
       <c r="AS35" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT35" s="19">
         <v>28896</v>
@@ -8925,7 +9219,7 @@
         <v>420</v>
       </c>
       <c r="AV35" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AW35" s="10">
         <v>1980</v>
@@ -8953,7 +9247,7 @@
         <v>6</v>
       </c>
       <c r="BG35" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BH35" s="19">
         <v>30010</v>
@@ -9034,10 +9328,10 @@
         <v>11</v>
       </c>
       <c r="AR36" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AS36" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AT36" s="19">
         <v>29524</v>
@@ -9074,7 +9368,7 @@
         <v>7</v>
       </c>
       <c r="BG36" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BH36" s="19">
         <v>22264</v>
@@ -9158,7 +9452,7 @@
         <v>10</v>
       </c>
       <c r="AS37" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT37" s="19">
         <v>28163</v>
@@ -9195,7 +9489,7 @@
         <v>7</v>
       </c>
       <c r="BG37" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BH37" s="19">
         <v>23206</v>
@@ -9279,7 +9573,7 @@
         <v>12</v>
       </c>
       <c r="AS38" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT38" s="19">
         <v>28984</v>
@@ -9316,7 +9610,7 @@
         <v>7</v>
       </c>
       <c r="BG38" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BH38" s="19">
         <v>25071</v>
@@ -9397,10 +9691,10 @@
         <v>12</v>
       </c>
       <c r="AR39" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="AS39" s="11" t="s">
         <v>502</v>
-      </c>
-      <c r="AS39" s="11" t="s">
-        <v>503</v>
       </c>
       <c r="AT39" s="19">
         <v>29310</v>
@@ -9437,7 +9731,7 @@
         <v>7</v>
       </c>
       <c r="BG39" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH39" s="19">
         <v>26661</v>
@@ -9521,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AS40" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT40" s="19">
         <v>28672</v>
@@ -9558,7 +9852,7 @@
         <v>7</v>
       </c>
       <c r="BG40" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH40" s="19">
         <v>27348</v>
@@ -9642,7 +9936,7 @@
         <v>12</v>
       </c>
       <c r="AS41" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT41" s="19">
         <v>29438</v>
@@ -9679,7 +9973,7 @@
         <v>8</v>
       </c>
       <c r="BG41" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BH41" s="19">
         <v>22279</v>
@@ -9763,7 +10057,7 @@
         <v>412</v>
       </c>
       <c r="AS42" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AT42" s="19">
         <v>29921</v>
@@ -9800,7 +10094,7 @@
         <v>8</v>
       </c>
       <c r="BG42" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BH42" s="19">
         <v>24838</v>
@@ -9884,7 +10178,7 @@
         <v>10</v>
       </c>
       <c r="AS43" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT43" s="19">
         <v>28990</v>
@@ -9921,7 +10215,7 @@
         <v>8</v>
       </c>
       <c r="BG43" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BH43" s="19">
         <v>25661</v>
@@ -10005,7 +10299,7 @@
         <v>12</v>
       </c>
       <c r="AS44" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT44" s="19">
         <v>29754</v>
@@ -10042,7 +10336,7 @@
         <v>8</v>
       </c>
       <c r="BG44" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BH44" s="19">
         <v>28314</v>
@@ -10126,7 +10420,7 @@
         <v>412</v>
       </c>
       <c r="AS45" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AT45" s="19">
         <v>30300</v>
@@ -10163,7 +10457,7 @@
         <v>8</v>
       </c>
       <c r="BG45" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="BH45" s="19">
         <v>29056</v>
@@ -10247,7 +10541,7 @@
         <v>10</v>
       </c>
       <c r="AS46" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT46" s="19">
         <v>29369</v>
@@ -10256,7 +10550,7 @@
         <v>430</v>
       </c>
       <c r="AV46" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AW46" s="10">
         <v>1981</v>
@@ -10284,7 +10578,7 @@
         <v>9</v>
       </c>
       <c r="BG46" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BH46" s="19">
         <v>30250</v>
@@ -10368,7 +10662,7 @@
         <v>12</v>
       </c>
       <c r="AS47" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT47" s="19">
         <v>30162</v>
@@ -10405,7 +10699,7 @@
         <v>9</v>
       </c>
       <c r="BG47" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BH47" s="19">
         <v>32466</v>
@@ -10489,7 +10783,7 @@
         <v>412</v>
       </c>
       <c r="AS48" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AT48" s="19">
         <v>30680</v>
@@ -10498,7 +10792,7 @@
         <v>413</v>
       </c>
       <c r="AV48" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AW48" s="10">
         <v>1987</v>
@@ -10526,7 +10820,7 @@
         <v>9</v>
       </c>
       <c r="BG48" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BH48" s="19">
         <v>33621</v>
@@ -10610,7 +10904,7 @@
         <v>10</v>
       </c>
       <c r="AS49" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT49" s="19">
         <v>21245</v>
@@ -10647,7 +10941,7 @@
         <v>9</v>
       </c>
       <c r="BG49" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BH49" s="19">
         <v>36271</v>
@@ -10731,7 +11025,7 @@
         <v>12</v>
       </c>
       <c r="AS50" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT50" s="19">
         <v>22037</v>
@@ -10768,7 +11062,7 @@
         <v>9</v>
       </c>
       <c r="BG50" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BH50" s="19">
         <v>36750</v>
@@ -10842,7 +11136,7 @@
         <v>412</v>
       </c>
       <c r="AS51" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AT51" s="19">
         <v>22616</v>
@@ -10879,7 +11173,7 @@
         <v>10</v>
       </c>
       <c r="BG51" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BH51" s="19">
         <v>30615</v>
@@ -10953,7 +11247,7 @@
         <v>10</v>
       </c>
       <c r="AS52" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT52" s="19">
         <v>27505</v>
@@ -10990,7 +11284,7 @@
         <v>10</v>
       </c>
       <c r="BG52" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BH52" s="19">
         <v>32209</v>
@@ -11064,7 +11358,7 @@
         <v>12</v>
       </c>
       <c r="AS53" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT53" s="19">
         <v>28143</v>
@@ -11101,7 +11395,7 @@
         <v>10</v>
       </c>
       <c r="BG53" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BH53" s="19">
         <v>33124</v>
@@ -11175,7 +11469,7 @@
         <v>412</v>
       </c>
       <c r="AS54" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AT54" s="19">
         <v>28789</v>
@@ -11212,7 +11506,7 @@
         <v>10</v>
       </c>
       <c r="BG54" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BH54" s="19">
         <v>33394</v>
@@ -11286,7 +11580,7 @@
         <v>10</v>
       </c>
       <c r="AS55" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT55" s="19">
         <v>20891</v>
@@ -11323,7 +11617,7 @@
         <v>10</v>
       </c>
       <c r="BG55" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BH55" s="19">
         <v>36683</v>
@@ -11397,7 +11691,7 @@
         <v>12</v>
       </c>
       <c r="AS56" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT56" s="19">
         <v>21622</v>
@@ -11434,7 +11728,7 @@
         <v>10</v>
       </c>
       <c r="BG56" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BH56" s="19">
         <v>37477</v>
@@ -11500,7 +11794,7 @@
         <v>412</v>
       </c>
       <c r="AS57" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AT57" s="19">
         <v>22079</v>
@@ -11537,7 +11831,7 @@
         <v>11</v>
       </c>
       <c r="BG57" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH57" s="19">
         <v>30985</v>
@@ -11603,7 +11897,7 @@
         <v>10</v>
       </c>
       <c r="AS58" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT58" s="19">
         <v>20192</v>
@@ -11640,7 +11934,7 @@
         <v>11</v>
       </c>
       <c r="BG58" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH58" s="19">
         <v>32111</v>
@@ -11706,7 +12000,7 @@
         <v>12</v>
       </c>
       <c r="AS59" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT59" s="19">
         <v>20899</v>
@@ -11715,7 +12009,7 @@
         <v>437</v>
       </c>
       <c r="AV59" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AW59" s="10">
         <v>1958</v>
@@ -11743,7 +12037,7 @@
         <v>11</v>
       </c>
       <c r="BG59" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH59" s="19">
         <v>33239</v>
@@ -11809,7 +12103,7 @@
         <v>412</v>
       </c>
       <c r="AS60" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AT60" s="19">
         <v>21502</v>
@@ -11846,7 +12140,7 @@
         <v>11</v>
       </c>
       <c r="BG60" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BH60" s="19">
         <v>35943</v>
@@ -11912,7 +12206,7 @@
         <v>10</v>
       </c>
       <c r="AS61" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT61" s="19">
         <v>20119</v>
@@ -11921,7 +12215,7 @@
         <v>434</v>
       </c>
       <c r="AV61" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AW61" s="10">
         <v>1956</v>
@@ -11949,7 +12243,7 @@
         <v>11</v>
       </c>
       <c r="BG61" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BH61" s="19">
         <v>37040</v>
@@ -12015,7 +12309,7 @@
         <v>12</v>
       </c>
       <c r="AS62" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT62" s="19">
         <v>20879</v>
@@ -12052,7 +12346,7 @@
         <v>11</v>
       </c>
       <c r="BG62" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH62" s="19">
         <v>37347</v>
@@ -12118,7 +12412,7 @@
         <v>412</v>
       </c>
       <c r="AS63" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AT63" s="19">
         <v>21396</v>
@@ -12155,7 +12449,7 @@
         <v>12</v>
       </c>
       <c r="BG63" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BH63" s="19">
         <v>31016</v>
@@ -12221,7 +12515,7 @@
         <v>10</v>
       </c>
       <c r="AS64" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT64" s="19">
         <v>28238</v>
@@ -12258,7 +12552,7 @@
         <v>12</v>
       </c>
       <c r="BG64" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BH64" s="19">
         <v>33113</v>
@@ -12324,7 +12618,7 @@
         <v>12</v>
       </c>
       <c r="AS65" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT65" s="19">
         <v>28976</v>
@@ -12361,7 +12655,7 @@
         <v>12</v>
       </c>
       <c r="BG65" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BH65" s="19">
         <v>34410</v>
@@ -12427,7 +12721,7 @@
         <v>412</v>
       </c>
       <c r="AS66" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AT66" s="19">
         <v>29555</v>
@@ -12464,7 +12758,7 @@
         <v>12</v>
       </c>
       <c r="BG66" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BH66" s="19">
         <v>36968</v>
@@ -12530,7 +12824,7 @@
         <v>10</v>
       </c>
       <c r="AS67" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT67" s="19">
         <v>20099</v>
@@ -12567,7 +12861,7 @@
         <v>12</v>
       </c>
       <c r="BG67" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BH67" s="19">
         <v>37446</v>
@@ -12633,7 +12927,7 @@
         <v>12</v>
       </c>
       <c r="AS68" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT68" s="19">
         <v>20863</v>
@@ -12670,7 +12964,7 @@
         <v>13</v>
       </c>
       <c r="BG68" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BH68" s="19">
         <v>31382</v>
@@ -12736,7 +13030,7 @@
         <v>412</v>
       </c>
       <c r="AS69" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AT69" s="19">
         <v>21285</v>
@@ -12773,7 +13067,7 @@
         <v>13</v>
       </c>
       <c r="BG69" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BH69" s="19">
         <v>32132</v>
@@ -12839,7 +13133,7 @@
         <v>10</v>
       </c>
       <c r="AS70" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT70" s="19">
         <v>20130</v>
@@ -12876,7 +13170,7 @@
         <v>13</v>
       </c>
       <c r="BG70" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BH70" s="19">
         <v>33843</v>
@@ -12942,7 +13236,7 @@
         <v>12</v>
       </c>
       <c r="AS71" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT71" s="19">
         <v>20924</v>
@@ -12979,7 +13273,7 @@
         <v>13</v>
       </c>
       <c r="BG71" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BH71" s="19">
         <v>37698</v>
@@ -13042,10 +13336,10 @@
         <v>23</v>
       </c>
       <c r="AR72" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AS72" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AT72" s="19">
         <v>21396</v>
@@ -13082,7 +13376,7 @@
         <v>14</v>
       </c>
       <c r="BG72" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BH72" s="19">
         <v>31761</v>
@@ -13148,7 +13442,7 @@
         <v>10</v>
       </c>
       <c r="AS73" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT73" s="19">
         <v>20102</v>
@@ -13185,7 +13479,7 @@
         <v>14</v>
       </c>
       <c r="BG73" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BH73" s="19">
         <v>32563</v>
@@ -13251,7 +13545,7 @@
         <v>12</v>
       </c>
       <c r="AS74" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT74" s="19">
         <v>20957</v>
@@ -13260,7 +13554,7 @@
         <v>417</v>
       </c>
       <c r="AV74" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AW74" s="10">
         <v>1958</v>
@@ -13288,7 +13582,7 @@
         <v>14</v>
       </c>
       <c r="BG74" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BH74" s="19">
         <v>36265</v>
@@ -13354,7 +13648,7 @@
         <v>412</v>
       </c>
       <c r="AS75" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AT75" s="19">
         <v>21396</v>
@@ -13391,7 +13685,7 @@
         <v>14</v>
       </c>
       <c r="BG75" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BH75" s="19">
         <v>38063</v>
@@ -13457,7 +13751,7 @@
         <v>10</v>
       </c>
       <c r="AS76" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT76" s="19">
         <v>27840</v>
@@ -13494,7 +13788,7 @@
         <v>15</v>
       </c>
       <c r="BG76" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH76" s="19">
         <v>32141</v>
@@ -13560,7 +13854,7 @@
         <v>12</v>
       </c>
       <c r="AS77" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT77" s="19">
         <v>28575</v>
@@ -13597,7 +13891,7 @@
         <v>15</v>
       </c>
       <c r="BG77" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BH77" s="19">
         <v>34512</v>
@@ -13660,10 +13954,10 @@
         <v>25</v>
       </c>
       <c r="AR78" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AS78" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AT78" s="19">
         <v>29154</v>
@@ -13700,7 +13994,7 @@
         <v>15</v>
       </c>
       <c r="BG78" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH78" s="19">
         <v>37070</v>
@@ -13766,7 +14060,7 @@
         <v>10</v>
       </c>
       <c r="AS79" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT79" s="19">
         <v>27834</v>
@@ -13803,7 +14097,7 @@
         <v>15</v>
       </c>
       <c r="BG79" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BH79" s="19">
         <v>38096</v>
@@ -13869,7 +14163,7 @@
         <v>12</v>
       </c>
       <c r="AS80" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT80" s="19">
         <v>28565</v>
@@ -13906,7 +14200,7 @@
         <v>19</v>
       </c>
       <c r="BG80" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH80" s="19">
         <v>23328</v>
@@ -13967,7 +14261,7 @@
         <v>412</v>
       </c>
       <c r="AS81" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AT81" s="19">
         <v>29154</v>
@@ -14004,7 +14298,7 @@
         <v>19</v>
       </c>
       <c r="BG81" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH81" s="19">
         <v>24606</v>
@@ -14065,7 +14359,7 @@
         <v>10</v>
       </c>
       <c r="AS82" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT82" s="19">
         <v>20109</v>
@@ -14074,7 +14368,7 @@
         <v>414</v>
       </c>
       <c r="AV82" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AW82" s="10">
         <v>1956</v>
@@ -14102,7 +14396,7 @@
         <v>19</v>
       </c>
       <c r="BG82" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BH82" s="19">
         <v>26048</v>
@@ -14163,7 +14457,7 @@
         <v>12</v>
       </c>
       <c r="AS83" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT83" s="19">
         <v>20890</v>
@@ -14194,7 +14488,7 @@
         <v>19</v>
       </c>
       <c r="BG83" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BH83" s="19">
         <v>29052</v>
@@ -14256,7 +14550,7 @@
         <v>412</v>
       </c>
       <c r="AS84" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AT84" s="19">
         <v>21396</v>
@@ -14287,7 +14581,7 @@
         <v>19</v>
       </c>
       <c r="BG84" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH84" s="19">
         <v>29481</v>
@@ -14346,10 +14640,10 @@
         <v>10</v>
       </c>
       <c r="AR85" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AS85" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AT85" s="19">
         <v>30595</v>
@@ -14358,7 +14652,7 @@
         <v>431</v>
       </c>
       <c r="AV85" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AW85" s="10">
         <v>1986</v>
@@ -14379,8 +14673,8 @@
       <c r="BF85" s="10">
         <v>22</v>
       </c>
-      <c r="BG85" s="55" t="s">
-        <v>470</v>
+      <c r="BG85" s="49" t="s">
+        <v>469</v>
       </c>
       <c r="BH85" s="19">
         <v>22746</v>
@@ -14429,10 +14723,10 @@
         <v>22</v>
       </c>
       <c r="AR86" s="38" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AS86" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AT86" s="40">
         <v>22746</v>
@@ -14463,7 +14757,7 @@
         <v>22</v>
       </c>
       <c r="BG86" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="BH86" s="19">
         <v>23234</v>
@@ -14511,10 +14805,10 @@
         <v>17</v>
       </c>
       <c r="AR87" s="38" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AS87" s="38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AT87" s="40">
         <v>29885</v>
@@ -14545,7 +14839,7 @@
         <v>22</v>
       </c>
       <c r="BG87" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BH87" s="19">
         <v>24488</v>
@@ -14593,10 +14887,10 @@
         <v>12</v>
       </c>
       <c r="AR88" s="38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AS88" s="38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AT88" s="40">
         <v>31136</v>
@@ -14627,7 +14921,7 @@
         <v>22</v>
       </c>
       <c r="BG88" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BH88" s="19">
         <v>26356</v>
@@ -14678,7 +14972,7 @@
         <v>10</v>
       </c>
       <c r="AS89" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT89" s="19">
         <v>27840</v>
@@ -14707,7 +15001,7 @@
         <v>22</v>
       </c>
       <c r="BG89" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BH89" s="19">
         <v>27326</v>
@@ -14755,10 +15049,10 @@
         <v>29</v>
       </c>
       <c r="AR90" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS90" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT90" s="19">
         <v>28575</v>
@@ -14787,7 +15081,7 @@
         <v>22</v>
       </c>
       <c r="BG90" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BH90" s="19">
         <v>28989</v>
@@ -14838,7 +15132,7 @@
         <v>12</v>
       </c>
       <c r="AS91" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AT91" s="19">
         <v>29154</v>
@@ -14867,7 +15161,7 @@
         <v>27</v>
       </c>
       <c r="BG91" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BH91" s="19">
         <v>22857</v>
@@ -14918,7 +15212,7 @@
         <v>10</v>
       </c>
       <c r="AS92" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT92" s="19">
         <v>27834</v>
@@ -14947,7 +15241,7 @@
         <v>27</v>
       </c>
       <c r="BG92" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BH92" s="19">
         <v>23607</v>
@@ -14998,7 +15292,7 @@
         <v>12</v>
       </c>
       <c r="AS93" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT93" s="19">
         <v>28930</v>
@@ -15027,7 +15321,7 @@
         <v>27</v>
       </c>
       <c r="BG93" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BH93" s="19">
         <v>24535</v>
@@ -15078,7 +15372,7 @@
         <v>412</v>
       </c>
       <c r="AS94" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AT94" s="19">
         <v>29520</v>
@@ -15107,7 +15401,7 @@
         <v>27</v>
       </c>
       <c r="BG94" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BH94" s="19">
         <v>27338</v>
@@ -15155,10 +15449,10 @@
         <v>30</v>
       </c>
       <c r="AR95" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AS95" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AT95" s="19">
         <v>31067</v>
@@ -15167,7 +15461,7 @@
         <v>414</v>
       </c>
       <c r="AV95" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AW95" s="10">
         <v>1988</v>
@@ -15187,7 +15481,7 @@
         <v>27</v>
       </c>
       <c r="BG95" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BH95" s="19">
         <v>29580</v>
@@ -15235,10 +15529,10 @@
         <v>30</v>
       </c>
       <c r="AR96" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="AS96" s="11" t="s">
         <v>518</v>
-      </c>
-      <c r="AS96" s="11" t="s">
-        <v>519</v>
       </c>
       <c r="AT96" s="19">
         <v>29520</v>
@@ -15267,7 +15561,7 @@
         <v>23</v>
       </c>
       <c r="BG96" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH96" s="19">
         <v>22746</v>
@@ -15326,7 +15620,7 @@
         <v>23</v>
       </c>
       <c r="BG97" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BH97" s="19">
         <v>23234</v>
@@ -15375,7 +15669,7 @@
         <v>23</v>
       </c>
       <c r="BG98" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BH98" s="19">
         <v>24488</v>
@@ -15424,7 +15718,7 @@
         <v>23</v>
       </c>
       <c r="BG99" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BH99" s="19">
         <v>26356</v>
@@ -15473,7 +15767,7 @@
         <v>23</v>
       </c>
       <c r="BG100" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BH100" s="19">
         <v>27326</v>
@@ -15522,7 +15816,7 @@
         <v>23</v>
       </c>
       <c r="BG101" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BH101" s="19">
         <v>28989</v>
@@ -15571,7 +15865,7 @@
         <v>24</v>
       </c>
       <c r="BG102" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="BH102" s="19">
         <v>22746</v>
@@ -15620,7 +15914,7 @@
         <v>24</v>
       </c>
       <c r="BG103" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BH103" s="19">
         <v>23234</v>
@@ -15668,7 +15962,7 @@
         <v>24</v>
       </c>
       <c r="BG104" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BH104" s="19">
         <v>24488</v>
@@ -15716,7 +16010,7 @@
         <v>24</v>
       </c>
       <c r="BG105" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BH105" s="19">
         <v>26356</v>
@@ -15764,7 +16058,7 @@
         <v>24</v>
       </c>
       <c r="BG106" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BH106" s="19">
         <v>27326</v>
@@ -15812,7 +16106,7 @@
         <v>24</v>
       </c>
       <c r="BG107" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BH107" s="19">
         <v>28989</v>
@@ -15860,7 +16154,7 @@
         <v>20</v>
       </c>
       <c r="BG108" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BH108" s="19">
         <v>22857</v>
@@ -15908,7 +16202,7 @@
         <v>20</v>
       </c>
       <c r="BG109" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BH109" s="19">
         <v>23607</v>
@@ -15956,7 +16250,7 @@
         <v>20</v>
       </c>
       <c r="BG110" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BH110" s="19">
         <v>24535</v>
@@ -16004,7 +16298,7 @@
         <v>20</v>
       </c>
       <c r="BG111" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BH111" s="19">
         <v>27338</v>
@@ -16052,7 +16346,7 @@
         <v>20</v>
       </c>
       <c r="BG112" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BH112" s="19">
         <v>29580</v>
@@ -16100,7 +16394,7 @@
         <v>17</v>
       </c>
       <c r="BG113" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BH113" s="19">
         <v>30250</v>
@@ -16148,7 +16442,7 @@
         <v>17</v>
       </c>
       <c r="BG114" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BH114" s="19">
         <v>32466</v>
@@ -16196,7 +16490,7 @@
         <v>17</v>
       </c>
       <c r="BG115" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BH115" s="19">
         <v>33621</v>
@@ -16244,7 +16538,7 @@
         <v>17</v>
       </c>
       <c r="BG116" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BH116" s="19">
         <v>36271</v>
@@ -16292,7 +16586,7 @@
         <v>17</v>
       </c>
       <c r="BG117" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BH117" s="19">
         <v>36750</v>
@@ -16340,7 +16634,7 @@
         <v>16</v>
       </c>
       <c r="BG118" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BH118" s="19">
         <v>24077</v>
@@ -16388,7 +16682,7 @@
         <v>16</v>
       </c>
       <c r="BG119" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BH119" s="19">
         <v>26723</v>
@@ -16436,7 +16730,7 @@
         <v>16</v>
       </c>
       <c r="BG120" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BH120" s="19">
         <v>27895</v>
@@ -16484,7 +16778,7 @@
         <v>16</v>
       </c>
       <c r="BG121" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BH121" s="19">
         <v>28597</v>
@@ -16532,7 +16826,7 @@
         <v>16</v>
       </c>
       <c r="BG122" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BH122" s="19">
         <v>30010</v>
@@ -16580,7 +16874,7 @@
         <v>18</v>
       </c>
       <c r="BG123" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BH123" s="19">
         <v>23540</v>
@@ -16628,7 +16922,7 @@
         <v>18</v>
       </c>
       <c r="BG124" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BH124" s="19">
         <v>24301</v>
@@ -16676,7 +16970,7 @@
         <v>18</v>
       </c>
       <c r="BG125" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="BH125" s="19">
         <v>25763</v>
@@ -16724,7 +17018,7 @@
         <v>18</v>
       </c>
       <c r="BG126" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="BH126" s="19">
         <v>27590</v>
@@ -16772,7 +17066,7 @@
         <v>18</v>
       </c>
       <c r="BG127" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BH127" s="19">
         <v>29080</v>
@@ -16820,7 +17114,7 @@
         <v>25</v>
       </c>
       <c r="BG128" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BH128" s="19">
         <v>30615</v>
@@ -16868,7 +17162,7 @@
         <v>25</v>
       </c>
       <c r="BG129" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BH129" s="19">
         <v>32209</v>
@@ -16916,7 +17210,7 @@
         <v>25</v>
       </c>
       <c r="BG130" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BH130" s="19">
         <v>33124</v>
@@ -16964,7 +17258,7 @@
         <v>25</v>
       </c>
       <c r="BG131" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BH131" s="19">
         <v>33394</v>
@@ -17012,7 +17306,7 @@
         <v>25</v>
       </c>
       <c r="BG132" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="BH132" s="19">
         <v>36683</v>
@@ -17060,7 +17354,7 @@
         <v>25</v>
       </c>
       <c r="BG133" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="BH133" s="19">
         <v>37477</v>
@@ -17108,7 +17402,7 @@
         <v>21</v>
       </c>
       <c r="BG134" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BH134" s="19">
         <v>31016</v>
@@ -17156,7 +17450,7 @@
         <v>21</v>
       </c>
       <c r="BG135" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BH135" s="19">
         <v>33113</v>
@@ -17204,7 +17498,7 @@
         <v>21</v>
       </c>
       <c r="BG136" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BH136" s="19">
         <v>34410</v>
@@ -17252,7 +17546,7 @@
         <v>21</v>
       </c>
       <c r="BG137" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BH137" s="19">
         <v>36968</v>
@@ -17300,7 +17594,7 @@
         <v>21</v>
       </c>
       <c r="BG138" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BH138" s="19">
         <v>37446</v>
@@ -17348,7 +17642,7 @@
         <v>27</v>
       </c>
       <c r="BG139" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BH139" s="19">
         <v>33124</v>
@@ -17396,7 +17690,7 @@
         <v>27</v>
       </c>
       <c r="BG140" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BH140" s="19">
         <v>33394</v>
@@ -17444,7 +17738,7 @@
         <v>27</v>
       </c>
       <c r="BG141" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BH141" s="19">
         <v>36683</v>
@@ -17492,7 +17786,7 @@
         <v>27</v>
       </c>
       <c r="BG142" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BH142" s="19">
         <v>37477</v>
@@ -17540,7 +17834,7 @@
         <v>26</v>
       </c>
       <c r="BG143" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BH143" s="19">
         <v>22857</v>
@@ -17563,7 +17857,7 @@
         <v>26</v>
       </c>
       <c r="BG144" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BH144" s="19">
         <v>23607</v>
@@ -17586,7 +17880,7 @@
         <v>26</v>
       </c>
       <c r="BG145" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BH145" s="19">
         <v>24535</v>
@@ -17609,7 +17903,7 @@
         <v>26</v>
       </c>
       <c r="BG146" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BH146" s="19">
         <v>27338</v>
@@ -17632,7 +17926,7 @@
         <v>26</v>
       </c>
       <c r="BG147" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BH147" s="19">
         <v>29580</v>
@@ -17966,6 +18260,7 @@
       <c r="V193" s="22"/>
     </row>
   </sheetData>
+  <autoFilter ref="L3:P143"/>
   <mergeCells count="11">
     <mergeCell ref="BE2:BJ2"/>
     <mergeCell ref="A2:E2"/>
@@ -17984,129 +18279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:D25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1" s="37">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="37">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="37">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="37">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="37">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="37">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="37">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="37">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="37">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="37">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="37">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="37">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="32"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="37">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="37">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="37">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="37">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="37">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="37">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="37">
-        <v>5000</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="D1:D27">
-    <sortCondition ref="D1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B7"/>
   <sheetViews>
@@ -18121,10 +18294,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1184,9 +1184,6 @@
     <t>165 Ken city, P.O. Box 942873</t>
   </si>
   <si>
-    <t>165 Village Dr., P.O. Box 3700 Eureka</t>
-  </si>
-  <si>
     <t>50 Higuera Street</t>
   </si>
   <si>
@@ -1202,9 +1199,6 @@
     <t>5973 Moon Shadow Dr. Herriman</t>
   </si>
   <si>
-    <t>118 Lippitt Ave Warwick, Rhode Island</t>
-  </si>
-  <si>
     <t>Po Box 83, Faith, NC</t>
   </si>
   <si>
@@ -1626,6 +1620,12 @@
   </si>
   <si>
     <t>BONUSID</t>
+  </si>
+  <si>
+    <t>165 Village Dr., P.O. Box 3700</t>
+  </si>
+  <si>
+    <t>118 Lippitt Ave Warwick</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1771,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1900,6 +1900,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1918,10 +1923,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2353,63 +2356,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="D1" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="C1" s="56" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>522</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="B2" s="51" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>524</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>525</v>
       </c>
       <c r="C2" t="s">
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
         <v>526</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>527</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,12 +2422,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2444,12 +2447,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -2462,10 +2465,10 @@
   <dimension ref="A3:R30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,58 +2493,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="59" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4067,9 +4070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ193"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="AK33" sqref="AK33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4107,7 +4110,7 @@
     <col min="34" max="34" width="4.140625" customWidth="1"/>
     <col min="35" max="35" width="4.85546875" customWidth="1"/>
     <col min="36" max="36" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -4135,86 +4138,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:62" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="23"/>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="50" t="s">
+      <c r="X2" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="52" t="s">
+      <c r="AD2" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="52" t="s">
+      <c r="AI2" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
+      <c r="AP2" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
       <c r="AZ2" s="39"/>
-      <c r="BA2" s="51" t="s">
+      <c r="BA2" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BE2" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="50"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="54"/>
+      <c r="BE2" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="53"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -4246,7 +4249,7 @@
         <v>249</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>280</v>
@@ -4294,7 +4297,7 @@
         <v>280</v>
       </c>
       <c r="AF3" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AG3" s="14" t="s">
         <v>289</v>
@@ -4327,25 +4330,25 @@
         <v>250</v>
       </c>
       <c r="AS3" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AT3" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AU3" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV3" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="AU3" s="26" t="s">
+      <c r="AW3" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="AV3" s="14" t="s">
+      <c r="AX3" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="AW3" s="14" t="s">
+      <c r="AY3" s="29" t="s">
         <v>409</v>
-      </c>
-      <c r="AX3" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="AY3" s="29" t="s">
-        <v>411</v>
       </c>
       <c r="AZ3" s="42"/>
       <c r="BA3" s="14" t="s">
@@ -4365,7 +4368,7 @@
         <v>280</v>
       </c>
       <c r="BG3" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BH3" s="14" t="s">
         <v>281</v>
@@ -4374,7 +4377,7 @@
         <v>282</v>
       </c>
       <c r="BJ3" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
@@ -4456,7 +4459,7 @@
       <c r="AE4" s="10">
         <v>1</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="10">
         <v>7032300034</v>
       </c>
       <c r="AG4" s="11" t="s">
@@ -4469,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AL4" s="11" t="s">
         <v>358</v>
@@ -4490,16 +4493,16 @@
         <v>10</v>
       </c>
       <c r="AS4" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT4" s="19">
         <v>21034</v>
       </c>
       <c r="AU4" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV4" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AW4" s="10">
         <v>1958</v>
@@ -4528,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="BG4" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="BH4" s="19">
         <v>23540</v>
@@ -4617,7 +4620,7 @@
       <c r="AE5" s="10">
         <v>2</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AF5" s="10">
         <v>7032300039</v>
       </c>
       <c r="AG5" s="11" t="s">
@@ -4651,16 +4654,16 @@
         <v>12</v>
       </c>
       <c r="AS5" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT5" s="19">
         <v>21723</v>
       </c>
       <c r="AU5" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV5" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW5" s="10">
         <v>1960</v>
@@ -4689,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="BG5" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="BH5" s="19">
         <v>24301</v>
@@ -4778,7 +4781,7 @@
       <c r="AE6" s="10">
         <v>3</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="10">
         <v>7032300050</v>
       </c>
       <c r="AG6" s="11" t="s">
@@ -4791,7 +4794,7 @@
         <v>3</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AL6" s="11" t="s">
         <v>368</v>
@@ -4809,19 +4812,19 @@
         <v>1</v>
       </c>
       <c r="AR6" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS6" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AT6" s="19">
         <v>22079</v>
       </c>
       <c r="AU6" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AV6" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW6" s="10">
         <v>1964</v>
@@ -4849,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="BG6" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="BH6" s="19">
         <v>25763</v>
@@ -4938,7 +4941,7 @@
       <c r="AE7" s="10">
         <v>4</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AF7" s="10">
         <v>7032300027</v>
       </c>
       <c r="AG7" s="11" t="s">
@@ -4951,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AL7" s="11" t="s">
         <v>369</v>
@@ -4972,16 +4975,16 @@
         <v>10</v>
       </c>
       <c r="AS7" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT7" s="19">
         <v>20839</v>
       </c>
       <c r="AU7" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV7" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AW7" s="10">
         <v>1958</v>
@@ -5010,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="BG7" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BH7" s="19">
         <v>27590</v>
@@ -5099,7 +5102,7 @@
       <c r="AE8" s="10">
         <v>5</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="10">
         <v>7032300001</v>
       </c>
       <c r="AG8" s="11" t="s">
@@ -5112,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AL8" s="11" t="s">
         <v>370</v>
@@ -5133,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="AS8" s="38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT8" s="19">
         <v>21846</v>
@@ -5142,7 +5145,7 @@
         <v>351</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW8" s="10">
         <v>1960</v>
@@ -5170,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="BG8" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BH8" s="19">
         <v>29080</v>
@@ -5259,7 +5262,7 @@
       <c r="AE9" s="10">
         <v>6</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="10">
         <v>7032300079</v>
       </c>
       <c r="AG9" s="11" t="s">
@@ -5272,7 +5275,7 @@
         <v>6</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>387</v>
+        <v>533</v>
       </c>
       <c r="AL9" s="11" t="s">
         <v>371</v>
@@ -5290,19 +5293,19 @@
         <v>2</v>
       </c>
       <c r="AR9" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AS9" s="38" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AT9" s="19">
         <v>22079</v>
       </c>
       <c r="AU9" s="33" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW9" s="10">
         <v>1964</v>
@@ -5331,7 +5334,7 @@
         <v>2</v>
       </c>
       <c r="BG9" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH9" s="19">
         <v>23675</v>
@@ -5420,7 +5423,7 @@
       <c r="AE10" s="10">
         <v>7</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AF10" s="10">
         <v>7032300081</v>
       </c>
       <c r="AG10" s="11" t="s">
@@ -5433,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AL10" s="11" t="s">
         <v>374</v>
@@ -5454,16 +5457,16 @@
         <v>10</v>
       </c>
       <c r="AS10" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT10" s="19">
         <v>21149</v>
       </c>
       <c r="AU10" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW10" s="10">
         <v>1958</v>
@@ -5492,7 +5495,7 @@
         <v>2</v>
       </c>
       <c r="BG10" s="35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BH10" s="19">
         <v>25540</v>
@@ -5525,7 +5528,7 @@
         <v>80</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>275</v>
@@ -5581,7 +5584,7 @@
       <c r="AE11" s="10">
         <v>8</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="10">
         <v>7032300054</v>
       </c>
       <c r="AG11" s="11" t="s">
@@ -5594,7 +5597,7 @@
         <v>8</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AL11" s="11" t="s">
         <v>373</v>
@@ -5615,16 +5618,16 @@
         <v>12</v>
       </c>
       <c r="AS11" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT11" s="19">
         <v>21598</v>
       </c>
       <c r="AU11" s="33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AW11" s="10">
         <v>1960</v>
@@ -5653,7 +5656,7 @@
         <v>2</v>
       </c>
       <c r="BG11" s="35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BH11" s="19">
         <v>27218</v>
@@ -5742,7 +5745,7 @@
       <c r="AE12" s="10">
         <v>9</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF12" s="10">
         <v>7032300059</v>
       </c>
       <c r="AG12" s="11" t="s">
@@ -5773,19 +5776,19 @@
         <v>3</v>
       </c>
       <c r="AR12" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS12" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AT12" s="19">
         <v>22079</v>
       </c>
       <c r="AU12" s="33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AV12" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW12" s="10">
         <v>1964</v>
@@ -5813,7 +5816,7 @@
         <v>2</v>
       </c>
       <c r="BG12" s="35" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BH12" s="19">
         <v>28908</v>
@@ -5902,7 +5905,7 @@
       <c r="AE13" s="10">
         <v>10</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="10">
         <v>7032300086</v>
       </c>
       <c r="AG13" s="11" t="s">
@@ -5936,16 +5939,16 @@
         <v>10</v>
       </c>
       <c r="AS13" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT13" s="19">
         <v>21263</v>
       </c>
       <c r="AU13" s="33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AV13" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AW13" s="10">
         <v>1959</v>
@@ -5974,7 +5977,7 @@
         <v>2</v>
       </c>
       <c r="BG13" s="35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="BH13" s="19">
         <v>29302</v>
@@ -6063,7 +6066,7 @@
       <c r="AE14" s="10">
         <v>11</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="10">
         <v>7032300082</v>
       </c>
       <c r="AG14" s="11" t="s">
@@ -6097,16 +6100,16 @@
         <v>12</v>
       </c>
       <c r="AS14" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT14" s="19">
         <v>22057</v>
       </c>
       <c r="AU14" s="33" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AV14" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW14" s="34">
         <v>1961</v>
@@ -6134,7 +6137,7 @@
         <v>3</v>
       </c>
       <c r="BG14" s="35" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="BH14" s="19">
         <v>23675</v>
@@ -6223,7 +6226,7 @@
       <c r="AE15" s="10">
         <v>12</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AF15" s="10">
         <v>7032300042</v>
       </c>
       <c r="AG15" s="11" t="s">
@@ -6239,7 +6242,7 @@
         <v>386</v>
       </c>
       <c r="AL15" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AM15" s="27" t="s">
         <v>372</v>
@@ -6254,19 +6257,19 @@
         <v>4</v>
       </c>
       <c r="AR15" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AS15" s="38" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AT15" s="19">
         <v>22585</v>
       </c>
       <c r="AU15" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AV15" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW15" s="10">
         <v>1965</v>
@@ -6295,7 +6298,7 @@
         <v>3</v>
       </c>
       <c r="BG15" s="35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BH15" s="19">
         <v>25540</v>
@@ -6384,7 +6387,7 @@
       <c r="AE16" s="10">
         <v>13</v>
       </c>
-      <c r="AF16" s="12">
+      <c r="AF16" s="10">
         <v>7032300055</v>
       </c>
       <c r="AG16" s="11" t="s">
@@ -6397,10 +6400,10 @@
         <v>13</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AL16" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AM16" s="11" t="s">
         <v>351</v>
@@ -6418,16 +6421,16 @@
         <v>10</v>
       </c>
       <c r="AS16" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT16" s="19">
         <v>21296</v>
       </c>
       <c r="AU16" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV16" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW16" s="10">
         <v>1959</v>
@@ -6455,7 +6458,7 @@
         <v>3</v>
       </c>
       <c r="BG16" s="35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="BH16" s="19">
         <v>27218</v>
@@ -6544,7 +6547,7 @@
       <c r="AE17" s="10">
         <v>14</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AF17" s="10">
         <v>7032300013</v>
       </c>
       <c r="AG17" s="11" t="s">
@@ -6557,7 +6560,7 @@
         <v>14</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AL17" s="11" t="s">
         <v>385</v>
@@ -6578,16 +6581,16 @@
         <v>12</v>
       </c>
       <c r="AS17" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT17" s="19">
         <v>22058</v>
       </c>
       <c r="AU17" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AV17" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AW17" s="34">
         <v>1961</v>
@@ -6616,7 +6619,7 @@
         <v>3</v>
       </c>
       <c r="BG17" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="BH17" s="19">
         <v>28908</v>
@@ -6705,7 +6708,7 @@
       <c r="AE18" s="10">
         <v>15</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AF18" s="10">
         <v>7032300099</v>
       </c>
       <c r="AG18" s="11" t="s">
@@ -6718,10 +6721,10 @@
         <v>15</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>393</v>
+        <v>534</v>
       </c>
       <c r="AL18" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM18" s="11" t="s">
         <v>346</v>
@@ -6736,19 +6739,19 @@
         <v>5</v>
       </c>
       <c r="AR18" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AS18" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AT18" s="19">
         <v>22585</v>
       </c>
       <c r="AU18" s="33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AV18" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AW18" s="10">
         <v>1965</v>
@@ -6776,7 +6779,7 @@
         <v>3</v>
       </c>
       <c r="BG18" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="BH18" s="19">
         <v>29302</v>
@@ -6857,7 +6860,7 @@
       <c r="AE19" s="10">
         <v>16</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AF19" s="10">
         <v>7032300023</v>
       </c>
       <c r="AG19" s="11" t="s">
@@ -6870,10 +6873,10 @@
         <v>16</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL19" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AM19" s="11" t="s">
         <v>347</v>
@@ -6891,16 +6894,16 @@
         <v>10</v>
       </c>
       <c r="AS19" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT19" s="19">
         <v>21209</v>
       </c>
       <c r="AU19" s="33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV19" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW19" s="10">
         <v>1959</v>
@@ -6929,7 +6932,7 @@
         <v>4</v>
       </c>
       <c r="BG19" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BH19" s="19">
         <v>24046</v>
@@ -7010,7 +7013,7 @@
       <c r="AE20" s="10">
         <v>17</v>
       </c>
-      <c r="AF20" s="12">
+      <c r="AF20" s="10">
         <v>7032300084</v>
       </c>
       <c r="AG20" s="11" t="s">
@@ -7023,10 +7026,10 @@
         <v>17</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL20" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AM20" s="11" t="s">
         <v>348</v>
@@ -7044,16 +7047,16 @@
         <v>12</v>
       </c>
       <c r="AS20" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT20" s="19">
         <v>21988</v>
       </c>
       <c r="AU20" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV20" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW20" s="34">
         <v>1961</v>
@@ -7081,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="BG20" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="BH20" s="19">
         <v>25700</v>
@@ -7162,7 +7165,7 @@
       <c r="AE21" s="10">
         <v>18</v>
       </c>
-      <c r="AF21" s="12">
+      <c r="AF21" s="10">
         <v>7032300011</v>
       </c>
       <c r="AG21" s="11" t="s">
@@ -7175,10 +7178,10 @@
         <v>18</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL21" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AM21" s="11" t="s">
         <v>350</v>
@@ -7193,19 +7196,19 @@
         <v>6</v>
       </c>
       <c r="AR21" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS21" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AT21" s="19">
         <v>22585</v>
       </c>
       <c r="AU21" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AW21" s="10">
         <v>1965</v>
@@ -7233,7 +7236,7 @@
         <v>4</v>
       </c>
       <c r="BG21" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="BH21" s="19">
         <v>27593</v>
@@ -7314,7 +7317,7 @@
       <c r="AE22" s="10">
         <v>19</v>
       </c>
-      <c r="AF22" s="12">
+      <c r="AF22" s="10">
         <v>7032300066</v>
       </c>
       <c r="AG22" s="15" t="s">
@@ -7348,16 +7351,16 @@
         <v>10</v>
       </c>
       <c r="AS22" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT22" s="19">
         <v>19524</v>
       </c>
       <c r="AU22" s="33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AV22" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW22" s="10">
         <v>1954</v>
@@ -7385,7 +7388,7 @@
         <v>4</v>
       </c>
       <c r="BG22" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="BH22" s="19">
         <v>29528</v>
@@ -7465,7 +7468,7 @@
       <c r="AE23" s="10">
         <v>20</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AF23" s="10">
         <v>7032300096</v>
       </c>
       <c r="AG23" s="15" t="s">
@@ -7478,7 +7481,7 @@
         <v>20</v>
       </c>
       <c r="AK23" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AL23" s="15" t="s">
         <v>359</v>
@@ -7499,16 +7502,16 @@
         <v>12</v>
       </c>
       <c r="AS23" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT23" s="19">
         <v>20203</v>
       </c>
       <c r="AU23" s="33" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AV23" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AW23" s="10">
         <v>1956</v>
@@ -7537,7 +7540,7 @@
         <v>4</v>
       </c>
       <c r="BG23" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="BH23" s="19">
         <v>30051</v>
@@ -7617,7 +7620,7 @@
       <c r="AE24" s="10">
         <v>21</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AF24" s="10">
         <v>7032300007</v>
       </c>
       <c r="AG24" s="15" t="s">
@@ -7648,19 +7651,19 @@
         <v>7</v>
       </c>
       <c r="AR24" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS24" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AT24" s="19">
         <v>20803</v>
       </c>
       <c r="AU24" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AV24" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW24" s="10">
         <v>1960</v>
@@ -7688,7 +7691,7 @@
         <v>4</v>
       </c>
       <c r="BG24" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="BH24" s="19">
         <v>30434</v>
@@ -7768,7 +7771,7 @@
       <c r="AE25" s="10">
         <v>22</v>
       </c>
-      <c r="AF25" s="12">
+      <c r="AF25" s="10">
         <v>7032300094</v>
       </c>
       <c r="AG25" s="15" t="s">
@@ -7781,7 +7784,7 @@
         <v>22</v>
       </c>
       <c r="AK25" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AL25" s="15" t="s">
         <v>364</v>
@@ -7802,16 +7805,16 @@
         <v>10</v>
       </c>
       <c r="AS25" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT25" s="19">
         <v>19428</v>
       </c>
       <c r="AU25" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AV25" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AW25" s="10">
         <v>1954</v>
@@ -7840,7 +7843,7 @@
         <v>5</v>
       </c>
       <c r="BG25" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="BH25" s="19">
         <v>23754</v>
@@ -7920,7 +7923,7 @@
       <c r="AE26" s="10">
         <v>23</v>
       </c>
-      <c r="AF26" s="12">
+      <c r="AF26" s="10">
         <v>7032300026</v>
       </c>
       <c r="AG26" s="15" t="s">
@@ -7954,16 +7957,16 @@
         <v>12</v>
       </c>
       <c r="AS26" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT26" s="19">
         <v>20198</v>
       </c>
       <c r="AU26" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV26" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AW26" s="10">
         <v>1956</v>
@@ -7991,7 +7994,7 @@
         <v>5</v>
       </c>
       <c r="BG26" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BH26" s="19">
         <v>25216</v>
@@ -8071,7 +8074,7 @@
       <c r="AE27" s="10">
         <v>24</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AF27" s="10">
         <v>7032300046</v>
       </c>
       <c r="AG27" s="15" t="s">
@@ -8102,19 +8105,19 @@
         <v>8</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AS27" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AT27" s="19">
         <v>20803</v>
       </c>
       <c r="AU27" s="33" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV27" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW27" s="10">
         <v>1960</v>
@@ -8143,7 +8146,7 @@
         <v>5</v>
       </c>
       <c r="BG27" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BH27" s="19">
         <v>26548</v>
@@ -8223,7 +8226,7 @@
       <c r="AE28" s="10">
         <v>25</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AF28" s="10">
         <v>7032300028</v>
       </c>
       <c r="AG28" s="15" t="s">
@@ -8257,16 +8260,16 @@
         <v>10</v>
       </c>
       <c r="AS28" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT28" s="19">
         <v>27483</v>
       </c>
       <c r="AU28" s="33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AV28" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AW28" s="34">
         <v>1976</v>
@@ -8294,7 +8297,7 @@
         <v>5</v>
       </c>
       <c r="BG28" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="BH28" s="19">
         <v>28443</v>
@@ -8374,7 +8377,7 @@
       <c r="AE29" s="10">
         <v>26</v>
       </c>
-      <c r="AF29" s="12">
+      <c r="AF29" s="10">
         <v>7032300024</v>
       </c>
       <c r="AG29" s="15" t="s">
@@ -8408,16 +8411,16 @@
         <v>12</v>
       </c>
       <c r="AS29" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT29" s="19">
         <v>28241</v>
       </c>
       <c r="AU29" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AV29" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW29" s="10">
         <v>1978</v>
@@ -8446,7 +8449,7 @@
         <v>5</v>
       </c>
       <c r="BG29" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BH29" s="19">
         <v>29952</v>
@@ -8526,7 +8529,7 @@
       <c r="AE30" s="10">
         <v>27</v>
       </c>
-      <c r="AF30" s="12">
+      <c r="AF30" s="10">
         <v>7032300088</v>
       </c>
       <c r="AG30" s="15" t="s">
@@ -8542,7 +8545,7 @@
         <v>230</v>
       </c>
       <c r="AL30" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AM30" s="11" t="s">
         <v>355</v>
@@ -8557,19 +8560,19 @@
         <v>9</v>
       </c>
       <c r="AR30" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS30" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AT30" s="19">
         <v>28789</v>
       </c>
       <c r="AU30" s="33" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AV30" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW30" s="10">
         <v>1982</v>
@@ -8597,7 +8600,7 @@
         <v>5</v>
       </c>
       <c r="BG30" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BH30" s="19">
         <v>30399</v>
@@ -8612,10 +8615,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>18</v>
@@ -8674,7 +8677,7 @@
       <c r="AE31" s="10">
         <v>5</v>
       </c>
-      <c r="AF31" s="12">
+      <c r="AF31" s="10">
         <v>7032300092</v>
       </c>
       <c r="AG31" s="12" t="s">
@@ -8696,16 +8699,16 @@
         <v>10</v>
       </c>
       <c r="AS31" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT31" s="19">
         <v>27862</v>
       </c>
       <c r="AU31" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AV31" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW31" s="10">
         <v>1977</v>
@@ -8733,7 +8736,7 @@
         <v>6</v>
       </c>
       <c r="BG31" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BH31" s="19">
         <v>24077</v>
@@ -8748,10 +8751,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>19</v>
@@ -8810,7 +8813,7 @@
       <c r="AE32" s="10">
         <v>3</v>
       </c>
-      <c r="AF32" s="12">
+      <c r="AF32" s="10">
         <v>7032300076</v>
       </c>
       <c r="AG32" s="12" t="s">
@@ -8832,16 +8835,16 @@
         <v>12</v>
       </c>
       <c r="AS32" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT32" s="19">
         <v>28627</v>
       </c>
       <c r="AU32" s="33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AV32" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AW32" s="10">
         <v>1979</v>
@@ -8869,7 +8872,7 @@
         <v>6</v>
       </c>
       <c r="BG32" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH32" s="19">
         <v>26723</v>
@@ -8884,10 +8887,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>19</v>
@@ -8946,7 +8949,7 @@
       <c r="AE33" s="10">
         <v>12</v>
       </c>
-      <c r="AF33" s="12">
+      <c r="AF33" s="10">
         <v>7032300040</v>
       </c>
       <c r="AG33" s="12" t="s">
@@ -8965,19 +8968,19 @@
         <v>10</v>
       </c>
       <c r="AR33" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="AS33" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="AS33" s="11" t="s">
-        <v>500</v>
       </c>
       <c r="AT33" s="19">
         <v>29154</v>
       </c>
       <c r="AU33" s="33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AV33" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AW33" s="10">
         <v>1983</v>
@@ -9005,7 +9008,7 @@
         <v>6</v>
       </c>
       <c r="BG33" s="35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BH33" s="19">
         <v>27895</v>
@@ -9067,7 +9070,7 @@
       <c r="AE34" s="10">
         <v>1</v>
       </c>
-      <c r="AF34" s="12">
+      <c r="AF34" s="10">
         <v>7032340703</v>
       </c>
       <c r="AG34" s="12" t="s">
@@ -9089,16 +9092,16 @@
         <v>10</v>
       </c>
       <c r="AS34" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT34" s="19">
         <v>28155</v>
       </c>
       <c r="AU34" s="33" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AV34" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW34" s="10">
         <v>1978</v>
@@ -9126,7 +9129,7 @@
         <v>6</v>
       </c>
       <c r="BG34" s="35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BH34" s="19">
         <v>28597</v>
@@ -9188,7 +9191,7 @@
       <c r="AE35" s="10">
         <v>2</v>
       </c>
-      <c r="AF35" s="12">
+      <c r="AF35" s="10">
         <v>9922330039</v>
       </c>
       <c r="AG35" s="12" t="s">
@@ -9210,16 +9213,16 @@
         <v>12</v>
       </c>
       <c r="AS35" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT35" s="19">
         <v>28896</v>
       </c>
       <c r="AU35" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AV35" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AW35" s="10">
         <v>1980</v>
@@ -9247,7 +9250,7 @@
         <v>6</v>
       </c>
       <c r="BG35" s="35" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BH35" s="19">
         <v>30010</v>
@@ -9309,7 +9312,7 @@
       <c r="AE36" s="10">
         <v>3</v>
       </c>
-      <c r="AF36" s="12">
+      <c r="AF36" s="10">
         <v>9988300050</v>
       </c>
       <c r="AG36" s="12" t="s">
@@ -9328,19 +9331,19 @@
         <v>11</v>
       </c>
       <c r="AR36" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AS36" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AT36" s="19">
         <v>29524</v>
       </c>
       <c r="AU36" s="33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AV36" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW36" s="10">
         <v>1984</v>
@@ -9368,7 +9371,7 @@
         <v>7</v>
       </c>
       <c r="BG36" s="35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="BH36" s="19">
         <v>22264</v>
@@ -9430,7 +9433,7 @@
       <c r="AE37" s="10">
         <v>10</v>
       </c>
-      <c r="AF37" s="12">
+      <c r="AF37" s="10">
         <v>9890774332</v>
       </c>
       <c r="AG37" s="12" t="s">
@@ -9452,16 +9455,16 @@
         <v>10</v>
       </c>
       <c r="AS37" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT37" s="19">
         <v>28163</v>
       </c>
       <c r="AU37" s="33" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AV37" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW37" s="10">
         <v>1978</v>
@@ -9489,7 +9492,7 @@
         <v>7</v>
       </c>
       <c r="BG37" s="35" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="BH37" s="19">
         <v>23206</v>
@@ -9551,7 +9554,7 @@
       <c r="AE38" s="10">
         <v>11</v>
       </c>
-      <c r="AF38" s="12">
+      <c r="AF38" s="10">
         <v>9922583910</v>
       </c>
       <c r="AG38" s="12" t="s">
@@ -9573,16 +9576,16 @@
         <v>12</v>
       </c>
       <c r="AS38" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT38" s="19">
         <v>28984</v>
       </c>
       <c r="AU38" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AV38" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AW38" s="10">
         <v>1980</v>
@@ -9610,7 +9613,7 @@
         <v>7</v>
       </c>
       <c r="BG38" s="35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BH38" s="19">
         <v>25071</v>
@@ -9672,7 +9675,7 @@
       <c r="AE39" s="10">
         <v>12</v>
       </c>
-      <c r="AF39" s="12">
+      <c r="AF39" s="10">
         <v>9890774463</v>
       </c>
       <c r="AG39" s="12" t="s">
@@ -9691,19 +9694,19 @@
         <v>12</v>
       </c>
       <c r="AR39" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AS39" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AT39" s="19">
         <v>29310</v>
       </c>
       <c r="AU39" s="33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AV39" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW39" s="10">
         <v>1984</v>
@@ -9731,7 +9734,7 @@
         <v>7</v>
       </c>
       <c r="BG39" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH39" s="19">
         <v>26661</v>
@@ -9793,7 +9796,7 @@
       <c r="AE40" s="10">
         <v>13</v>
       </c>
-      <c r="AF40" s="12">
+      <c r="AF40" s="10">
         <v>7898836137</v>
       </c>
       <c r="AG40" s="12" t="s">
@@ -9815,16 +9818,16 @@
         <v>10</v>
       </c>
       <c r="AS40" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT40" s="19">
         <v>28672</v>
       </c>
       <c r="AU40" s="33" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV40" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW40" s="10">
         <v>1979</v>
@@ -9852,7 +9855,7 @@
         <v>7</v>
       </c>
       <c r="BG40" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH40" s="19">
         <v>27348</v>
@@ -9914,7 +9917,7 @@
       <c r="AE41" s="10">
         <v>14</v>
       </c>
-      <c r="AF41" s="12">
+      <c r="AF41" s="10">
         <v>9876895431</v>
       </c>
       <c r="AG41" s="12" t="s">
@@ -9936,16 +9939,16 @@
         <v>12</v>
       </c>
       <c r="AS41" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT41" s="19">
         <v>29438</v>
       </c>
       <c r="AU41" s="33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AV41" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AW41" s="10">
         <v>1981</v>
@@ -9973,7 +9976,7 @@
         <v>8</v>
       </c>
       <c r="BG41" s="35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BH41" s="19">
         <v>22279</v>
@@ -10035,7 +10038,7 @@
       <c r="AE42" s="10">
         <v>10</v>
       </c>
-      <c r="AF42" s="12">
+      <c r="AF42" s="10">
         <v>8080561820</v>
       </c>
       <c r="AG42" s="12" t="s">
@@ -10054,19 +10057,19 @@
         <v>13</v>
       </c>
       <c r="AR42" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS42" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AT42" s="19">
         <v>29921</v>
       </c>
       <c r="AU42" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AV42" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW42" s="10">
         <v>1985</v>
@@ -10094,7 +10097,7 @@
         <v>8</v>
       </c>
       <c r="BG42" s="35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BH42" s="19">
         <v>24838</v>
@@ -10156,7 +10159,7 @@
       <c r="AE43" s="10">
         <v>11</v>
       </c>
-      <c r="AF43" s="12">
+      <c r="AF43" s="10">
         <v>8800473829</v>
       </c>
       <c r="AG43" s="12" t="s">
@@ -10178,16 +10181,16 @@
         <v>10</v>
       </c>
       <c r="AS43" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT43" s="19">
         <v>28990</v>
       </c>
       <c r="AU43" s="33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AV43" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW43" s="10">
         <v>1980</v>
@@ -10215,7 +10218,7 @@
         <v>8</v>
       </c>
       <c r="BG43" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="BH43" s="19">
         <v>25661</v>
@@ -10277,7 +10280,7 @@
       <c r="AE44" s="10">
         <v>21</v>
       </c>
-      <c r="AF44" s="12">
+      <c r="AF44" s="10">
         <v>7032300007</v>
       </c>
       <c r="AG44" s="12" t="s">
@@ -10299,16 +10302,16 @@
         <v>12</v>
       </c>
       <c r="AS44" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT44" s="19">
         <v>29754</v>
       </c>
       <c r="AU44" s="33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AV44" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW44" s="10">
         <v>1982</v>
@@ -10336,7 +10339,7 @@
         <v>8</v>
       </c>
       <c r="BG44" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="BH44" s="19">
         <v>28314</v>
@@ -10398,7 +10401,7 @@
       <c r="AE45" s="10">
         <v>22</v>
       </c>
-      <c r="AF45" s="12">
+      <c r="AF45" s="10">
         <v>7032300094</v>
       </c>
       <c r="AG45" s="12" t="s">
@@ -10417,19 +10420,19 @@
         <v>14</v>
       </c>
       <c r="AR45" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS45" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AT45" s="19">
         <v>30300</v>
       </c>
       <c r="AU45" s="33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AV45" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW45" s="10">
         <v>1986</v>
@@ -10457,7 +10460,7 @@
         <v>8</v>
       </c>
       <c r="BG45" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="BH45" s="19">
         <v>29056</v>
@@ -10519,7 +10522,7 @@
       <c r="AE46" s="10">
         <v>23</v>
       </c>
-      <c r="AF46" s="12">
+      <c r="AF46" s="10">
         <v>7032300026</v>
       </c>
       <c r="AG46" s="12" t="s">
@@ -10541,16 +10544,16 @@
         <v>10</v>
       </c>
       <c r="AS46" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT46" s="19">
         <v>29369</v>
       </c>
       <c r="AU46" s="33" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AV46" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AW46" s="10">
         <v>1981</v>
@@ -10578,7 +10581,7 @@
         <v>9</v>
       </c>
       <c r="BG46" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BH46" s="19">
         <v>30250</v>
@@ -10640,7 +10643,7 @@
       <c r="AE47" s="10">
         <v>24</v>
       </c>
-      <c r="AF47" s="12">
+      <c r="AF47" s="10">
         <v>7032300046</v>
       </c>
       <c r="AG47" s="12" t="s">
@@ -10662,16 +10665,16 @@
         <v>12</v>
       </c>
       <c r="AS47" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT47" s="19">
         <v>30162</v>
       </c>
       <c r="AU47" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AV47" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW47" s="10">
         <v>1983</v>
@@ -10699,7 +10702,7 @@
         <v>9</v>
       </c>
       <c r="BG47" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BH47" s="19">
         <v>32466</v>
@@ -10761,7 +10764,7 @@
       <c r="AE48" s="10">
         <v>25</v>
       </c>
-      <c r="AF48" s="12">
+      <c r="AF48" s="10">
         <v>7032300028</v>
       </c>
       <c r="AG48" s="12" t="s">
@@ -10780,19 +10783,19 @@
         <v>15</v>
       </c>
       <c r="AR48" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS48" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AT48" s="19">
         <v>30680</v>
       </c>
       <c r="AU48" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV48" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AW48" s="10">
         <v>1987</v>
@@ -10820,7 +10823,7 @@
         <v>9</v>
       </c>
       <c r="BG48" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BH48" s="19">
         <v>33621</v>
@@ -10882,7 +10885,7 @@
       <c r="AE49" s="10">
         <v>26</v>
       </c>
-      <c r="AF49" s="12">
+      <c r="AF49" s="10">
         <v>7032307324</v>
       </c>
       <c r="AG49" s="12" t="s">
@@ -10904,16 +10907,16 @@
         <v>10</v>
       </c>
       <c r="AS49" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT49" s="19">
         <v>21245</v>
       </c>
       <c r="AU49" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AV49" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AW49" s="10">
         <v>1959</v>
@@ -10941,7 +10944,7 @@
         <v>9</v>
       </c>
       <c r="BG49" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BH49" s="19">
         <v>36271</v>
@@ -11003,7 +11006,7 @@
       <c r="AE50" s="10">
         <v>14</v>
       </c>
-      <c r="AF50" s="12">
+      <c r="AF50" s="10">
         <v>6032301213</v>
       </c>
       <c r="AG50" s="12" t="s">
@@ -11025,16 +11028,16 @@
         <v>12</v>
       </c>
       <c r="AS50" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT50" s="19">
         <v>22037</v>
       </c>
       <c r="AU50" s="33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AV50" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW50" s="10">
         <v>1961</v>
@@ -11062,7 +11065,7 @@
         <v>9</v>
       </c>
       <c r="BG50" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="BH50" s="19">
         <v>36750</v>
@@ -11114,7 +11117,7 @@
       <c r="AE51" s="10">
         <v>15</v>
       </c>
-      <c r="AF51" s="12">
+      <c r="AF51" s="10">
         <v>4432381699</v>
       </c>
       <c r="AG51" s="12" t="s">
@@ -11133,19 +11136,19 @@
         <v>16</v>
       </c>
       <c r="AR51" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS51" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AT51" s="19">
         <v>22616</v>
       </c>
       <c r="AU51" s="33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV51" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AW51" s="10">
         <v>1965</v>
@@ -11173,7 +11176,7 @@
         <v>10</v>
       </c>
       <c r="BG51" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BH51" s="19">
         <v>30615</v>
@@ -11225,7 +11228,7 @@
       <c r="AE52" s="10">
         <v>16</v>
       </c>
-      <c r="AF52" s="12">
+      <c r="AF52" s="10">
         <v>7832304023</v>
       </c>
       <c r="AG52" s="12" t="s">
@@ -11247,16 +11250,16 @@
         <v>10</v>
       </c>
       <c r="AS52" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT52" s="19">
         <v>27505</v>
       </c>
       <c r="AU52" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV52" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AW52" s="10">
         <v>1976</v>
@@ -11284,7 +11287,7 @@
         <v>10</v>
       </c>
       <c r="BG52" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BH52" s="19">
         <v>32209</v>
@@ -11336,7 +11339,7 @@
       <c r="AE53" s="10">
         <v>17</v>
       </c>
-      <c r="AF53" s="12">
+      <c r="AF53" s="10">
         <v>4532306484</v>
       </c>
       <c r="AG53" s="12" t="s">
@@ -11358,16 +11361,16 @@
         <v>12</v>
       </c>
       <c r="AS53" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT53" s="19">
         <v>28143</v>
       </c>
       <c r="AU53" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AV53" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AW53" s="10">
         <v>1978</v>
@@ -11395,7 +11398,7 @@
         <v>10</v>
       </c>
       <c r="BG53" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BH53" s="19">
         <v>33124</v>
@@ -11447,7 +11450,7 @@
       <c r="AE54" s="10">
         <v>18</v>
       </c>
-      <c r="AF54" s="12">
+      <c r="AF54" s="10">
         <v>8932309811</v>
       </c>
       <c r="AG54" s="12" t="s">
@@ -11466,19 +11469,19 @@
         <v>17</v>
       </c>
       <c r="AR54" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS54" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AT54" s="19">
         <v>28789</v>
       </c>
       <c r="AU54" s="33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AV54" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW54" s="10">
         <v>1982</v>
@@ -11506,7 +11509,7 @@
         <v>10</v>
       </c>
       <c r="BG54" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BH54" s="19">
         <v>33394</v>
@@ -11558,7 +11561,7 @@
       <c r="AE55" s="10">
         <v>19</v>
       </c>
-      <c r="AF55" s="12">
+      <c r="AF55" s="10">
         <v>6532307366</v>
       </c>
       <c r="AG55" s="15" t="s">
@@ -11580,16 +11583,16 @@
         <v>10</v>
       </c>
       <c r="AS55" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT55" s="19">
         <v>20891</v>
       </c>
       <c r="AU55" s="33" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AV55" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AW55" s="10">
         <v>1958</v>
@@ -11617,7 +11620,7 @@
         <v>10</v>
       </c>
       <c r="BG55" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BH55" s="19">
         <v>36683</v>
@@ -11669,7 +11672,7 @@
       <c r="AE56" s="10">
         <v>7</v>
       </c>
-      <c r="AF56" s="12">
+      <c r="AF56" s="10">
         <v>6532334066</v>
       </c>
       <c r="AG56" s="12" t="s">
@@ -11691,16 +11694,16 @@
         <v>12</v>
       </c>
       <c r="AS56" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT56" s="19">
         <v>21622</v>
       </c>
       <c r="AU56" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AV56" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW56" s="10">
         <v>1960</v>
@@ -11728,7 +11731,7 @@
         <v>10</v>
       </c>
       <c r="BG56" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BH56" s="19">
         <v>37477</v>
@@ -11791,19 +11794,19 @@
         <v>18</v>
       </c>
       <c r="AR57" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS57" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AT57" s="19">
         <v>22079</v>
       </c>
       <c r="AU57" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AV57" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW57" s="10">
         <v>1964</v>
@@ -11831,7 +11834,7 @@
         <v>11</v>
       </c>
       <c r="BG57" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH57" s="19">
         <v>30985</v>
@@ -11897,16 +11900,16 @@
         <v>10</v>
       </c>
       <c r="AS58" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT58" s="19">
         <v>20192</v>
       </c>
       <c r="AU58" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV58" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AW58" s="10">
         <v>1956</v>
@@ -11934,7 +11937,7 @@
         <v>11</v>
       </c>
       <c r="BG58" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH58" s="19">
         <v>32111</v>
@@ -12000,16 +12003,16 @@
         <v>12</v>
       </c>
       <c r="AS59" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT59" s="19">
         <v>20899</v>
       </c>
       <c r="AU59" s="33" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV59" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AW59" s="10">
         <v>1958</v>
@@ -12037,7 +12040,7 @@
         <v>11</v>
       </c>
       <c r="BG59" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH59" s="19">
         <v>33239</v>
@@ -12100,19 +12103,19 @@
         <v>19</v>
       </c>
       <c r="AR60" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS60" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AT60" s="19">
         <v>21502</v>
       </c>
       <c r="AU60" s="33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AV60" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW60" s="10">
         <v>1963</v>
@@ -12140,7 +12143,7 @@
         <v>11</v>
       </c>
       <c r="BG60" s="35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BH60" s="19">
         <v>35943</v>
@@ -12206,16 +12209,16 @@
         <v>10</v>
       </c>
       <c r="AS61" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT61" s="19">
         <v>20119</v>
       </c>
       <c r="AU61" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AV61" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AW61" s="10">
         <v>1956</v>
@@ -12243,7 +12246,7 @@
         <v>11</v>
       </c>
       <c r="BG61" s="35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BH61" s="19">
         <v>37040</v>
@@ -12309,16 +12312,16 @@
         <v>12</v>
       </c>
       <c r="AS62" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT62" s="19">
         <v>20879</v>
       </c>
       <c r="AU62" s="33" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AV62" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW62" s="10">
         <v>1958</v>
@@ -12346,7 +12349,7 @@
         <v>11</v>
       </c>
       <c r="BG62" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH62" s="19">
         <v>37347</v>
@@ -12409,19 +12412,19 @@
         <v>20</v>
       </c>
       <c r="AR63" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS63" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AT63" s="19">
         <v>21396</v>
       </c>
       <c r="AU63" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AV63" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW63" s="10">
         <v>1962</v>
@@ -12449,7 +12452,7 @@
         <v>12</v>
       </c>
       <c r="BG63" s="35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BH63" s="19">
         <v>31016</v>
@@ -12515,16 +12518,16 @@
         <v>10</v>
       </c>
       <c r="AS64" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT64" s="19">
         <v>28238</v>
       </c>
       <c r="AU64" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AV64" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW64" s="10">
         <v>1978</v>
@@ -12552,7 +12555,7 @@
         <v>12</v>
       </c>
       <c r="BG64" s="35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BH64" s="19">
         <v>33113</v>
@@ -12618,16 +12621,16 @@
         <v>12</v>
       </c>
       <c r="AS65" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT65" s="19">
         <v>28976</v>
       </c>
       <c r="AU65" s="33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AV65" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AW65" s="10">
         <v>1980</v>
@@ -12655,7 +12658,7 @@
         <v>12</v>
       </c>
       <c r="BG65" s="35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BH65" s="19">
         <v>34410</v>
@@ -12718,19 +12721,19 @@
         <v>21</v>
       </c>
       <c r="AR66" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS66" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AT66" s="19">
         <v>29555</v>
       </c>
       <c r="AU66" s="33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV66" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW66" s="10">
         <v>1984</v>
@@ -12758,7 +12761,7 @@
         <v>12</v>
       </c>
       <c r="BG66" s="35" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BH66" s="19">
         <v>36968</v>
@@ -12824,16 +12827,16 @@
         <v>10</v>
       </c>
       <c r="AS67" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT67" s="19">
         <v>20099</v>
       </c>
       <c r="AU67" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV67" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW67" s="10">
         <v>1956</v>
@@ -12861,7 +12864,7 @@
         <v>12</v>
       </c>
       <c r="BG67" s="35" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BH67" s="19">
         <v>37446</v>
@@ -12927,16 +12930,16 @@
         <v>12</v>
       </c>
       <c r="AS68" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT68" s="19">
         <v>20863</v>
       </c>
       <c r="AU68" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV68" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW68" s="10">
         <v>1958</v>
@@ -12964,7 +12967,7 @@
         <v>13</v>
       </c>
       <c r="BG68" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="BH68" s="19">
         <v>31382</v>
@@ -13027,19 +13030,19 @@
         <v>22</v>
       </c>
       <c r="AR69" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS69" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AT69" s="19">
         <v>21285</v>
       </c>
       <c r="AU69" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AV69" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW69" s="10">
         <v>1962</v>
@@ -13067,7 +13070,7 @@
         <v>13</v>
       </c>
       <c r="BG69" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="BH69" s="19">
         <v>32132</v>
@@ -13133,16 +13136,16 @@
         <v>10</v>
       </c>
       <c r="AS70" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT70" s="19">
         <v>20130</v>
       </c>
       <c r="AU70" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV70" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW70" s="10">
         <v>1956</v>
@@ -13170,7 +13173,7 @@
         <v>13</v>
       </c>
       <c r="BG70" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="BH70" s="19">
         <v>33843</v>
@@ -13236,7 +13239,7 @@
         <v>12</v>
       </c>
       <c r="AS71" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT71" s="19">
         <v>20924</v>
@@ -13245,7 +13248,7 @@
         <v>351</v>
       </c>
       <c r="AV71" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW71" s="10">
         <v>1958</v>
@@ -13273,7 +13276,7 @@
         <v>13</v>
       </c>
       <c r="BG71" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="BH71" s="19">
         <v>37698</v>
@@ -13336,19 +13339,19 @@
         <v>23</v>
       </c>
       <c r="AR72" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AS72" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AT72" s="19">
         <v>21396</v>
       </c>
       <c r="AU72" s="33" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AV72" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW72" s="10">
         <v>1962</v>
@@ -13376,7 +13379,7 @@
         <v>14</v>
       </c>
       <c r="BG72" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BH72" s="19">
         <v>31761</v>
@@ -13442,16 +13445,16 @@
         <v>10</v>
       </c>
       <c r="AS73" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT73" s="19">
         <v>20102</v>
       </c>
       <c r="AU73" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AV73" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW73" s="10">
         <v>1956</v>
@@ -13479,7 +13482,7 @@
         <v>14</v>
       </c>
       <c r="BG73" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BH73" s="19">
         <v>32563</v>
@@ -13545,16 +13548,16 @@
         <v>12</v>
       </c>
       <c r="AS74" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT74" s="19">
         <v>20957</v>
       </c>
       <c r="AU74" s="33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AV74" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AW74" s="10">
         <v>1958</v>
@@ -13582,7 +13585,7 @@
         <v>14</v>
       </c>
       <c r="BG74" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BH74" s="19">
         <v>36265</v>
@@ -13645,19 +13648,19 @@
         <v>24</v>
       </c>
       <c r="AR75" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS75" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AT75" s="19">
         <v>21396</v>
       </c>
       <c r="AU75" s="33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AV75" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW75" s="10">
         <v>1962</v>
@@ -13685,7 +13688,7 @@
         <v>14</v>
       </c>
       <c r="BG75" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BH75" s="19">
         <v>38063</v>
@@ -13751,16 +13754,16 @@
         <v>10</v>
       </c>
       <c r="AS76" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT76" s="19">
         <v>27840</v>
       </c>
       <c r="AU76" s="33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AV76" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AW76" s="10">
         <v>1977</v>
@@ -13788,7 +13791,7 @@
         <v>15</v>
       </c>
       <c r="BG76" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="BH76" s="19">
         <v>32141</v>
@@ -13854,16 +13857,16 @@
         <v>12</v>
       </c>
       <c r="AS77" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT77" s="19">
         <v>28575</v>
       </c>
       <c r="AU77" s="33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AV77" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW77" s="10">
         <v>1979</v>
@@ -13891,7 +13894,7 @@
         <v>15</v>
       </c>
       <c r="BG77" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="BH77" s="19">
         <v>34512</v>
@@ -13954,19 +13957,19 @@
         <v>25</v>
       </c>
       <c r="AR78" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AS78" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AT78" s="19">
         <v>29154</v>
       </c>
       <c r="AU78" s="33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV78" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AW78" s="10">
         <v>1983</v>
@@ -13994,7 +13997,7 @@
         <v>15</v>
       </c>
       <c r="BG78" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="BH78" s="19">
         <v>37070</v>
@@ -14060,16 +14063,16 @@
         <v>10</v>
       </c>
       <c r="AS79" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT79" s="19">
         <v>27834</v>
       </c>
       <c r="AU79" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV79" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW79" s="10">
         <v>1977</v>
@@ -14097,7 +14100,7 @@
         <v>15</v>
       </c>
       <c r="BG79" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="BH79" s="19">
         <v>38096</v>
@@ -14163,16 +14166,16 @@
         <v>12</v>
       </c>
       <c r="AS80" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT80" s="19">
         <v>28565</v>
       </c>
       <c r="AU80" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV80" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW80" s="10">
         <v>1979</v>
@@ -14200,7 +14203,7 @@
         <v>19</v>
       </c>
       <c r="BG80" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH80" s="19">
         <v>23328</v>
@@ -14258,19 +14261,19 @@
         <v>26</v>
       </c>
       <c r="AR81" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS81" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AT81" s="19">
         <v>29154</v>
       </c>
       <c r="AU81" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AV81" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AW81" s="10">
         <v>1983</v>
@@ -14298,7 +14301,7 @@
         <v>19</v>
       </c>
       <c r="BG81" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH81" s="19">
         <v>24606</v>
@@ -14359,16 +14362,16 @@
         <v>10</v>
       </c>
       <c r="AS82" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT82" s="19">
         <v>20109</v>
       </c>
       <c r="AU82" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV82" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AW82" s="10">
         <v>1956</v>
@@ -14396,7 +14399,7 @@
         <v>19</v>
       </c>
       <c r="BG82" s="35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BH82" s="19">
         <v>26048</v>
@@ -14457,7 +14460,7 @@
         <v>12</v>
       </c>
       <c r="AS83" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT83" s="19">
         <v>20890</v>
@@ -14466,7 +14469,7 @@
         <v>351</v>
       </c>
       <c r="AV83" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW83" s="10">
         <v>1958</v>
@@ -14488,7 +14491,7 @@
         <v>19</v>
       </c>
       <c r="BG83" s="35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BH83" s="19">
         <v>29052</v>
@@ -14547,19 +14550,19 @@
         <v>27</v>
       </c>
       <c r="AR84" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS84" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AT84" s="19">
         <v>21396</v>
       </c>
       <c r="AU84" s="33" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AV84" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW84" s="10">
         <v>1962</v>
@@ -14581,7 +14584,7 @@
         <v>19</v>
       </c>
       <c r="BG84" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH84" s="19">
         <v>29481</v>
@@ -14640,19 +14643,19 @@
         <v>10</v>
       </c>
       <c r="AR85" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AS85" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AT85" s="19">
         <v>30595</v>
       </c>
       <c r="AU85" s="33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AV85" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AW85" s="10">
         <v>1986</v>
@@ -14674,7 +14677,7 @@
         <v>22</v>
       </c>
       <c r="BG85" s="49" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="BH85" s="19">
         <v>22746</v>
@@ -14723,19 +14726,19 @@
         <v>22</v>
       </c>
       <c r="AR86" s="38" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AS86" s="38" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AT86" s="40">
         <v>22746</v>
       </c>
       <c r="AU86" s="41" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AV86" s="40" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW86" s="30">
         <v>1965</v>
@@ -14757,7 +14760,7 @@
         <v>22</v>
       </c>
       <c r="BG86" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="BH86" s="19">
         <v>23234</v>
@@ -14805,19 +14808,19 @@
         <v>17</v>
       </c>
       <c r="AR87" s="38" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AS87" s="38" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AT87" s="40">
         <v>29885</v>
       </c>
       <c r="AU87" s="41" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AV87" s="40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW87" s="30">
         <v>1984</v>
@@ -14839,7 +14842,7 @@
         <v>22</v>
       </c>
       <c r="BG87" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BH87" s="19">
         <v>24488</v>
@@ -14887,19 +14890,19 @@
         <v>12</v>
       </c>
       <c r="AR88" s="38" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AS88" s="38" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AT88" s="40">
         <v>31136</v>
       </c>
       <c r="AU88" s="41" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AV88" s="40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW88" s="30">
         <v>1988</v>
@@ -14921,7 +14924,7 @@
         <v>22</v>
       </c>
       <c r="BG88" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BH88" s="19">
         <v>26356</v>
@@ -14972,16 +14975,16 @@
         <v>10</v>
       </c>
       <c r="AS89" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT89" s="19">
         <v>27840</v>
       </c>
       <c r="AU89" s="33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AV89" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AW89" s="10">
         <v>1977</v>
@@ -15001,7 +15004,7 @@
         <v>22</v>
       </c>
       <c r="BG89" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BH89" s="19">
         <v>27326</v>
@@ -15052,16 +15055,16 @@
         <v>10</v>
       </c>
       <c r="AS90" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT90" s="19">
         <v>28575</v>
       </c>
       <c r="AU90" s="33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AV90" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW90" s="10">
         <v>1979</v>
@@ -15081,7 +15084,7 @@
         <v>22</v>
       </c>
       <c r="BG90" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BH90" s="19">
         <v>28989</v>
@@ -15132,16 +15135,16 @@
         <v>12</v>
       </c>
       <c r="AS91" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AT91" s="19">
         <v>29154</v>
       </c>
       <c r="AU91" s="33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV91" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AW91" s="10">
         <v>1983</v>
@@ -15161,7 +15164,7 @@
         <v>27</v>
       </c>
       <c r="BG91" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="BH91" s="19">
         <v>22857</v>
@@ -15212,16 +15215,16 @@
         <v>10</v>
       </c>
       <c r="AS92" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT92" s="19">
         <v>27834</v>
       </c>
       <c r="AU92" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV92" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW92" s="10">
         <v>1977</v>
@@ -15241,7 +15244,7 @@
         <v>27</v>
       </c>
       <c r="BG92" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BH92" s="19">
         <v>23607</v>
@@ -15292,16 +15295,16 @@
         <v>12</v>
       </c>
       <c r="AS93" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT93" s="19">
         <v>28930</v>
       </c>
       <c r="AU93" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV93" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW93" s="10">
         <v>1980</v>
@@ -15321,7 +15324,7 @@
         <v>27</v>
       </c>
       <c r="BG93" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BH93" s="19">
         <v>24535</v>
@@ -15369,19 +15372,19 @@
         <v>30</v>
       </c>
       <c r="AR94" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS94" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AT94" s="19">
         <v>29520</v>
       </c>
       <c r="AU94" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AV94" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AW94" s="10">
         <v>1984</v>
@@ -15401,7 +15404,7 @@
         <v>27</v>
       </c>
       <c r="BG94" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BH94" s="19">
         <v>27338</v>
@@ -15449,19 +15452,19 @@
         <v>30</v>
       </c>
       <c r="AR95" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AS95" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AT95" s="19">
         <v>31067</v>
       </c>
       <c r="AU95" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV95" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AW95" s="10">
         <v>1988</v>
@@ -15481,7 +15484,7 @@
         <v>27</v>
       </c>
       <c r="BG95" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BH95" s="19">
         <v>29580</v>
@@ -15529,10 +15532,10 @@
         <v>30</v>
       </c>
       <c r="AR96" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AS96" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AT96" s="19">
         <v>29520</v>
@@ -15541,7 +15544,7 @@
         <v>351</v>
       </c>
       <c r="AV96" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW96" s="10">
         <v>1983</v>
@@ -15561,7 +15564,7 @@
         <v>23</v>
       </c>
       <c r="BG96" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH96" s="19">
         <v>22746</v>
@@ -15620,7 +15623,7 @@
         <v>23</v>
       </c>
       <c r="BG97" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH97" s="19">
         <v>23234</v>
@@ -15669,7 +15672,7 @@
         <v>23</v>
       </c>
       <c r="BG98" s="35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BH98" s="19">
         <v>24488</v>
@@ -15718,7 +15721,7 @@
         <v>23</v>
       </c>
       <c r="BG99" s="35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BH99" s="19">
         <v>26356</v>
@@ -15767,7 +15770,7 @@
         <v>23</v>
       </c>
       <c r="BG100" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="BH100" s="19">
         <v>27326</v>
@@ -15816,7 +15819,7 @@
         <v>23</v>
       </c>
       <c r="BG101" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="BH101" s="19">
         <v>28989</v>
@@ -15865,7 +15868,7 @@
         <v>24</v>
       </c>
       <c r="BG102" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="BH102" s="19">
         <v>22746</v>
@@ -15914,7 +15917,7 @@
         <v>24</v>
       </c>
       <c r="BG103" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BH103" s="19">
         <v>23234</v>
@@ -15962,7 +15965,7 @@
         <v>24</v>
       </c>
       <c r="BG104" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BH104" s="19">
         <v>24488</v>
@@ -16010,7 +16013,7 @@
         <v>24</v>
       </c>
       <c r="BG105" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BH105" s="19">
         <v>26356</v>
@@ -16058,7 +16061,7 @@
         <v>24</v>
       </c>
       <c r="BG106" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BH106" s="19">
         <v>27326</v>
@@ -16106,7 +16109,7 @@
         <v>24</v>
       </c>
       <c r="BG107" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="BH107" s="19">
         <v>28989</v>
@@ -16154,7 +16157,7 @@
         <v>20</v>
       </c>
       <c r="BG108" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BH108" s="19">
         <v>22857</v>
@@ -16202,7 +16205,7 @@
         <v>20</v>
       </c>
       <c r="BG109" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BH109" s="19">
         <v>23607</v>
@@ -16250,7 +16253,7 @@
         <v>20</v>
       </c>
       <c r="BG110" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BH110" s="19">
         <v>24535</v>
@@ -16298,7 +16301,7 @@
         <v>20</v>
       </c>
       <c r="BG111" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BH111" s="19">
         <v>27338</v>
@@ -16346,7 +16349,7 @@
         <v>20</v>
       </c>
       <c r="BG112" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="BH112" s="19">
         <v>29580</v>
@@ -16394,7 +16397,7 @@
         <v>17</v>
       </c>
       <c r="BG113" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="BH113" s="19">
         <v>30250</v>
@@ -16442,7 +16445,7 @@
         <v>17</v>
       </c>
       <c r="BG114" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="BH114" s="19">
         <v>32466</v>
@@ -16490,7 +16493,7 @@
         <v>17</v>
       </c>
       <c r="BG115" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BH115" s="19">
         <v>33621</v>
@@ -16538,7 +16541,7 @@
         <v>17</v>
       </c>
       <c r="BG116" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BH116" s="19">
         <v>36271</v>
@@ -16586,7 +16589,7 @@
         <v>17</v>
       </c>
       <c r="BG117" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="BH117" s="19">
         <v>36750</v>
@@ -16634,7 +16637,7 @@
         <v>16</v>
       </c>
       <c r="BG118" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="BH118" s="19">
         <v>24077</v>
@@ -16682,7 +16685,7 @@
         <v>16</v>
       </c>
       <c r="BG119" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="BH119" s="19">
         <v>26723</v>
@@ -16730,7 +16733,7 @@
         <v>16</v>
       </c>
       <c r="BG120" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BH120" s="19">
         <v>27895</v>
@@ -16778,7 +16781,7 @@
         <v>16</v>
       </c>
       <c r="BG121" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BH121" s="19">
         <v>28597</v>
@@ -16826,7 +16829,7 @@
         <v>16</v>
       </c>
       <c r="BG122" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="BH122" s="19">
         <v>30010</v>
@@ -16874,7 +16877,7 @@
         <v>18</v>
       </c>
       <c r="BG123" s="35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="BH123" s="19">
         <v>23540</v>
@@ -16922,7 +16925,7 @@
         <v>18</v>
       </c>
       <c r="BG124" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="BH124" s="19">
         <v>24301</v>
@@ -16970,7 +16973,7 @@
         <v>18</v>
       </c>
       <c r="BG125" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="BH125" s="19">
         <v>25763</v>
@@ -17018,7 +17021,7 @@
         <v>18</v>
       </c>
       <c r="BG126" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BH126" s="19">
         <v>27590</v>
@@ -17066,7 +17069,7 @@
         <v>18</v>
       </c>
       <c r="BG127" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="BH127" s="19">
         <v>29080</v>
@@ -17114,7 +17117,7 @@
         <v>25</v>
       </c>
       <c r="BG128" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="BH128" s="19">
         <v>30615</v>
@@ -17162,7 +17165,7 @@
         <v>25</v>
       </c>
       <c r="BG129" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="BH129" s="19">
         <v>32209</v>
@@ -17210,7 +17213,7 @@
         <v>25</v>
       </c>
       <c r="BG130" s="35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="BH130" s="19">
         <v>33124</v>
@@ -17258,7 +17261,7 @@
         <v>25</v>
       </c>
       <c r="BG131" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="BH131" s="19">
         <v>33394</v>
@@ -17306,7 +17309,7 @@
         <v>25</v>
       </c>
       <c r="BG132" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="BH132" s="19">
         <v>36683</v>
@@ -17354,7 +17357,7 @@
         <v>25</v>
       </c>
       <c r="BG133" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BH133" s="19">
         <v>37477</v>
@@ -17402,7 +17405,7 @@
         <v>21</v>
       </c>
       <c r="BG134" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="BH134" s="19">
         <v>31016</v>
@@ -17450,7 +17453,7 @@
         <v>21</v>
       </c>
       <c r="BG135" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="BH135" s="19">
         <v>33113</v>
@@ -17498,7 +17501,7 @@
         <v>21</v>
       </c>
       <c r="BG136" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="BH136" s="19">
         <v>34410</v>
@@ -17546,7 +17549,7 @@
         <v>21</v>
       </c>
       <c r="BG137" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="BH137" s="19">
         <v>36968</v>
@@ -17594,7 +17597,7 @@
         <v>21</v>
       </c>
       <c r="BG138" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BH138" s="19">
         <v>37446</v>
@@ -17642,7 +17645,7 @@
         <v>27</v>
       </c>
       <c r="BG139" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BH139" s="19">
         <v>33124</v>
@@ -17690,7 +17693,7 @@
         <v>27</v>
       </c>
       <c r="BG140" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="BH140" s="19">
         <v>33394</v>
@@ -17738,7 +17741,7 @@
         <v>27</v>
       </c>
       <c r="BG141" s="35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="BH141" s="19">
         <v>36683</v>
@@ -17786,7 +17789,7 @@
         <v>27</v>
       </c>
       <c r="BG142" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="BH142" s="19">
         <v>37477</v>
@@ -17834,7 +17837,7 @@
         <v>26</v>
       </c>
       <c r="BG143" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="BH143" s="19">
         <v>22857</v>
@@ -17857,7 +17860,7 @@
         <v>26</v>
       </c>
       <c r="BG144" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="BH144" s="19">
         <v>23607</v>
@@ -17880,7 +17883,7 @@
         <v>26</v>
       </c>
       <c r="BG145" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="BH145" s="19">
         <v>24535</v>
@@ -17903,7 +17906,7 @@
         <v>26</v>
       </c>
       <c r="BG146" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="BH146" s="19">
         <v>27338</v>
@@ -17926,7 +17929,7 @@
         <v>26</v>
       </c>
       <c r="BG147" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BH147" s="19">
         <v>29580</v>
@@ -18294,10 +18297,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -14,14 +14,14 @@
     <sheet name="3NF Data" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2NF Data'!$L$3:$P$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2NF Data'!$AP$3:$AY$96</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="536">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1626,6 +1626,9 @@
   </si>
   <si>
     <t>118 Lippitt Ave Warwick</t>
+  </si>
+  <si>
+    <t>Arts</t>
   </si>
 </sst>
 </file>
@@ -1905,6 +1908,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1922,9 +1928,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2493,58 +2496,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="59" t="s">
+      <c r="N3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="59" t="s">
+      <c r="O3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="59" t="s">
+      <c r="P3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="59" t="s">
+      <c r="R3" s="53" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4070,9 +4073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK33" sqref="AK33"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS71" sqref="AS71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4138,86 +4141,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:62" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="23"/>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="55" t="s">
+      <c r="AD2" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="55" t="s">
+      <c r="AI2" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="57" t="s">
+      <c r="AP2" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
       <c r="AZ2" s="39"/>
-      <c r="BA2" s="54" t="s">
+      <c r="BA2" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="54"/>
-      <c r="BE2" s="53" t="s">
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
+      <c r="BE2" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="53"/>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="53"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="54"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -13136,7 +13139,7 @@
         <v>10</v>
       </c>
       <c r="AS70" s="11" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="AT70" s="19">
         <v>20130</v>
@@ -13239,7 +13242,7 @@
         <v>12</v>
       </c>
       <c r="AS71" s="11" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="AT71" s="19">
         <v>20924</v>
@@ -15055,7 +15058,7 @@
         <v>10</v>
       </c>
       <c r="AS90" s="11" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="AT90" s="19">
         <v>28575</v>
@@ -15135,7 +15138,7 @@
         <v>12</v>
       </c>
       <c r="AS91" s="11" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="AT91" s="19">
         <v>29154</v>
@@ -18263,7 +18266,6 @@
       <c r="V193" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="L3:P143"/>
   <mergeCells count="11">
     <mergeCell ref="BE2:BJ2"/>
     <mergeCell ref="A2:E2"/>
@@ -18297,10 +18299,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -4073,9 +4073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS71" sqref="AS71"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BC86" sqref="BC86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -4073,7 +4073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BC86" sqref="BC86"/>
     </sheetView>

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -2467,11 +2467,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:R3"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,7 +4073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BC86" sqref="BC86"/>
     </sheetView>

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -2467,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -4073,7 +4073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ193"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BC86" sqref="BC86"/>
     </sheetView>

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -1774,7 +1774,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1919,9 +1919,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4073,9 +4070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC86" sqref="BC86"/>
+      <selection pane="bottomLeft" activeCell="AI2" sqref="AI2:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4193,20 +4190,20 @@
       <c r="AK2" s="56"/>
       <c r="AL2" s="56"/>
       <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
+      <c r="AN2" s="56"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="58" t="s">
+      <c r="AP2" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
       <c r="AZ2" s="39"/>
       <c r="BA2" s="55" t="s">
         <v>266</v>
@@ -18266,7 +18263,7 @@
       <c r="V193" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="BE2:BJ2"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H2:J2"/>
@@ -18275,9 +18272,8 @@
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AP2:AY2"/>
+    <mergeCell ref="AI2:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18299,10 +18295,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -2464,7 +2464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2485,10 +2485,10 @@
     <col min="10" max="10" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9.140625" style="1"/>
     <col min="17" max="17" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -4070,7 +4070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AI2" sqref="AI2:AN2"/>
     </sheetView>

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="2NF Data Ver2" sheetId="6" r:id="rId5"/>
     <sheet name="3NF Data" sheetId="3" r:id="rId6"/>
     <sheet name="Cross Join Tables" sheetId="7" r:id="rId7"/>
+    <sheet name="SET" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2NF Data'!$AP$3:$AY$96</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="620">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1805,6 +1806,84 @@
   </si>
   <si>
     <t>AvailableIN table data - 4</t>
+  </si>
+  <si>
+    <t>DEPARTMENTNAME</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>MySQL Edition-1</t>
+  </si>
+  <si>
+    <t>NoSql Edition-1</t>
+  </si>
+  <si>
+    <t>Node Edition-1</t>
+  </si>
+  <si>
+    <t>JavaScript Edition-1</t>
+  </si>
+  <si>
+    <t>Oracle Edition-1</t>
+  </si>
+  <si>
+    <t>Java Edition-1</t>
+  </si>
+  <si>
+    <t>C++ Edition-1</t>
+  </si>
+  <si>
+    <t>HTML Edition-1</t>
+  </si>
+  <si>
+    <t>PHP Edition-1</t>
+  </si>
+  <si>
+    <t>Python Edition-1</t>
+  </si>
+  <si>
+    <t>MySQL Edition-2</t>
+  </si>
+  <si>
+    <t>NoSql Edition-2</t>
+  </si>
+  <si>
+    <t>Node Edition-2</t>
+  </si>
+  <si>
+    <t>JavaScript Edition-2</t>
+  </si>
+  <si>
+    <t>Oracle Edition-2</t>
+  </si>
+  <si>
+    <t>Java Edition-2</t>
+  </si>
+  <si>
+    <t>C++ Edition-2</t>
+  </si>
+  <si>
+    <t>HTML Edition-2</t>
+  </si>
+  <si>
+    <t>PHP Edition-2</t>
+  </si>
+  <si>
+    <t>Python Edition-2</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>hBase</t>
+  </si>
+  <si>
+    <t>NewBooks table data - 12</t>
+  </si>
+  <si>
+    <t>OldBooks table data - 10</t>
   </si>
 </sst>
 </file>
@@ -2099,6 +2178,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2113,15 +2201,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4335,86 +4414,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:62" ht="21">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="23"/>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="57" t="s">
+      <c r="X2" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="59" t="s">
+      <c r="AD2" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="59" t="s">
+      <c r="AI2" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="60" t="s">
+      <c r="AP2" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
       <c r="AZ2" s="39"/>
-      <c r="BA2" s="58" t="s">
+      <c r="BA2" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58"/>
-      <c r="BE2" s="57" t="s">
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BE2" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="57"/>
+      <c r="BF2" s="60"/>
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="60"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1">
       <c r="A3" s="14" t="s">
@@ -18479,10 +18558,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BN193"/>
+  <dimension ref="A2:BO193"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="BC1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1:BH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18546,99 +18625,101 @@
     <col min="60" max="60" width="4.140625" customWidth="1"/>
     <col min="61" max="61" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="12.140625" customWidth="1"/>
-    <col min="63" max="64" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.140625" customWidth="1"/>
+    <col min="63" max="63" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:66" ht="21">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:67" ht="21">
+      <c r="A2" s="61" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="54"/>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="61" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="39"/>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="62" t="s">
         <v>542</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
       <c r="Q2" s="39"/>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
       <c r="W2" s="39"/>
-      <c r="X2" s="57" t="s">
+      <c r="X2" s="60" t="s">
         <v>544</v>
       </c>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
       <c r="AB2" s="39"/>
-      <c r="AC2" s="59" t="s">
+      <c r="AC2" s="62" t="s">
         <v>545</v>
       </c>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
       <c r="AG2" s="39"/>
-      <c r="AH2" s="59" t="s">
+      <c r="AH2" s="62" t="s">
         <v>546</v>
       </c>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
       <c r="AN2" s="39"/>
-      <c r="AO2" s="60" t="s">
+      <c r="AO2" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
       <c r="AY2" s="39"/>
-      <c r="AZ2" s="58" t="s">
+      <c r="AZ2" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58"/>
-      <c r="BD2" s="57" t="s">
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BD2" s="60" t="s">
         <v>537</v>
       </c>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BI2" s="57" t="s">
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="60"/>
+      <c r="BG2" s="60"/>
+      <c r="BI2" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57"/>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57"/>
-      <c r="BN2" s="57"/>
-    </row>
-    <row r="3" spans="1:66" s="1" customFormat="1">
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+    </row>
+    <row r="3" spans="1:67" s="1" customFormat="1">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -18797,19 +18878,22 @@
         <v>280</v>
       </c>
       <c r="BK3" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="BL3" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="BL3" s="14" t="s">
+      <c r="BM3" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="BM3" s="14" t="s">
+      <c r="BN3" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="BN3" s="14" t="s">
+      <c r="BO3" s="14" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:67">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -18970,17 +19054,20 @@
         <v>1</v>
       </c>
       <c r="BK4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL4" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="BL4" s="19">
+      <c r="BM4" s="19">
         <v>23540</v>
       </c>
-      <c r="BM4" s="19">
+      <c r="BN4" s="19">
         <v>24300</v>
       </c>
-      <c r="BN4" s="12"/>
-    </row>
-    <row r="5" spans="1:66">
+      <c r="BO4" s="12"/>
+    </row>
+    <row r="5" spans="1:67">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -19141,17 +19228,20 @@
         <v>1</v>
       </c>
       <c r="BK5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL5" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="BL5" s="19">
+      <c r="BM5" s="19">
         <v>24301</v>
       </c>
-      <c r="BM5" s="19">
+      <c r="BN5" s="19">
         <v>25762</v>
       </c>
-      <c r="BN5" s="12"/>
-    </row>
-    <row r="6" spans="1:66">
+      <c r="BO5" s="12"/>
+    </row>
+    <row r="6" spans="1:67">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -19309,18 +19399,21 @@
       <c r="BJ6" s="10">
         <v>1</v>
       </c>
-      <c r="BK6" s="35" t="s">
+      <c r="BK6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL6" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="BL6" s="19">
+      <c r="BM6" s="19">
         <v>25763</v>
       </c>
-      <c r="BM6" s="19">
+      <c r="BN6" s="19">
         <v>27589</v>
       </c>
-      <c r="BN6" s="12"/>
-    </row>
-    <row r="7" spans="1:66">
+      <c r="BO6" s="12"/>
+    </row>
+    <row r="7" spans="1:67">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -19480,18 +19573,21 @@
       <c r="BJ7" s="10">
         <v>1</v>
       </c>
-      <c r="BK7" s="35" t="s">
+      <c r="BK7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL7" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="BL7" s="19">
+      <c r="BM7" s="19">
         <v>27590</v>
       </c>
-      <c r="BM7" s="19">
+      <c r="BN7" s="19">
         <v>29079</v>
       </c>
-      <c r="BN7" s="12"/>
-    </row>
-    <row r="8" spans="1:66">
+      <c r="BO7" s="12"/>
+    </row>
+    <row r="8" spans="1:67">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -19649,18 +19745,21 @@
       <c r="BJ8" s="10">
         <v>1</v>
       </c>
-      <c r="BK8" s="35" t="s">
+      <c r="BK8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL8" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="BL8" s="19">
+      <c r="BM8" s="19">
         <v>29080</v>
       </c>
-      <c r="BM8" s="19">
+      <c r="BN8" s="19">
         <v>30540</v>
       </c>
-      <c r="BN8" s="12"/>
-    </row>
-    <row r="9" spans="1:66">
+      <c r="BO8" s="12"/>
+    </row>
+    <row r="9" spans="1:67">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -19820,18 +19919,21 @@
       <c r="BJ9" s="10">
         <v>2</v>
       </c>
-      <c r="BK9" s="35" t="s">
+      <c r="BK9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL9" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL9" s="19">
+      <c r="BM9" s="19">
         <v>23675</v>
       </c>
-      <c r="BM9" s="19">
+      <c r="BN9" s="19">
         <v>25539</v>
       </c>
-      <c r="BN9" s="12"/>
-    </row>
-    <row r="10" spans="1:66">
+      <c r="BO9" s="12"/>
+    </row>
+    <row r="10" spans="1:67">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -19853,8 +19955,8 @@
       <c r="H10" s="10">
         <v>70</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>159</v>
+      <c r="I10" s="12" t="s">
+        <v>595</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>274</v>
@@ -19991,18 +20093,21 @@
       <c r="BJ10" s="10">
         <v>2</v>
       </c>
-      <c r="BK10" s="35" t="s">
+      <c r="BK10" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL10" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="BL10" s="19">
+      <c r="BM10" s="19">
         <v>25540</v>
       </c>
-      <c r="BM10" s="19">
+      <c r="BN10" s="19">
         <v>27217</v>
       </c>
-      <c r="BN10" s="12"/>
-    </row>
-    <row r="11" spans="1:66">
+      <c r="BO10" s="12"/>
+    </row>
+    <row r="11" spans="1:67">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -20162,18 +20267,21 @@
       <c r="BJ11" s="10">
         <v>2</v>
       </c>
-      <c r="BK11" s="35" t="s">
+      <c r="BK11" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL11" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="BL11" s="19">
+      <c r="BM11" s="19">
         <v>27218</v>
       </c>
-      <c r="BM11" s="19">
+      <c r="BN11" s="19">
         <v>28907</v>
       </c>
-      <c r="BN11" s="12"/>
-    </row>
-    <row r="12" spans="1:66">
+      <c r="BO11" s="12"/>
+    </row>
+    <row r="12" spans="1:67">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -20331,18 +20439,20 @@
       <c r="BJ12" s="10">
         <v>2</v>
       </c>
-      <c r="BK12" s="35" t="s">
+      <c r="BK12" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL12" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="BL12" s="19">
+      <c r="BM12" s="19">
         <v>28908</v>
       </c>
-      <c r="BM12" s="19">
+      <c r="BN12" s="19">
         <v>29301</v>
       </c>
-      <c r="BN12" s="12"/>
-    </row>
-    <row r="13" spans="1:66">
+    </row>
+    <row r="13" spans="1:67">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -20502,18 +20612,21 @@
       <c r="BJ13" s="10">
         <v>2</v>
       </c>
-      <c r="BK13" s="35" t="s">
+      <c r="BK13" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL13" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="BL13" s="19">
+      <c r="BM13" s="19">
         <v>29302</v>
       </c>
-      <c r="BM13" s="19">
+      <c r="BN13" s="19">
         <v>30675</v>
       </c>
-      <c r="BN13" s="12"/>
-    </row>
-    <row r="14" spans="1:66">
+      <c r="BO13" s="12"/>
+    </row>
+    <row r="14" spans="1:67">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -20671,18 +20784,21 @@
       <c r="BJ14" s="10">
         <v>3</v>
       </c>
-      <c r="BK14" s="35" t="s">
+      <c r="BK14" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL14" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="BL14" s="19">
+      <c r="BM14" s="19">
         <v>23675</v>
       </c>
-      <c r="BM14" s="19">
+      <c r="BN14" s="19">
         <v>25539</v>
       </c>
-      <c r="BN14" s="12"/>
-    </row>
-    <row r="15" spans="1:66">
+      <c r="BO14" s="12"/>
+    </row>
+    <row r="15" spans="1:67">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -20842,18 +20958,21 @@
       <c r="BJ15" s="10">
         <v>3</v>
       </c>
-      <c r="BK15" s="35" t="s">
+      <c r="BK15" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL15" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="BL15" s="19">
+      <c r="BM15" s="19">
         <v>25540</v>
       </c>
-      <c r="BM15" s="19">
+      <c r="BN15" s="19">
         <v>27217</v>
       </c>
-      <c r="BN15" s="12"/>
-    </row>
-    <row r="16" spans="1:66">
+      <c r="BO15" s="12"/>
+    </row>
+    <row r="16" spans="1:67">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -21011,18 +21130,21 @@
       <c r="BJ16" s="10">
         <v>3</v>
       </c>
-      <c r="BK16" s="35" t="s">
+      <c r="BK16" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="BL16" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="BL16" s="19">
+      <c r="BM16" s="19">
         <v>27218</v>
       </c>
-      <c r="BM16" s="19">
+      <c r="BN16" s="19">
         <v>28907</v>
       </c>
-      <c r="BN16" s="12"/>
-    </row>
-    <row r="17" spans="1:66">
+      <c r="BO16" s="12"/>
+    </row>
+    <row r="17" spans="1:67">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -21182,18 +21304,21 @@
       <c r="BJ17" s="10">
         <v>3</v>
       </c>
-      <c r="BK17" s="11" t="s">
+      <c r="BK17" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL17" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="BL17" s="19">
+      <c r="BM17" s="19">
         <v>28908</v>
       </c>
-      <c r="BM17" s="19">
+      <c r="BN17" s="19">
         <v>29301</v>
       </c>
-      <c r="BN17" s="12"/>
-    </row>
-    <row r="18" spans="1:66">
+      <c r="BO17" s="12"/>
+    </row>
+    <row r="18" spans="1:67">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -21351,18 +21476,21 @@
       <c r="BJ18" s="10">
         <v>3</v>
       </c>
-      <c r="BK18" s="11" t="s">
+      <c r="BK18" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL18" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="BL18" s="19">
+      <c r="BM18" s="19">
         <v>29302</v>
       </c>
-      <c r="BM18" s="19">
+      <c r="BN18" s="19">
         <v>30675</v>
       </c>
-      <c r="BN18" s="12"/>
-    </row>
-    <row r="19" spans="1:66">
+      <c r="BO18" s="12"/>
+    </row>
+    <row r="19" spans="1:67">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -21515,17 +21643,20 @@
         <v>4</v>
       </c>
       <c r="BK19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL19" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="BL19" s="19">
+      <c r="BM19" s="19">
         <v>24046</v>
       </c>
-      <c r="BM19" s="19">
+      <c r="BN19" s="19">
         <v>25699</v>
       </c>
-      <c r="BN19" s="12"/>
-    </row>
-    <row r="20" spans="1:66">
+      <c r="BO19" s="12"/>
+    </row>
+    <row r="20" spans="1:67">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -21676,17 +21807,20 @@
         <v>4</v>
       </c>
       <c r="BK20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL20" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="BL20" s="19">
+      <c r="BM20" s="19">
         <v>25700</v>
       </c>
-      <c r="BM20" s="19">
+      <c r="BN20" s="19">
         <v>27592</v>
       </c>
-      <c r="BN20" s="12"/>
-    </row>
-    <row r="21" spans="1:66">
+      <c r="BO20" s="12"/>
+    </row>
+    <row r="21" spans="1:67">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -21837,17 +21971,20 @@
         <v>4</v>
       </c>
       <c r="BK21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL21" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="BL21" s="19">
+      <c r="BM21" s="19">
         <v>27593</v>
       </c>
-      <c r="BM21" s="19">
+      <c r="BN21" s="19">
         <v>28796</v>
       </c>
-      <c r="BN21" s="12"/>
-    </row>
-    <row r="22" spans="1:66">
+      <c r="BO21" s="12"/>
+    </row>
+    <row r="22" spans="1:67">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -21998,17 +22135,20 @@
         <v>4</v>
       </c>
       <c r="BK22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL22" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="BL22" s="19">
+      <c r="BM22" s="19">
         <v>29528</v>
       </c>
-      <c r="BM22" s="19">
+      <c r="BN22" s="19">
         <v>30050</v>
       </c>
-      <c r="BN22" s="12"/>
-    </row>
-    <row r="23" spans="1:66">
+      <c r="BO22" s="12"/>
+    </row>
+    <row r="23" spans="1:67">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -22160,17 +22300,20 @@
         <v>4</v>
       </c>
       <c r="BK23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL23" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="BL23" s="19">
+      <c r="BM23" s="19">
         <v>30051</v>
       </c>
-      <c r="BM23" s="19">
+      <c r="BN23" s="19">
         <v>30433</v>
       </c>
-      <c r="BN23" s="12"/>
-    </row>
-    <row r="24" spans="1:66">
+      <c r="BO23" s="12"/>
+    </row>
+    <row r="24" spans="1:67">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -22320,17 +22463,20 @@
         <v>4</v>
       </c>
       <c r="BK24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL24" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="BL24" s="19">
+      <c r="BM24" s="19">
         <v>30434</v>
       </c>
-      <c r="BM24" s="19">
+      <c r="BN24" s="19">
         <v>31046</v>
       </c>
-      <c r="BN24" s="12"/>
-    </row>
-    <row r="25" spans="1:66">
+      <c r="BO24" s="12"/>
+    </row>
+    <row r="25" spans="1:67">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -22481,18 +22627,21 @@
       <c r="BJ25" s="10">
         <v>5</v>
       </c>
-      <c r="BK25" s="11" t="s">
+      <c r="BK25" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL25" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="BL25" s="19">
+      <c r="BM25" s="19">
         <v>23754</v>
       </c>
-      <c r="BM25" s="19">
+      <c r="BN25" s="19">
         <v>25215</v>
       </c>
-      <c r="BN25" s="12"/>
-    </row>
-    <row r="26" spans="1:66">
+      <c r="BO25" s="12"/>
+    </row>
+    <row r="26" spans="1:67">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -22641,18 +22790,21 @@
       <c r="BJ26" s="10">
         <v>5</v>
       </c>
-      <c r="BK26" s="11" t="s">
+      <c r="BK26" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL26" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="BL26" s="19">
+      <c r="BM26" s="19">
         <v>25216</v>
       </c>
-      <c r="BM26" s="19">
+      <c r="BN26" s="19">
         <v>26547</v>
       </c>
-      <c r="BN26" s="12"/>
-    </row>
-    <row r="27" spans="1:66">
+      <c r="BO26" s="12"/>
+    </row>
+    <row r="27" spans="1:67">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -22803,18 +22955,21 @@
       <c r="BJ27" s="10">
         <v>5</v>
       </c>
-      <c r="BK27" s="11" t="s">
+      <c r="BK27" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL27" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="BL27" s="19">
+      <c r="BM27" s="19">
         <v>26548</v>
       </c>
-      <c r="BM27" s="19">
+      <c r="BN27" s="19">
         <v>28442</v>
       </c>
-      <c r="BN27" s="12"/>
-    </row>
-    <row r="28" spans="1:66">
+      <c r="BO27" s="12"/>
+    </row>
+    <row r="28" spans="1:67">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -22963,18 +23118,21 @@
       <c r="BJ28" s="10">
         <v>5</v>
       </c>
-      <c r="BK28" s="11" t="s">
+      <c r="BK28" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL28" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="BL28" s="19">
+      <c r="BM28" s="19">
         <v>28443</v>
       </c>
-      <c r="BM28" s="19">
+      <c r="BN28" s="19">
         <v>29951</v>
       </c>
-      <c r="BN28" s="12"/>
-    </row>
-    <row r="29" spans="1:66">
+      <c r="BO28" s="12"/>
+    </row>
+    <row r="29" spans="1:67">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -23125,18 +23283,21 @@
       <c r="BJ29" s="10">
         <v>5</v>
       </c>
-      <c r="BK29" s="11" t="s">
+      <c r="BK29" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL29" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="BL29" s="19">
+      <c r="BM29" s="19">
         <v>29952</v>
       </c>
-      <c r="BM29" s="19">
+      <c r="BN29" s="19">
         <v>30398</v>
       </c>
-      <c r="BN29" s="12"/>
-    </row>
-    <row r="30" spans="1:66">
+      <c r="BO29" s="12"/>
+    </row>
+    <row r="30" spans="1:67">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -23285,18 +23446,21 @@
       <c r="BJ30" s="10">
         <v>5</v>
       </c>
-      <c r="BK30" s="11" t="s">
+      <c r="BK30" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL30" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="BL30" s="19">
+      <c r="BM30" s="19">
         <v>30399</v>
       </c>
-      <c r="BM30" s="19">
+      <c r="BN30" s="19">
         <v>31077</v>
       </c>
-      <c r="BN30" s="12"/>
-    </row>
-    <row r="31" spans="1:66">
+      <c r="BO30" s="12"/>
+    </row>
+    <row r="31" spans="1:67">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -23442,18 +23606,21 @@
       <c r="BJ31" s="10">
         <v>6</v>
       </c>
-      <c r="BK31" s="35" t="s">
+      <c r="BK31" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="BL31" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="BL31" s="19">
+      <c r="BM31" s="19">
         <v>24077</v>
       </c>
-      <c r="BM31" s="19">
+      <c r="BN31" s="19">
         <v>26722</v>
       </c>
-      <c r="BN31" s="12"/>
-    </row>
-    <row r="32" spans="1:66">
+      <c r="BO31" s="12"/>
+    </row>
+    <row r="32" spans="1:67">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -23599,18 +23766,21 @@
       <c r="BJ32" s="10">
         <v>6</v>
       </c>
-      <c r="BK32" s="35" t="s">
+      <c r="BK32" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL32" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL32" s="19">
+      <c r="BM32" s="19">
         <v>26723</v>
       </c>
-      <c r="BM32" s="19">
+      <c r="BN32" s="19">
         <v>27894</v>
       </c>
-      <c r="BN32" s="12"/>
-    </row>
-    <row r="33" spans="1:66">
+      <c r="BO32" s="12"/>
+    </row>
+    <row r="33" spans="1:67">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -23756,18 +23926,21 @@
       <c r="BJ33" s="10">
         <v>6</v>
       </c>
-      <c r="BK33" s="35" t="s">
+      <c r="BK33" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL33" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="BL33" s="19">
+      <c r="BM33" s="19">
         <v>27895</v>
       </c>
-      <c r="BM33" s="19">
+      <c r="BN33" s="19">
         <v>28626</v>
       </c>
-      <c r="BN33" s="12"/>
-    </row>
-    <row r="34" spans="1:66">
+      <c r="BO33" s="12"/>
+    </row>
+    <row r="34" spans="1:67">
       <c r="L34" s="10">
         <v>31</v>
       </c>
@@ -23886,18 +24059,21 @@
       <c r="BJ34" s="10">
         <v>6</v>
       </c>
-      <c r="BK34" s="35" t="s">
+      <c r="BK34" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL34" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="BL34" s="19">
+      <c r="BM34" s="19">
         <v>28597</v>
       </c>
-      <c r="BM34" s="19">
+      <c r="BN34" s="19">
         <v>29978</v>
       </c>
-      <c r="BN34" s="12"/>
-    </row>
-    <row r="35" spans="1:66">
+      <c r="BO34" s="12"/>
+    </row>
+    <row r="35" spans="1:67">
       <c r="L35" s="10">
         <v>32</v>
       </c>
@@ -24008,18 +24184,21 @@
       <c r="BJ35" s="10">
         <v>6</v>
       </c>
-      <c r="BK35" s="35" t="s">
+      <c r="BK35" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL35" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="BL35" s="19">
+      <c r="BM35" s="19">
         <v>30010</v>
       </c>
-      <c r="BM35" s="19">
+      <c r="BN35" s="19">
         <v>31077</v>
       </c>
-      <c r="BN35" s="12"/>
-    </row>
-    <row r="36" spans="1:66">
+      <c r="BO35" s="12"/>
+    </row>
+    <row r="36" spans="1:67">
       <c r="L36" s="10">
         <v>33</v>
       </c>
@@ -24130,18 +24309,21 @@
       <c r="BJ36" s="10">
         <v>7</v>
       </c>
-      <c r="BK36" s="35" t="s">
+      <c r="BK36" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL36" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="BL36" s="19">
+      <c r="BM36" s="19">
         <v>22264</v>
       </c>
-      <c r="BM36" s="19">
+      <c r="BN36" s="19">
         <v>23205</v>
       </c>
-      <c r="BN36" s="12"/>
-    </row>
-    <row r="37" spans="1:66">
+      <c r="BO36" s="12"/>
+    </row>
+    <row r="37" spans="1:67">
       <c r="L37" s="10">
         <v>34</v>
       </c>
@@ -24252,18 +24434,21 @@
       <c r="BJ37" s="10">
         <v>7</v>
       </c>
-      <c r="BK37" s="35" t="s">
+      <c r="BK37" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL37" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="BL37" s="19">
+      <c r="BM37" s="19">
         <v>23206</v>
       </c>
-      <c r="BM37" s="19">
+      <c r="BN37" s="19">
         <v>25070</v>
       </c>
-      <c r="BN37" s="12"/>
-    </row>
-    <row r="38" spans="1:66">
+      <c r="BO37" s="12"/>
+    </row>
+    <row r="38" spans="1:67">
       <c r="L38" s="10">
         <v>35</v>
       </c>
@@ -24374,18 +24559,21 @@
       <c r="BJ38" s="10">
         <v>7</v>
       </c>
-      <c r="BK38" s="35" t="s">
+      <c r="BK38" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL38" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="BL38" s="19">
+      <c r="BM38" s="19">
         <v>25071</v>
       </c>
-      <c r="BM38" s="19">
+      <c r="BN38" s="19">
         <v>26630</v>
       </c>
-      <c r="BN38" s="12"/>
-    </row>
-    <row r="39" spans="1:66">
+      <c r="BO38" s="12"/>
+    </row>
+    <row r="39" spans="1:67">
       <c r="L39" s="10">
         <v>36</v>
       </c>
@@ -24496,18 +24684,21 @@
       <c r="BJ39" s="10">
         <v>7</v>
       </c>
-      <c r="BK39" s="35" t="s">
+      <c r="BK39" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL39" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL39" s="19">
+      <c r="BM39" s="19">
         <v>26661</v>
       </c>
-      <c r="BM39" s="19">
+      <c r="BN39" s="19">
         <v>27347</v>
       </c>
-      <c r="BN39" s="12"/>
-    </row>
-    <row r="40" spans="1:66">
+      <c r="BO39" s="12"/>
+    </row>
+    <row r="40" spans="1:67">
       <c r="L40" s="10">
         <v>37</v>
       </c>
@@ -24618,18 +24809,21 @@
       <c r="BJ40" s="10">
         <v>7</v>
       </c>
-      <c r="BK40" s="35" t="s">
+      <c r="BK40" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="BL40" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL40" s="19">
+      <c r="BM40" s="19">
         <v>27348</v>
       </c>
-      <c r="BM40" s="19">
+      <c r="BN40" s="19">
         <v>29264</v>
       </c>
-      <c r="BN40" s="12"/>
-    </row>
-    <row r="41" spans="1:66">
+      <c r="BO40" s="12"/>
+    </row>
+    <row r="41" spans="1:67">
       <c r="L41" s="10">
         <v>38</v>
       </c>
@@ -24740,18 +24934,21 @@
       <c r="BJ41" s="10">
         <v>8</v>
       </c>
-      <c r="BK41" s="35" t="s">
+      <c r="BK41" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL41" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="BL41" s="19">
+      <c r="BM41" s="19">
         <v>22279</v>
       </c>
-      <c r="BM41" s="19">
+      <c r="BN41" s="19">
         <v>24835</v>
       </c>
-      <c r="BN41" s="12"/>
-    </row>
-    <row r="42" spans="1:66">
+      <c r="BO41" s="12"/>
+    </row>
+    <row r="42" spans="1:67">
       <c r="L42" s="10">
         <v>39</v>
       </c>
@@ -24862,18 +25059,21 @@
       <c r="BJ42" s="10">
         <v>8</v>
       </c>
-      <c r="BK42" s="35" t="s">
+      <c r="BK42" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL42" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="BL42" s="19">
+      <c r="BM42" s="19">
         <v>24838</v>
       </c>
-      <c r="BM42" s="19">
+      <c r="BN42" s="19">
         <v>25660</v>
       </c>
-      <c r="BN42" s="12"/>
-    </row>
-    <row r="43" spans="1:66">
+      <c r="BO42" s="12"/>
+    </row>
+    <row r="43" spans="1:67">
       <c r="L43" s="10">
         <v>40</v>
       </c>
@@ -24985,17 +25185,20 @@
         <v>8</v>
       </c>
       <c r="BK43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL43" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="BL43" s="19">
+      <c r="BM43" s="19">
         <v>25661</v>
       </c>
-      <c r="BM43" s="19">
+      <c r="BN43" s="19">
         <v>28313</v>
       </c>
-      <c r="BN43" s="12"/>
-    </row>
-    <row r="44" spans="1:66">
+      <c r="BO43" s="12"/>
+    </row>
+    <row r="44" spans="1:67">
       <c r="L44" s="10">
         <v>41</v>
       </c>
@@ -25107,17 +25310,20 @@
         <v>8</v>
       </c>
       <c r="BK44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL44" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="BL44" s="19">
+      <c r="BM44" s="19">
         <v>28314</v>
       </c>
-      <c r="BM44" s="19">
+      <c r="BN44" s="19">
         <v>29055</v>
       </c>
-      <c r="BN44" s="12"/>
-    </row>
-    <row r="45" spans="1:66">
+      <c r="BO44" s="12"/>
+    </row>
+    <row r="45" spans="1:67">
       <c r="L45" s="10">
         <v>42</v>
       </c>
@@ -25229,17 +25435,20 @@
         <v>8</v>
       </c>
       <c r="BK45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL45" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="BL45" s="19">
+      <c r="BM45" s="19">
         <v>29056</v>
       </c>
-      <c r="BM45" s="19">
+      <c r="BN45" s="19">
         <v>29580</v>
       </c>
-      <c r="BN45" s="12"/>
-    </row>
-    <row r="46" spans="1:66">
+      <c r="BO45" s="12"/>
+    </row>
+    <row r="46" spans="1:67">
       <c r="L46" s="10">
         <v>43</v>
       </c>
@@ -25351,17 +25560,20 @@
         <v>9</v>
       </c>
       <c r="BK46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL46" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="BL46" s="19">
+      <c r="BM46" s="19">
         <v>30250</v>
       </c>
-      <c r="BM46" s="19">
+      <c r="BN46" s="19">
         <v>32465</v>
       </c>
-      <c r="BN46" s="12"/>
-    </row>
-    <row r="47" spans="1:66">
+      <c r="BO46" s="12"/>
+    </row>
+    <row r="47" spans="1:67">
       <c r="L47" s="10">
         <v>44</v>
       </c>
@@ -25473,17 +25685,20 @@
         <v>9</v>
       </c>
       <c r="BK47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL47" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="BL47" s="19">
+      <c r="BM47" s="19">
         <v>32466</v>
       </c>
-      <c r="BM47" s="19">
+      <c r="BN47" s="19">
         <v>33620</v>
       </c>
-      <c r="BN47" s="12"/>
-    </row>
-    <row r="48" spans="1:66">
+      <c r="BO47" s="12"/>
+    </row>
+    <row r="48" spans="1:67">
       <c r="L48" s="10">
         <v>45</v>
       </c>
@@ -25595,17 +25810,20 @@
         <v>9</v>
       </c>
       <c r="BK48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL48" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="BL48" s="19">
+      <c r="BM48" s="19">
         <v>33621</v>
       </c>
-      <c r="BM48" s="19">
+      <c r="BN48" s="19">
         <v>36270</v>
       </c>
-      <c r="BN48" s="12"/>
-    </row>
-    <row r="49" spans="12:66">
+      <c r="BO48" s="12"/>
+    </row>
+    <row r="49" spans="12:67">
       <c r="L49" s="10">
         <v>46</v>
       </c>
@@ -25716,18 +25934,21 @@
       <c r="BJ49" s="10">
         <v>9</v>
       </c>
-      <c r="BK49" s="11" t="s">
+      <c r="BK49" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL49" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="BL49" s="19">
+      <c r="BM49" s="19">
         <v>36271</v>
       </c>
-      <c r="BM49" s="19">
+      <c r="BN49" s="19">
         <v>36749</v>
       </c>
-      <c r="BN49" s="12"/>
-    </row>
-    <row r="50" spans="12:66">
+      <c r="BO49" s="12"/>
+    </row>
+    <row r="50" spans="12:67">
       <c r="L50" s="10">
         <v>47</v>
       </c>
@@ -25838,18 +26059,21 @@
       <c r="BJ50" s="10">
         <v>9</v>
       </c>
-      <c r="BK50" s="11" t="s">
+      <c r="BK50" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL50" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="BL50" s="19">
+      <c r="BM50" s="19">
         <v>36750</v>
       </c>
-      <c r="BM50" s="19">
+      <c r="BN50" s="19">
         <v>37250</v>
       </c>
-      <c r="BN50" s="12"/>
-    </row>
-    <row r="51" spans="12:66">
+      <c r="BO50" s="12"/>
+    </row>
+    <row r="51" spans="12:67">
       <c r="L51" s="10">
         <v>48</v>
       </c>
@@ -25960,18 +26184,21 @@
       <c r="BJ51" s="10">
         <v>10</v>
       </c>
-      <c r="BK51" s="11" t="s">
+      <c r="BK51" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL51" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="BL51" s="19">
+      <c r="BM51" s="19">
         <v>30615</v>
       </c>
-      <c r="BM51" s="19">
+      <c r="BN51" s="19">
         <v>32208</v>
       </c>
-      <c r="BN51" s="12"/>
-    </row>
-    <row r="52" spans="12:66">
+      <c r="BO51" s="12"/>
+    </row>
+    <row r="52" spans="12:67">
       <c r="L52" s="10">
         <v>49</v>
       </c>
@@ -26082,18 +26309,21 @@
       <c r="BJ52" s="10">
         <v>10</v>
       </c>
-      <c r="BK52" s="11" t="s">
+      <c r="BK52" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="BL52" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="BL52" s="19">
+      <c r="BM52" s="19">
         <v>32209</v>
       </c>
-      <c r="BM52" s="19">
+      <c r="BN52" s="19">
         <v>33123</v>
       </c>
-      <c r="BN52" s="12"/>
-    </row>
-    <row r="53" spans="12:66">
+      <c r="BO52" s="12"/>
+    </row>
+    <row r="53" spans="12:67">
       <c r="L53" s="10">
         <v>50</v>
       </c>
@@ -26204,18 +26434,21 @@
       <c r="BJ53" s="10">
         <v>10</v>
       </c>
-      <c r="BK53" s="11" t="s">
+      <c r="BK53" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL53" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="BL53" s="19">
+      <c r="BM53" s="19">
         <v>33124</v>
       </c>
-      <c r="BM53" s="19">
+      <c r="BN53" s="19">
         <v>33393</v>
       </c>
-      <c r="BN53" s="12"/>
-    </row>
-    <row r="54" spans="12:66">
+      <c r="BO53" s="12"/>
+    </row>
+    <row r="54" spans="12:67">
       <c r="L54" s="10">
         <v>51</v>
       </c>
@@ -26326,18 +26559,21 @@
       <c r="BJ54" s="10">
         <v>10</v>
       </c>
-      <c r="BK54" s="11" t="s">
+      <c r="BK54" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL54" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="BL54" s="19">
+      <c r="BM54" s="19">
         <v>33394</v>
       </c>
-      <c r="BM54" s="19">
+      <c r="BN54" s="19">
         <v>36682</v>
       </c>
-      <c r="BN54" s="12"/>
-    </row>
-    <row r="55" spans="12:66">
+      <c r="BO54" s="12"/>
+    </row>
+    <row r="55" spans="12:67">
       <c r="L55" s="10">
         <v>52</v>
       </c>
@@ -26449,17 +26685,20 @@
         <v>10</v>
       </c>
       <c r="BK55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL55" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="BL55" s="19">
+      <c r="BM55" s="19">
         <v>36683</v>
       </c>
-      <c r="BM55" s="19">
+      <c r="BN55" s="19">
         <v>37476</v>
       </c>
-      <c r="BN55" s="12"/>
-    </row>
-    <row r="56" spans="12:66">
+      <c r="BO55" s="12"/>
+    </row>
+    <row r="56" spans="12:67">
       <c r="L56" s="10">
         <v>53</v>
       </c>
@@ -26571,17 +26810,20 @@
         <v>10</v>
       </c>
       <c r="BK56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL56" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="BL56" s="19">
+      <c r="BM56" s="19">
         <v>37477</v>
       </c>
-      <c r="BM56" s="19">
+      <c r="BN56" s="19">
         <v>37980</v>
       </c>
-      <c r="BN56" s="12"/>
-    </row>
-    <row r="57" spans="12:66">
+      <c r="BO56" s="12"/>
+    </row>
+    <row r="57" spans="12:67">
       <c r="L57" s="10">
         <v>54</v>
       </c>
@@ -26684,18 +26926,21 @@
       <c r="BJ57" s="10">
         <v>11</v>
       </c>
-      <c r="BK57" s="35" t="s">
+      <c r="BK57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL57" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL57" s="19">
+      <c r="BM57" s="19">
         <v>30985</v>
       </c>
-      <c r="BM57" s="19">
+      <c r="BN57" s="19">
         <v>32110</v>
       </c>
-      <c r="BN57" s="12"/>
-    </row>
-    <row r="58" spans="12:66">
+      <c r="BO57" s="12"/>
+    </row>
+    <row r="58" spans="12:67">
       <c r="L58" s="10">
         <v>55</v>
       </c>
@@ -26798,18 +27043,21 @@
       <c r="BJ58" s="10">
         <v>11</v>
       </c>
-      <c r="BK58" s="35" t="s">
+      <c r="BK58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL58" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL58" s="19">
+      <c r="BM58" s="19">
         <v>32111</v>
       </c>
-      <c r="BM58" s="19">
+      <c r="BN58" s="19">
         <v>33238</v>
       </c>
-      <c r="BN58" s="12"/>
-    </row>
-    <row r="59" spans="12:66">
+      <c r="BO58" s="12"/>
+    </row>
+    <row r="59" spans="12:67">
       <c r="L59" s="10">
         <v>56</v>
       </c>
@@ -26912,18 +27160,21 @@
       <c r="BJ59" s="10">
         <v>11</v>
       </c>
-      <c r="BK59" s="35" t="s">
+      <c r="BK59" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL59" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL59" s="19">
+      <c r="BM59" s="19">
         <v>33239</v>
       </c>
-      <c r="BM59" s="19">
+      <c r="BN59" s="19">
         <v>35942</v>
       </c>
-      <c r="BN59" s="12"/>
-    </row>
-    <row r="60" spans="12:66">
+      <c r="BO59" s="12"/>
+    </row>
+    <row r="60" spans="12:67">
       <c r="L60" s="10">
         <v>57</v>
       </c>
@@ -27026,18 +27277,21 @@
       <c r="BJ60" s="10">
         <v>11</v>
       </c>
-      <c r="BK60" s="35" t="s">
+      <c r="BK60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL60" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="BL60" s="19">
+      <c r="BM60" s="19">
         <v>35943</v>
       </c>
-      <c r="BM60" s="19">
+      <c r="BN60" s="19">
         <v>37039</v>
       </c>
-      <c r="BN60" s="12"/>
-    </row>
-    <row r="61" spans="12:66">
+      <c r="BO60" s="12"/>
+    </row>
+    <row r="61" spans="12:67">
       <c r="L61" s="10">
         <v>58</v>
       </c>
@@ -27140,18 +27394,21 @@
       <c r="BJ61" s="10">
         <v>11</v>
       </c>
-      <c r="BK61" s="35" t="s">
+      <c r="BK61" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL61" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="BL61" s="19">
+      <c r="BM61" s="19">
         <v>37040</v>
       </c>
-      <c r="BM61" s="19">
+      <c r="BN61" s="19">
         <v>37346</v>
       </c>
-      <c r="BN61" s="12"/>
-    </row>
-    <row r="62" spans="12:66">
+      <c r="BO61" s="12"/>
+    </row>
+    <row r="62" spans="12:67">
       <c r="L62" s="10">
         <v>59</v>
       </c>
@@ -27254,18 +27511,21 @@
       <c r="BJ62" s="10">
         <v>11</v>
       </c>
-      <c r="BK62" s="35" t="s">
+      <c r="BK62" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL62" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL62" s="19">
+      <c r="BM62" s="19">
         <v>37347</v>
       </c>
-      <c r="BM62" s="19">
+      <c r="BN62" s="19">
         <v>37985</v>
       </c>
-      <c r="BN62" s="12"/>
-    </row>
-    <row r="63" spans="12:66">
+      <c r="BO62" s="12"/>
+    </row>
+    <row r="63" spans="12:67">
       <c r="L63" s="10">
         <v>60</v>
       </c>
@@ -27368,18 +27628,21 @@
       <c r="BJ63" s="10">
         <v>12</v>
       </c>
-      <c r="BK63" s="35" t="s">
+      <c r="BK63" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL63" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="BL63" s="19">
+      <c r="BM63" s="19">
         <v>31016</v>
       </c>
-      <c r="BM63" s="19">
+      <c r="BN63" s="19">
         <v>33112</v>
       </c>
-      <c r="BN63" s="12"/>
-    </row>
-    <row r="64" spans="12:66">
+      <c r="BO63" s="12"/>
+    </row>
+    <row r="64" spans="12:67">
       <c r="L64" s="10">
         <v>61</v>
       </c>
@@ -27482,18 +27745,21 @@
       <c r="BJ64" s="10">
         <v>12</v>
       </c>
-      <c r="BK64" s="35" t="s">
+      <c r="BK64" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL64" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="BL64" s="19">
+      <c r="BM64" s="19">
         <v>33113</v>
       </c>
-      <c r="BM64" s="19">
+      <c r="BN64" s="19">
         <v>34409</v>
       </c>
-      <c r="BN64" s="12"/>
-    </row>
-    <row r="65" spans="12:66">
+      <c r="BO64" s="12"/>
+    </row>
+    <row r="65" spans="12:67">
       <c r="L65" s="10">
         <v>62</v>
       </c>
@@ -27596,18 +27862,21 @@
       <c r="BJ65" s="10">
         <v>12</v>
       </c>
-      <c r="BK65" s="35" t="s">
+      <c r="BK65" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL65" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="BL65" s="19">
+      <c r="BM65" s="19">
         <v>34410</v>
       </c>
-      <c r="BM65" s="19">
+      <c r="BN65" s="19">
         <v>36967</v>
       </c>
-      <c r="BN65" s="12"/>
-    </row>
-    <row r="66" spans="12:66">
+      <c r="BO65" s="12"/>
+    </row>
+    <row r="66" spans="12:67">
       <c r="L66" s="10">
         <v>63</v>
       </c>
@@ -27710,18 +27979,21 @@
       <c r="BJ66" s="10">
         <v>12</v>
       </c>
-      <c r="BK66" s="35" t="s">
+      <c r="BK66" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL66" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="BL66" s="19">
+      <c r="BM66" s="19">
         <v>36968</v>
       </c>
-      <c r="BM66" s="19">
+      <c r="BN66" s="19">
         <v>37445</v>
       </c>
-      <c r="BN66" s="12"/>
-    </row>
-    <row r="67" spans="12:66">
+      <c r="BO66" s="12"/>
+    </row>
+    <row r="67" spans="12:67">
       <c r="L67" s="10">
         <v>64</v>
       </c>
@@ -27824,18 +28096,21 @@
       <c r="BJ67" s="10">
         <v>12</v>
       </c>
-      <c r="BK67" s="35" t="s">
+      <c r="BK67" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL67" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="BL67" s="19">
+      <c r="BM67" s="19">
         <v>37446</v>
       </c>
-      <c r="BM67" s="19">
+      <c r="BN67" s="19">
         <v>38016</v>
       </c>
-      <c r="BN67" s="12"/>
-    </row>
-    <row r="68" spans="12:66">
+      <c r="BO67" s="12"/>
+    </row>
+    <row r="68" spans="12:67">
       <c r="L68" s="10">
         <v>65</v>
       </c>
@@ -27938,18 +28213,21 @@
       <c r="BJ68" s="10">
         <v>13</v>
       </c>
-      <c r="BK68" s="11" t="s">
+      <c r="BK68" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL68" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="BL68" s="19">
+      <c r="BM68" s="19">
         <v>31382</v>
       </c>
-      <c r="BM68" s="19">
+      <c r="BN68" s="19">
         <v>32131</v>
       </c>
-      <c r="BN68" s="12"/>
-    </row>
-    <row r="69" spans="12:66">
+      <c r="BO68" s="12"/>
+    </row>
+    <row r="69" spans="12:67">
       <c r="L69" s="10">
         <v>66</v>
       </c>
@@ -28052,18 +28330,21 @@
       <c r="BJ69" s="10">
         <v>13</v>
       </c>
-      <c r="BK69" s="11" t="s">
+      <c r="BK69" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="BL69" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="BL69" s="19">
+      <c r="BM69" s="19">
         <v>32132</v>
       </c>
-      <c r="BM69" s="19">
+      <c r="BN69" s="19">
         <v>33842</v>
       </c>
-      <c r="BN69" s="12"/>
-    </row>
-    <row r="70" spans="12:66">
+      <c r="BO69" s="12"/>
+    </row>
+    <row r="70" spans="12:67">
       <c r="L70" s="10">
         <v>67</v>
       </c>
@@ -28166,18 +28447,21 @@
       <c r="BJ70" s="10">
         <v>13</v>
       </c>
-      <c r="BK70" s="11" t="s">
+      <c r="BK70" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL70" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="BL70" s="19">
+      <c r="BM70" s="19">
         <v>33843</v>
       </c>
-      <c r="BM70" s="19">
+      <c r="BN70" s="19">
         <v>37697</v>
       </c>
-      <c r="BN70" s="12"/>
-    </row>
-    <row r="71" spans="12:66">
+      <c r="BO70" s="12"/>
+    </row>
+    <row r="71" spans="12:67">
       <c r="L71" s="10">
         <v>68</v>
       </c>
@@ -28280,18 +28564,21 @@
       <c r="BJ71" s="10">
         <v>13</v>
       </c>
-      <c r="BK71" s="11" t="s">
+      <c r="BK71" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL71" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="BL71" s="19">
+      <c r="BM71" s="19">
         <v>37698</v>
       </c>
-      <c r="BM71" s="19">
+      <c r="BN71" s="19">
         <v>38382</v>
       </c>
-      <c r="BN71" s="12"/>
-    </row>
-    <row r="72" spans="12:66">
+      <c r="BO71" s="12"/>
+    </row>
+    <row r="72" spans="12:67">
       <c r="L72" s="10">
         <v>69</v>
       </c>
@@ -28395,17 +28682,20 @@
         <v>14</v>
       </c>
       <c r="BK72" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL72" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="BL72" s="19">
+      <c r="BM72" s="19">
         <v>31761</v>
       </c>
-      <c r="BM72" s="19">
+      <c r="BN72" s="19">
         <v>32562</v>
       </c>
-      <c r="BN72" s="12"/>
-    </row>
-    <row r="73" spans="12:66">
+      <c r="BO72" s="12"/>
+    </row>
+    <row r="73" spans="12:67">
       <c r="L73" s="10">
         <v>70</v>
       </c>
@@ -28509,17 +28799,20 @@
         <v>14</v>
       </c>
       <c r="BK73" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL73" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="BL73" s="19">
+      <c r="BM73" s="19">
         <v>32563</v>
       </c>
-      <c r="BM73" s="19">
+      <c r="BN73" s="19">
         <v>36264</v>
       </c>
-      <c r="BN73" s="12"/>
-    </row>
-    <row r="74" spans="12:66">
+      <c r="BO73" s="12"/>
+    </row>
+    <row r="74" spans="12:67">
       <c r="L74" s="10">
         <v>71</v>
       </c>
@@ -28623,17 +28916,20 @@
         <v>14</v>
       </c>
       <c r="BK74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL74" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="BL74" s="19">
+      <c r="BM74" s="19">
         <v>36265</v>
       </c>
-      <c r="BM74" s="19">
+      <c r="BN74" s="19">
         <v>38062</v>
       </c>
-      <c r="BN74" s="12"/>
-    </row>
-    <row r="75" spans="12:66">
+      <c r="BO74" s="12"/>
+    </row>
+    <row r="75" spans="12:67">
       <c r="L75" s="10">
         <v>72</v>
       </c>
@@ -28737,17 +29033,20 @@
         <v>14</v>
       </c>
       <c r="BK75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL75" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="BL75" s="19">
+      <c r="BM75" s="19">
         <v>38063</v>
       </c>
-      <c r="BM75" s="19">
+      <c r="BN75" s="19">
         <v>38761</v>
       </c>
-      <c r="BN75" s="12"/>
-    </row>
-    <row r="76" spans="12:66">
+      <c r="BO75" s="12"/>
+    </row>
+    <row r="76" spans="12:67">
       <c r="L76" s="10">
         <v>73</v>
       </c>
@@ -28851,17 +29150,20 @@
         <v>15</v>
       </c>
       <c r="BK76" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL76" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="BL76" s="19">
+      <c r="BM76" s="19">
         <v>32141</v>
       </c>
-      <c r="BM76" s="19">
+      <c r="BN76" s="19">
         <v>34511</v>
       </c>
-      <c r="BN76" s="12"/>
-    </row>
-    <row r="77" spans="12:66">
+      <c r="BO76" s="12"/>
+    </row>
+    <row r="77" spans="12:67">
       <c r="L77" s="10">
         <v>74</v>
       </c>
@@ -28965,17 +29267,20 @@
         <v>15</v>
       </c>
       <c r="BK77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL77" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="BL77" s="19">
+      <c r="BM77" s="19">
         <v>34512</v>
       </c>
-      <c r="BM77" s="19">
+      <c r="BN77" s="19">
         <v>37069</v>
       </c>
-      <c r="BN77" s="12"/>
-    </row>
-    <row r="78" spans="12:66">
+      <c r="BO77" s="12"/>
+    </row>
+    <row r="78" spans="12:67">
       <c r="L78" s="10">
         <v>75</v>
       </c>
@@ -29078,18 +29383,21 @@
       <c r="BJ78" s="10">
         <v>15</v>
       </c>
-      <c r="BK78" s="11" t="s">
+      <c r="BK78" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL78" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="BL78" s="19">
+      <c r="BM78" s="19">
         <v>37070</v>
       </c>
-      <c r="BM78" s="19">
+      <c r="BN78" s="19">
         <v>38095</v>
       </c>
-      <c r="BN78" s="12"/>
-    </row>
-    <row r="79" spans="12:66">
+      <c r="BO78" s="12"/>
+    </row>
+    <row r="79" spans="12:67">
       <c r="L79" s="10">
         <v>76</v>
       </c>
@@ -29192,18 +29500,21 @@
       <c r="BJ79" s="10">
         <v>15</v>
       </c>
-      <c r="BK79" s="11" t="s">
+      <c r="BK79" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL79" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="BL79" s="19">
+      <c r="BM79" s="19">
         <v>38096</v>
       </c>
-      <c r="BM79" s="19">
+      <c r="BN79" s="19">
         <v>39141</v>
       </c>
-      <c r="BN79" s="12"/>
-    </row>
-    <row r="80" spans="12:66">
+      <c r="BO79" s="12"/>
+    </row>
+    <row r="80" spans="12:67">
       <c r="L80" s="10">
         <v>77</v>
       </c>
@@ -29306,18 +29617,21 @@
       <c r="BJ80" s="10">
         <v>19</v>
       </c>
-      <c r="BK80" s="35" t="s">
+      <c r="BK80" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL80" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL80" s="19">
+      <c r="BM80" s="19">
         <v>23328</v>
       </c>
-      <c r="BM80" s="19">
+      <c r="BN80" s="19">
         <v>24605</v>
       </c>
-      <c r="BN80" s="12"/>
-    </row>
-    <row r="81" spans="12:66">
+      <c r="BO80" s="12"/>
+    </row>
+    <row r="81" spans="12:67">
       <c r="L81" s="10">
         <v>78</v>
       </c>
@@ -29420,18 +29734,21 @@
       <c r="BJ81" s="10">
         <v>19</v>
       </c>
-      <c r="BK81" s="35" t="s">
+      <c r="BK81" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL81" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL81" s="19">
+      <c r="BM81" s="19">
         <v>24606</v>
       </c>
-      <c r="BM81" s="19">
+      <c r="BN81" s="19">
         <v>26047</v>
       </c>
-      <c r="BN81" s="12"/>
-    </row>
-    <row r="82" spans="12:66">
+      <c r="BO81" s="12"/>
+    </row>
+    <row r="82" spans="12:67">
       <c r="L82" s="10">
         <v>79</v>
       </c>
@@ -29534,18 +29851,21 @@
       <c r="BJ82" s="10">
         <v>19</v>
       </c>
-      <c r="BK82" s="35" t="s">
+      <c r="BK82" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL82" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="BL82" s="19">
+      <c r="BM82" s="19">
         <v>26048</v>
       </c>
-      <c r="BM82" s="19">
+      <c r="BN82" s="19">
         <v>29051</v>
       </c>
-      <c r="BN82" s="12"/>
-    </row>
-    <row r="83" spans="12:66">
+      <c r="BO82" s="12"/>
+    </row>
+    <row r="83" spans="12:67">
       <c r="L83" s="10">
         <v>80</v>
       </c>
@@ -29642,18 +29962,21 @@
       <c r="BJ83" s="10">
         <v>19</v>
       </c>
-      <c r="BK83" s="35" t="s">
+      <c r="BK83" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL83" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="BL83" s="19">
+      <c r="BM83" s="19">
         <v>29052</v>
       </c>
-      <c r="BM83" s="19">
+      <c r="BN83" s="19">
         <v>29480</v>
       </c>
-      <c r="BN83" s="12"/>
-    </row>
-    <row r="84" spans="12:66">
+      <c r="BO83" s="12"/>
+    </row>
+    <row r="84" spans="12:67">
       <c r="L84" s="10">
         <v>81</v>
       </c>
@@ -29751,18 +30074,21 @@
       <c r="BJ84" s="10">
         <v>19</v>
       </c>
-      <c r="BK84" s="11" t="s">
+      <c r="BK84" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="BL84" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="BL84" s="19">
+      <c r="BM84" s="19">
         <v>29481</v>
       </c>
-      <c r="BM84" s="19">
+      <c r="BN84" s="19">
         <v>30328</v>
       </c>
-      <c r="BN84" s="12"/>
-    </row>
-    <row r="85" spans="12:66">
+      <c r="BO84" s="12"/>
+    </row>
+    <row r="85" spans="12:67">
       <c r="L85" s="10">
         <v>82</v>
       </c>
@@ -29860,18 +30186,21 @@
       <c r="BJ85" s="10">
         <v>22</v>
       </c>
-      <c r="BK85" s="49" t="s">
+      <c r="BK85" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL85" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="BL85" s="19">
+      <c r="BM85" s="19">
         <v>22746</v>
       </c>
-      <c r="BM85" s="19">
+      <c r="BN85" s="19">
         <v>23233</v>
       </c>
-      <c r="BN85" s="12"/>
-    </row>
-    <row r="86" spans="12:66">
+      <c r="BO85" s="12"/>
+    </row>
+    <row r="86" spans="12:67">
       <c r="L86" s="10">
         <v>83</v>
       </c>
@@ -29959,18 +30288,21 @@
       <c r="BJ86" s="10">
         <v>22</v>
       </c>
-      <c r="BK86" s="11" t="s">
+      <c r="BK86" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL86" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="BL86" s="19">
+      <c r="BM86" s="19">
         <v>23234</v>
       </c>
-      <c r="BM86" s="19">
+      <c r="BN86" s="19">
         <v>24487</v>
       </c>
-      <c r="BN86" s="12"/>
-    </row>
-    <row r="87" spans="12:66">
+      <c r="BO86" s="12"/>
+    </row>
+    <row r="87" spans="12:67">
       <c r="L87" s="10">
         <v>84</v>
       </c>
@@ -30057,18 +30389,21 @@
       <c r="BJ87" s="10">
         <v>22</v>
       </c>
-      <c r="BK87" s="11" t="s">
+      <c r="BK87" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL87" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="BL87" s="19">
+      <c r="BM87" s="19">
         <v>24488</v>
       </c>
-      <c r="BM87" s="19">
+      <c r="BN87" s="19">
         <v>26355</v>
       </c>
-      <c r="BN87" s="12"/>
-    </row>
-    <row r="88" spans="12:66">
+      <c r="BO87" s="12"/>
+    </row>
+    <row r="88" spans="12:67">
       <c r="L88" s="10">
         <v>85</v>
       </c>
@@ -30155,18 +30490,21 @@
       <c r="BJ88" s="10">
         <v>22</v>
       </c>
-      <c r="BK88" s="11" t="s">
+      <c r="BK88" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL88" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="BL88" s="19">
+      <c r="BM88" s="19">
         <v>26356</v>
       </c>
-      <c r="BM88" s="19">
+      <c r="BN88" s="19">
         <v>27325</v>
       </c>
-      <c r="BN88" s="12"/>
-    </row>
-    <row r="89" spans="12:66">
+      <c r="BO88" s="12"/>
+    </row>
+    <row r="89" spans="12:67">
       <c r="L89" s="10">
         <v>86</v>
       </c>
@@ -30251,18 +30589,21 @@
       <c r="BJ89" s="10">
         <v>22</v>
       </c>
-      <c r="BK89" s="11" t="s">
+      <c r="BK89" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL89" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="BL89" s="19">
+      <c r="BM89" s="19">
         <v>27326</v>
       </c>
-      <c r="BM89" s="19">
+      <c r="BN89" s="19">
         <v>28958</v>
       </c>
-      <c r="BN89" s="12"/>
-    </row>
-    <row r="90" spans="12:66">
+      <c r="BO89" s="12"/>
+    </row>
+    <row r="90" spans="12:67">
       <c r="L90" s="10">
         <v>87</v>
       </c>
@@ -30347,18 +30688,21 @@
       <c r="BJ90" s="10">
         <v>22</v>
       </c>
-      <c r="BK90" s="11" t="s">
+      <c r="BK90" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL90" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="BL90" s="19">
+      <c r="BM90" s="19">
         <v>28989</v>
       </c>
-      <c r="BM90" s="19">
+      <c r="BN90" s="19">
         <v>29746</v>
       </c>
-      <c r="BN90" s="12"/>
-    </row>
-    <row r="91" spans="12:66">
+      <c r="BO90" s="12"/>
+    </row>
+    <row r="91" spans="12:67">
       <c r="L91" s="10">
         <v>88</v>
       </c>
@@ -30443,18 +30787,21 @@
       <c r="BJ91" s="10">
         <v>27</v>
       </c>
-      <c r="BK91" s="11" t="s">
+      <c r="BK91" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="BL91" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="BL91" s="19">
+      <c r="BM91" s="19">
         <v>22857</v>
       </c>
-      <c r="BM91" s="19">
+      <c r="BN91" s="19">
         <v>23606</v>
       </c>
-      <c r="BN91" s="12"/>
-    </row>
-    <row r="92" spans="12:66">
+      <c r="BO91" s="12"/>
+    </row>
+    <row r="92" spans="12:67">
       <c r="L92" s="10">
         <v>89</v>
       </c>
@@ -30539,18 +30886,21 @@
       <c r="BJ92" s="10">
         <v>27</v>
       </c>
-      <c r="BK92" s="11" t="s">
+      <c r="BK92" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL92" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="BL92" s="19">
+      <c r="BM92" s="19">
         <v>23607</v>
       </c>
-      <c r="BM92" s="19">
+      <c r="BN92" s="19">
         <v>24534</v>
       </c>
-      <c r="BN92" s="12"/>
-    </row>
-    <row r="93" spans="12:66">
+      <c r="BO92" s="12"/>
+    </row>
+    <row r="93" spans="12:67">
       <c r="L93" s="10">
         <v>90</v>
       </c>
@@ -30635,18 +30985,21 @@
       <c r="BJ93" s="10">
         <v>27</v>
       </c>
-      <c r="BK93" s="11" t="s">
+      <c r="BK93" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL93" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="BL93" s="19">
+      <c r="BM93" s="19">
         <v>24535</v>
       </c>
-      <c r="BM93" s="19">
+      <c r="BN93" s="19">
         <v>27337</v>
       </c>
-      <c r="BN93" s="12"/>
-    </row>
-    <row r="94" spans="12:66">
+      <c r="BO93" s="12"/>
+    </row>
+    <row r="94" spans="12:67">
       <c r="L94" s="10">
         <v>91</v>
       </c>
@@ -30732,17 +31085,20 @@
         <v>27</v>
       </c>
       <c r="BK94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL94" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="BL94" s="19">
+      <c r="BM94" s="19">
         <v>27338</v>
       </c>
-      <c r="BM94" s="19">
+      <c r="BN94" s="19">
         <v>29579</v>
       </c>
-      <c r="BN94" s="12"/>
-    </row>
-    <row r="95" spans="12:66">
+      <c r="BO94" s="12"/>
+    </row>
+    <row r="95" spans="12:67">
       <c r="L95" s="10">
         <v>92</v>
       </c>
@@ -30828,17 +31184,20 @@
         <v>27</v>
       </c>
       <c r="BK95" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL95" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="BL95" s="19">
+      <c r="BM95" s="19">
         <v>29580</v>
       </c>
-      <c r="BM95" s="19">
+      <c r="BN95" s="19">
         <v>29857</v>
       </c>
-      <c r="BN95" s="12"/>
-    </row>
-    <row r="96" spans="12:66">
+      <c r="BO95" s="12"/>
+    </row>
+    <row r="96" spans="12:67">
       <c r="L96" s="10">
         <v>93</v>
       </c>
@@ -30923,18 +31282,21 @@
       <c r="BJ96" s="10">
         <v>23</v>
       </c>
-      <c r="BK96" s="35" t="s">
+      <c r="BK96" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL96" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL96" s="19">
+      <c r="BM96" s="19">
         <v>22746</v>
       </c>
-      <c r="BM96" s="19">
+      <c r="BN96" s="19">
         <v>23233</v>
       </c>
-      <c r="BN96" s="12"/>
-    </row>
-    <row r="97" spans="12:66">
+      <c r="BO96" s="12"/>
+    </row>
+    <row r="97" spans="12:67">
       <c r="L97" s="10">
         <v>94</v>
       </c>
@@ -30998,18 +31360,21 @@
       <c r="BJ97" s="10">
         <v>23</v>
       </c>
-      <c r="BK97" s="35" t="s">
+      <c r="BK97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL97" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="BL97" s="19">
+      <c r="BM97" s="19">
         <v>23234</v>
       </c>
-      <c r="BM97" s="19">
+      <c r="BN97" s="19">
         <v>24487</v>
       </c>
-      <c r="BN97" s="12"/>
-    </row>
-    <row r="98" spans="12:66">
+      <c r="BO97" s="12"/>
+    </row>
+    <row r="98" spans="12:67">
       <c r="L98" s="10">
         <v>95</v>
       </c>
@@ -31063,18 +31428,21 @@
       <c r="BJ98" s="10">
         <v>23</v>
       </c>
-      <c r="BK98" s="35" t="s">
+      <c r="BK98" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL98" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="BL98" s="19">
+      <c r="BM98" s="19">
         <v>24488</v>
       </c>
-      <c r="BM98" s="19">
+      <c r="BN98" s="19">
         <v>26355</v>
       </c>
-      <c r="BN98" s="12"/>
-    </row>
-    <row r="99" spans="12:66">
+      <c r="BO98" s="12"/>
+    </row>
+    <row r="99" spans="12:67">
       <c r="L99" s="10">
         <v>96</v>
       </c>
@@ -31128,18 +31496,21 @@
       <c r="BJ99" s="10">
         <v>23</v>
       </c>
-      <c r="BK99" s="35" t="s">
+      <c r="BK99" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL99" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="BL99" s="19">
+      <c r="BM99" s="19">
         <v>26356</v>
       </c>
-      <c r="BM99" s="19">
+      <c r="BN99" s="19">
         <v>27325</v>
       </c>
-      <c r="BN99" s="12"/>
-    </row>
-    <row r="100" spans="12:66">
+      <c r="BO99" s="12"/>
+    </row>
+    <row r="100" spans="12:67">
       <c r="L100" s="10">
         <v>97</v>
       </c>
@@ -31193,18 +31564,21 @@
       <c r="BJ100" s="10">
         <v>23</v>
       </c>
-      <c r="BK100" s="11" t="s">
+      <c r="BK100" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL100" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="BL100" s="19">
+      <c r="BM100" s="19">
         <v>27326</v>
       </c>
-      <c r="BM100" s="19">
+      <c r="BN100" s="19">
         <v>28958</v>
       </c>
-      <c r="BN100" s="12"/>
-    </row>
-    <row r="101" spans="12:66">
+      <c r="BO100" s="12"/>
+    </row>
+    <row r="101" spans="12:67">
       <c r="L101" s="10">
         <v>98</v>
       </c>
@@ -31258,18 +31632,21 @@
       <c r="BJ101" s="10">
         <v>23</v>
       </c>
-      <c r="BK101" s="11" t="s">
+      <c r="BK101" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL101" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="BL101" s="19">
+      <c r="BM101" s="19">
         <v>28989</v>
       </c>
-      <c r="BM101" s="19">
+      <c r="BN101" s="19">
         <v>29746</v>
       </c>
-      <c r="BN101" s="12"/>
-    </row>
-    <row r="102" spans="12:66">
+      <c r="BO101" s="12"/>
+    </row>
+    <row r="102" spans="12:67">
       <c r="L102" s="10">
         <v>99</v>
       </c>
@@ -31323,18 +31700,21 @@
       <c r="BJ102" s="10">
         <v>24</v>
       </c>
-      <c r="BK102" s="11" t="s">
+      <c r="BK102" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL102" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="BL102" s="19">
+      <c r="BM102" s="19">
         <v>22746</v>
       </c>
-      <c r="BM102" s="19">
+      <c r="BN102" s="19">
         <v>23233</v>
       </c>
-      <c r="BN102" s="12"/>
-    </row>
-    <row r="103" spans="12:66">
+      <c r="BO102" s="12"/>
+    </row>
+    <row r="103" spans="12:67">
       <c r="L103" s="10">
         <v>100</v>
       </c>
@@ -31388,18 +31768,21 @@
       <c r="BJ103" s="10">
         <v>24</v>
       </c>
-      <c r="BK103" s="11" t="s">
+      <c r="BK103" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL103" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="BL103" s="19">
+      <c r="BM103" s="19">
         <v>23234</v>
       </c>
-      <c r="BM103" s="19">
+      <c r="BN103" s="19">
         <v>24487</v>
       </c>
-      <c r="BN103" s="12"/>
-    </row>
-    <row r="104" spans="12:66">
+      <c r="BO103" s="12"/>
+    </row>
+    <row r="104" spans="12:67">
       <c r="L104" s="10">
         <v>101</v>
       </c>
@@ -31452,18 +31835,21 @@
       <c r="BJ104" s="10">
         <v>24</v>
       </c>
-      <c r="BK104" s="11" t="s">
+      <c r="BK104" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL104" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="BL104" s="19">
+      <c r="BM104" s="19">
         <v>24488</v>
       </c>
-      <c r="BM104" s="19">
+      <c r="BN104" s="19">
         <v>26355</v>
       </c>
-      <c r="BN104" s="12"/>
-    </row>
-    <row r="105" spans="12:66">
+      <c r="BO104" s="12"/>
+    </row>
+    <row r="105" spans="12:67">
       <c r="L105" s="10">
         <v>102</v>
       </c>
@@ -31516,18 +31902,21 @@
       <c r="BJ105" s="10">
         <v>24</v>
       </c>
-      <c r="BK105" s="11" t="s">
+      <c r="BK105" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL105" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="BL105" s="19">
+      <c r="BM105" s="19">
         <v>26356</v>
       </c>
-      <c r="BM105" s="19">
+      <c r="BN105" s="19">
         <v>27325</v>
       </c>
-      <c r="BN105" s="12"/>
-    </row>
-    <row r="106" spans="12:66">
+      <c r="BO105" s="12"/>
+    </row>
+    <row r="106" spans="12:67">
       <c r="L106" s="10">
         <v>103</v>
       </c>
@@ -31580,18 +31969,21 @@
       <c r="BJ106" s="10">
         <v>24</v>
       </c>
-      <c r="BK106" s="11" t="s">
+      <c r="BK106" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="BL106" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="BL106" s="19">
+      <c r="BM106" s="19">
         <v>27326</v>
       </c>
-      <c r="BM106" s="19">
+      <c r="BN106" s="19">
         <v>28958</v>
       </c>
-      <c r="BN106" s="12"/>
-    </row>
-    <row r="107" spans="12:66">
+      <c r="BO106" s="12"/>
+    </row>
+    <row r="107" spans="12:67">
       <c r="L107" s="10">
         <v>104</v>
       </c>
@@ -31644,18 +32036,21 @@
       <c r="BJ107" s="10">
         <v>24</v>
       </c>
-      <c r="BK107" s="11" t="s">
+      <c r="BK107" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL107" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="BL107" s="19">
+      <c r="BM107" s="19">
         <v>28989</v>
       </c>
-      <c r="BM107" s="19">
+      <c r="BN107" s="19">
         <v>29746</v>
       </c>
-      <c r="BN107" s="12"/>
-    </row>
-    <row r="108" spans="12:66">
+      <c r="BO107" s="12"/>
+    </row>
+    <row r="108" spans="12:67">
       <c r="L108" s="10">
         <v>105</v>
       </c>
@@ -31708,18 +32103,21 @@
       <c r="BJ108" s="10">
         <v>20</v>
       </c>
-      <c r="BK108" s="11" t="s">
+      <c r="BK108" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL108" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="BL108" s="19">
+      <c r="BM108" s="19">
         <v>22857</v>
       </c>
-      <c r="BM108" s="19">
+      <c r="BN108" s="19">
         <v>23606</v>
       </c>
-      <c r="BN108" s="12"/>
-    </row>
-    <row r="109" spans="12:66">
+      <c r="BO108" s="12"/>
+    </row>
+    <row r="109" spans="12:67">
       <c r="L109" s="10">
         <v>106</v>
       </c>
@@ -31773,17 +32171,20 @@
         <v>20</v>
       </c>
       <c r="BK109" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL109" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="BL109" s="19">
+      <c r="BM109" s="19">
         <v>23607</v>
       </c>
-      <c r="BM109" s="19">
+      <c r="BN109" s="19">
         <v>24534</v>
       </c>
-      <c r="BN109" s="12"/>
-    </row>
-    <row r="110" spans="12:66">
+      <c r="BO109" s="12"/>
+    </row>
+    <row r="110" spans="12:67">
       <c r="L110" s="10">
         <v>107</v>
       </c>
@@ -31837,17 +32238,20 @@
         <v>20</v>
       </c>
       <c r="BK110" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL110" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="BL110" s="19">
+      <c r="BM110" s="19">
         <v>24535</v>
       </c>
-      <c r="BM110" s="19">
+      <c r="BN110" s="19">
         <v>27337</v>
       </c>
-      <c r="BN110" s="12"/>
-    </row>
-    <row r="111" spans="12:66">
+      <c r="BO110" s="12"/>
+    </row>
+    <row r="111" spans="12:67">
       <c r="L111" s="10">
         <v>108</v>
       </c>
@@ -31901,17 +32305,20 @@
         <v>20</v>
       </c>
       <c r="BK111" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL111" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="BL111" s="19">
+      <c r="BM111" s="19">
         <v>27338</v>
       </c>
-      <c r="BM111" s="19">
+      <c r="BN111" s="19">
         <v>29579</v>
       </c>
-      <c r="BN111" s="12"/>
-    </row>
-    <row r="112" spans="12:66">
+      <c r="BO111" s="12"/>
+    </row>
+    <row r="112" spans="12:67">
       <c r="L112" s="10">
         <v>109</v>
       </c>
@@ -31961,17 +32368,20 @@
         <v>20</v>
       </c>
       <c r="BK112" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL112" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="BL112" s="19">
+      <c r="BM112" s="19">
         <v>29580</v>
       </c>
-      <c r="BM112" s="19">
+      <c r="BN112" s="19">
         <v>29857</v>
       </c>
-      <c r="BN112" s="12"/>
-    </row>
-    <row r="113" spans="12:66">
+      <c r="BO112" s="12"/>
+    </row>
+    <row r="113" spans="12:67">
       <c r="L113" s="10">
         <v>110</v>
       </c>
@@ -32021,17 +32431,20 @@
         <v>17</v>
       </c>
       <c r="BK113" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL113" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="BL113" s="19">
+      <c r="BM113" s="19">
         <v>30250</v>
       </c>
-      <c r="BM113" s="19">
+      <c r="BN113" s="19">
         <v>32465</v>
       </c>
-      <c r="BN113" s="12"/>
-    </row>
-    <row r="114" spans="12:66">
+      <c r="BO113" s="12"/>
+    </row>
+    <row r="114" spans="12:67">
       <c r="L114" s="10">
         <v>111</v>
       </c>
@@ -32080,18 +32493,21 @@
       <c r="BJ114" s="30">
         <v>17</v>
       </c>
-      <c r="BK114" s="35" t="s">
+      <c r="BK114" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL114" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="BL114" s="19">
+      <c r="BM114" s="19">
         <v>32466</v>
       </c>
-      <c r="BM114" s="19">
+      <c r="BN114" s="19">
         <v>33620</v>
       </c>
-      <c r="BN114" s="12"/>
-    </row>
-    <row r="115" spans="12:66">
+      <c r="BO114" s="12"/>
+    </row>
+    <row r="115" spans="12:67">
       <c r="L115" s="10">
         <v>112</v>
       </c>
@@ -32140,18 +32556,21 @@
       <c r="BJ115" s="30">
         <v>17</v>
       </c>
-      <c r="BK115" s="35" t="s">
+      <c r="BK115" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL115" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="BL115" s="19">
+      <c r="BM115" s="19">
         <v>33621</v>
       </c>
-      <c r="BM115" s="19">
+      <c r="BN115" s="19">
         <v>36270</v>
       </c>
-      <c r="BN115" s="12"/>
-    </row>
-    <row r="116" spans="12:66">
+      <c r="BO115" s="12"/>
+    </row>
+    <row r="116" spans="12:67">
       <c r="L116" s="10">
         <v>113</v>
       </c>
@@ -32200,18 +32619,21 @@
       <c r="BJ116" s="30">
         <v>17</v>
       </c>
-      <c r="BK116" s="35" t="s">
+      <c r="BK116" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL116" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="BL116" s="19">
+      <c r="BM116" s="19">
         <v>36271</v>
       </c>
-      <c r="BM116" s="19">
+      <c r="BN116" s="19">
         <v>36749</v>
       </c>
-      <c r="BN116" s="12"/>
-    </row>
-    <row r="117" spans="12:66">
+      <c r="BO116" s="12"/>
+    </row>
+    <row r="117" spans="12:67">
       <c r="L117" s="10">
         <v>114</v>
       </c>
@@ -32260,18 +32682,21 @@
       <c r="BJ117" s="30">
         <v>17</v>
       </c>
-      <c r="BK117" s="11" t="s">
+      <c r="BK117" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL117" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="BL117" s="19">
+      <c r="BM117" s="19">
         <v>36750</v>
       </c>
-      <c r="BM117" s="19">
+      <c r="BN117" s="19">
         <v>37250</v>
       </c>
-      <c r="BN117" s="12"/>
-    </row>
-    <row r="118" spans="12:66">
+      <c r="BO117" s="12"/>
+    </row>
+    <row r="118" spans="12:67">
       <c r="L118" s="10">
         <v>115</v>
       </c>
@@ -32320,18 +32745,21 @@
       <c r="BJ118" s="30">
         <v>16</v>
       </c>
-      <c r="BK118" s="11" t="s">
+      <c r="BK118" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="BL118" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="BL118" s="19">
+      <c r="BM118" s="19">
         <v>24077</v>
       </c>
-      <c r="BM118" s="19">
+      <c r="BN118" s="19">
         <v>26722</v>
       </c>
-      <c r="BN118" s="12"/>
-    </row>
-    <row r="119" spans="12:66">
+      <c r="BO118" s="12"/>
+    </row>
+    <row r="119" spans="12:67">
       <c r="L119" s="10">
         <v>116</v>
       </c>
@@ -32380,18 +32808,21 @@
       <c r="BJ119" s="30">
         <v>16</v>
       </c>
-      <c r="BK119" s="35" t="s">
+      <c r="BK119" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL119" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="BL119" s="19">
+      <c r="BM119" s="19">
         <v>26723</v>
       </c>
-      <c r="BM119" s="19">
+      <c r="BN119" s="19">
         <v>27894</v>
       </c>
-      <c r="BN119" s="12"/>
-    </row>
-    <row r="120" spans="12:66">
+      <c r="BO119" s="12"/>
+    </row>
+    <row r="120" spans="12:67">
       <c r="L120" s="10">
         <v>117</v>
       </c>
@@ -32440,18 +32871,21 @@
       <c r="BJ120" s="30">
         <v>16</v>
       </c>
-      <c r="BK120" s="35" t="s">
+      <c r="BK120" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL120" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="BL120" s="19">
+      <c r="BM120" s="19">
         <v>27895</v>
       </c>
-      <c r="BM120" s="19">
+      <c r="BN120" s="19">
         <v>28626</v>
       </c>
-      <c r="BN120" s="12"/>
-    </row>
-    <row r="121" spans="12:66">
+      <c r="BO120" s="12"/>
+    </row>
+    <row r="121" spans="12:67">
       <c r="L121" s="10">
         <v>118</v>
       </c>
@@ -32500,18 +32934,21 @@
       <c r="BJ121" s="30">
         <v>16</v>
       </c>
-      <c r="BK121" s="35" t="s">
+      <c r="BK121" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL121" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="BL121" s="19">
+      <c r="BM121" s="19">
         <v>28597</v>
       </c>
-      <c r="BM121" s="19">
+      <c r="BN121" s="19">
         <v>29978</v>
       </c>
-      <c r="BN121" s="12"/>
-    </row>
-    <row r="122" spans="12:66">
+      <c r="BO121" s="12"/>
+    </row>
+    <row r="122" spans="12:67">
       <c r="L122" s="10">
         <v>119</v>
       </c>
@@ -32561,17 +32998,20 @@
         <v>16</v>
       </c>
       <c r="BK122" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL122" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="BL122" s="19">
+      <c r="BM122" s="19">
         <v>30010</v>
       </c>
-      <c r="BM122" s="19">
+      <c r="BN122" s="19">
         <v>31077</v>
       </c>
-      <c r="BN122" s="12"/>
-    </row>
-    <row r="123" spans="12:66">
+      <c r="BO122" s="12"/>
+    </row>
+    <row r="123" spans="12:67">
       <c r="L123" s="10">
         <v>120</v>
       </c>
@@ -32620,18 +33060,21 @@
       <c r="BJ123" s="30">
         <v>18</v>
       </c>
-      <c r="BK123" s="35" t="s">
+      <c r="BK123" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL123" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="BL123" s="19">
+      <c r="BM123" s="19">
         <v>23540</v>
       </c>
-      <c r="BM123" s="19">
+      <c r="BN123" s="19">
         <v>24300</v>
       </c>
-      <c r="BN123" s="12"/>
-    </row>
-    <row r="124" spans="12:66">
+      <c r="BO123" s="12"/>
+    </row>
+    <row r="124" spans="12:67">
       <c r="L124" s="10">
         <v>121</v>
       </c>
@@ -32681,17 +33124,20 @@
         <v>18</v>
       </c>
       <c r="BK124" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL124" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="BL124" s="19">
+      <c r="BM124" s="19">
         <v>24301</v>
       </c>
-      <c r="BM124" s="19">
+      <c r="BN124" s="19">
         <v>25762</v>
       </c>
-      <c r="BN124" s="12"/>
-    </row>
-    <row r="125" spans="12:66">
+      <c r="BO124" s="12"/>
+    </row>
+    <row r="125" spans="12:67">
       <c r="L125" s="10">
         <v>122</v>
       </c>
@@ -32741,17 +33187,20 @@
         <v>18</v>
       </c>
       <c r="BK125" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL125" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="BL125" s="19">
+      <c r="BM125" s="19">
         <v>25763</v>
       </c>
-      <c r="BM125" s="19">
+      <c r="BN125" s="19">
         <v>27589</v>
       </c>
-      <c r="BN125" s="12"/>
-    </row>
-    <row r="126" spans="12:66">
+      <c r="BO125" s="12"/>
+    </row>
+    <row r="126" spans="12:67">
       <c r="L126" s="10">
         <v>123</v>
       </c>
@@ -32801,17 +33250,20 @@
         <v>18</v>
       </c>
       <c r="BK126" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL126" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="BL126" s="19">
+      <c r="BM126" s="19">
         <v>27590</v>
       </c>
-      <c r="BM126" s="19">
+      <c r="BN126" s="19">
         <v>29079</v>
       </c>
-      <c r="BN126" s="12"/>
-    </row>
-    <row r="127" spans="12:66">
+      <c r="BO126" s="12"/>
+    </row>
+    <row r="127" spans="12:67">
       <c r="L127" s="10">
         <v>124</v>
       </c>
@@ -32860,18 +33312,21 @@
       <c r="BJ127" s="30">
         <v>18</v>
       </c>
-      <c r="BK127" s="11" t="s">
+      <c r="BK127" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL127" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="BL127" s="19">
+      <c r="BM127" s="19">
         <v>29080</v>
       </c>
-      <c r="BM127" s="19">
+      <c r="BN127" s="19">
         <v>30540</v>
       </c>
-      <c r="BN127" s="12"/>
-    </row>
-    <row r="128" spans="12:66">
+      <c r="BO127" s="12"/>
+    </row>
+    <row r="128" spans="12:67">
       <c r="L128" s="10">
         <v>125</v>
       </c>
@@ -32920,18 +33375,21 @@
       <c r="BJ128" s="30">
         <v>25</v>
       </c>
-      <c r="BK128" s="11" t="s">
+      <c r="BK128" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL128" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="BL128" s="19">
+      <c r="BM128" s="19">
         <v>30615</v>
       </c>
-      <c r="BM128" s="19">
+      <c r="BN128" s="19">
         <v>32208</v>
       </c>
-      <c r="BN128" s="12"/>
-    </row>
-    <row r="129" spans="12:66">
+      <c r="BO128" s="12"/>
+    </row>
+    <row r="129" spans="12:67">
       <c r="L129" s="10">
         <v>126</v>
       </c>
@@ -32980,18 +33438,21 @@
       <c r="BJ129" s="30">
         <v>25</v>
       </c>
-      <c r="BK129" s="11" t="s">
+      <c r="BK129" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL129" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="BL129" s="19">
+      <c r="BM129" s="19">
         <v>32209</v>
       </c>
-      <c r="BM129" s="19">
+      <c r="BN129" s="19">
         <v>33123</v>
       </c>
-      <c r="BN129" s="12"/>
-    </row>
-    <row r="130" spans="12:66">
+      <c r="BO129" s="12"/>
+    </row>
+    <row r="130" spans="12:67">
       <c r="L130" s="10">
         <v>127</v>
       </c>
@@ -33040,18 +33501,21 @@
       <c r="BJ130" s="30">
         <v>25</v>
       </c>
-      <c r="BK130" s="35" t="s">
+      <c r="BK130" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL130" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="BL130" s="19">
+      <c r="BM130" s="19">
         <v>33124</v>
       </c>
-      <c r="BM130" s="19">
+      <c r="BN130" s="19">
         <v>33393</v>
       </c>
-      <c r="BN130" s="12"/>
-    </row>
-    <row r="131" spans="12:66">
+      <c r="BO130" s="12"/>
+    </row>
+    <row r="131" spans="12:67">
       <c r="L131" s="10">
         <v>128</v>
       </c>
@@ -33100,18 +33564,21 @@
       <c r="BJ131" s="30">
         <v>25</v>
       </c>
-      <c r="BK131" s="11" t="s">
+      <c r="BK131" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL131" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="BL131" s="19">
+      <c r="BM131" s="19">
         <v>33394</v>
       </c>
-      <c r="BM131" s="19">
+      <c r="BN131" s="19">
         <v>36682</v>
       </c>
-      <c r="BN131" s="12"/>
-    </row>
-    <row r="132" spans="12:66">
+      <c r="BO131" s="12"/>
+    </row>
+    <row r="132" spans="12:67">
       <c r="L132" s="10">
         <v>129</v>
       </c>
@@ -33161,17 +33628,20 @@
         <v>25</v>
       </c>
       <c r="BK132" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL132" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="BL132" s="19">
+      <c r="BM132" s="19">
         <v>36683</v>
       </c>
-      <c r="BM132" s="19">
+      <c r="BN132" s="19">
         <v>37476</v>
       </c>
-      <c r="BN132" s="12"/>
-    </row>
-    <row r="133" spans="12:66">
+      <c r="BO132" s="12"/>
+    </row>
+    <row r="133" spans="12:67">
       <c r="L133" s="10">
         <v>130</v>
       </c>
@@ -33221,17 +33691,20 @@
         <v>25</v>
       </c>
       <c r="BK133" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL133" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="BL133" s="19">
+      <c r="BM133" s="19">
         <v>37477</v>
       </c>
-      <c r="BM133" s="19">
+      <c r="BN133" s="19">
         <v>37980</v>
       </c>
-      <c r="BN133" s="12"/>
-    </row>
-    <row r="134" spans="12:66">
+      <c r="BO133" s="12"/>
+    </row>
+    <row r="134" spans="12:67">
       <c r="L134" s="10">
         <v>131</v>
       </c>
@@ -33281,17 +33754,20 @@
         <v>21</v>
       </c>
       <c r="BK134" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL134" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="BL134" s="19">
+      <c r="BM134" s="19">
         <v>31016</v>
       </c>
-      <c r="BM134" s="19">
+      <c r="BN134" s="19">
         <v>33112</v>
       </c>
-      <c r="BN134" s="12"/>
-    </row>
-    <row r="135" spans="12:66">
+      <c r="BO134" s="12"/>
+    </row>
+    <row r="135" spans="12:67">
       <c r="L135" s="10">
         <v>132</v>
       </c>
@@ -33341,17 +33817,20 @@
         <v>21</v>
       </c>
       <c r="BK135" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL135" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="BL135" s="19">
+      <c r="BM135" s="19">
         <v>33113</v>
       </c>
-      <c r="BM135" s="19">
+      <c r="BN135" s="19">
         <v>34409</v>
       </c>
-      <c r="BN135" s="12"/>
-    </row>
-    <row r="136" spans="12:66">
+      <c r="BO135" s="12"/>
+    </row>
+    <row r="136" spans="12:67">
       <c r="L136" s="10">
         <v>133</v>
       </c>
@@ -33401,17 +33880,20 @@
         <v>21</v>
       </c>
       <c r="BK136" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL136" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="BL136" s="19">
+      <c r="BM136" s="19">
         <v>34410</v>
       </c>
-      <c r="BM136" s="19">
+      <c r="BN136" s="19">
         <v>36967</v>
       </c>
-      <c r="BN136" s="12"/>
-    </row>
-    <row r="137" spans="12:66">
+      <c r="BO136" s="12"/>
+    </row>
+    <row r="137" spans="12:67">
       <c r="L137" s="10">
         <v>134</v>
       </c>
@@ -33460,18 +33942,21 @@
       <c r="BJ137" s="30">
         <v>21</v>
       </c>
-      <c r="BK137" s="35" t="s">
+      <c r="BK137" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL137" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="BL137" s="19">
+      <c r="BM137" s="19">
         <v>36968</v>
       </c>
-      <c r="BM137" s="19">
+      <c r="BN137" s="19">
         <v>37445</v>
       </c>
-      <c r="BN137" s="12"/>
-    </row>
-    <row r="138" spans="12:66">
+      <c r="BO137" s="12"/>
+    </row>
+    <row r="138" spans="12:67">
       <c r="L138" s="10">
         <v>135</v>
       </c>
@@ -33520,18 +34005,21 @@
       <c r="BJ138" s="30">
         <v>21</v>
       </c>
-      <c r="BK138" s="35" t="s">
+      <c r="BK138" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL138" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="BL138" s="19">
+      <c r="BM138" s="19">
         <v>37446</v>
       </c>
-      <c r="BM138" s="19">
+      <c r="BN138" s="19">
         <v>38016</v>
       </c>
-      <c r="BN138" s="12"/>
-    </row>
-    <row r="139" spans="12:66">
+      <c r="BO138" s="12"/>
+    </row>
+    <row r="139" spans="12:67">
       <c r="L139" s="10">
         <v>136</v>
       </c>
@@ -33580,18 +34068,21 @@
       <c r="BJ139" s="30">
         <v>27</v>
       </c>
-      <c r="BK139" s="35" t="s">
+      <c r="BK139" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL139" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="BL139" s="19">
+      <c r="BM139" s="19">
         <v>33124</v>
       </c>
-      <c r="BM139" s="19">
+      <c r="BN139" s="19">
         <v>33393</v>
       </c>
-      <c r="BN139" s="12"/>
-    </row>
-    <row r="140" spans="12:66">
+      <c r="BO139" s="12"/>
+    </row>
+    <row r="140" spans="12:67">
       <c r="L140" s="10">
         <v>137</v>
       </c>
@@ -33640,18 +34131,21 @@
       <c r="BJ140" s="30">
         <v>27</v>
       </c>
-      <c r="BK140" s="11" t="s">
+      <c r="BK140" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL140" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="BL140" s="19">
+      <c r="BM140" s="19">
         <v>33394</v>
       </c>
-      <c r="BM140" s="19">
+      <c r="BN140" s="19">
         <v>36682</v>
       </c>
-      <c r="BN140" s="12"/>
-    </row>
-    <row r="141" spans="12:66">
+      <c r="BO140" s="12"/>
+    </row>
+    <row r="141" spans="12:67">
       <c r="L141" s="10">
         <v>138</v>
       </c>
@@ -33700,18 +34194,21 @@
       <c r="BJ141" s="30">
         <v>27</v>
       </c>
-      <c r="BK141" s="35" t="s">
+      <c r="BK141" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL141" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="BL141" s="19">
+      <c r="BM141" s="19">
         <v>36683</v>
       </c>
-      <c r="BM141" s="19">
+      <c r="BN141" s="19">
         <v>37476</v>
       </c>
-      <c r="BN141" s="12"/>
-    </row>
-    <row r="142" spans="12:66">
+      <c r="BO141" s="12"/>
+    </row>
+    <row r="142" spans="12:67">
       <c r="L142" s="10">
         <v>139</v>
       </c>
@@ -33760,18 +34257,21 @@
       <c r="BJ142" s="30">
         <v>27</v>
       </c>
-      <c r="BK142" s="11" t="s">
+      <c r="BK142" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL142" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="BL142" s="19">
+      <c r="BM142" s="19">
         <v>37477</v>
       </c>
-      <c r="BM142" s="19">
+      <c r="BN142" s="19">
         <v>37980</v>
       </c>
-      <c r="BN142" s="12"/>
-    </row>
-    <row r="143" spans="12:66">
+      <c r="BO142" s="12"/>
+    </row>
+    <row r="143" spans="12:67">
       <c r="L143" s="10">
         <v>140</v>
       </c>
@@ -33809,18 +34309,21 @@
       <c r="BJ143" s="10">
         <v>26</v>
       </c>
-      <c r="BK143" s="11" t="s">
+      <c r="BK143" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL143" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="BL143" s="19">
+      <c r="BM143" s="19">
         <v>22857</v>
       </c>
-      <c r="BM143" s="19">
+      <c r="BN143" s="19">
         <v>23606</v>
       </c>
-      <c r="BN143" s="12"/>
-    </row>
-    <row r="144" spans="12:66">
+      <c r="BO143" s="12"/>
+    </row>
+    <row r="144" spans="12:67">
       <c r="R144" s="20"/>
       <c r="S144" s="22"/>
       <c r="T144" s="22"/>
@@ -33833,18 +34336,21 @@
       <c r="BJ144" s="10">
         <v>26</v>
       </c>
-      <c r="BK144" s="11" t="s">
+      <c r="BK144" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL144" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="BL144" s="19">
+      <c r="BM144" s="19">
         <v>23607</v>
       </c>
-      <c r="BM144" s="19">
+      <c r="BN144" s="19">
         <v>24534</v>
       </c>
-      <c r="BN144" s="12"/>
-    </row>
-    <row r="145" spans="18:66">
+      <c r="BO144" s="12"/>
+    </row>
+    <row r="145" spans="18:67">
       <c r="R145" s="20"/>
       <c r="S145" s="22"/>
       <c r="T145" s="22"/>
@@ -33857,18 +34363,21 @@
       <c r="BJ145" s="10">
         <v>26</v>
       </c>
-      <c r="BK145" s="11" t="s">
+      <c r="BK145" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BL145" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="BL145" s="19">
+      <c r="BM145" s="19">
         <v>24535</v>
       </c>
-      <c r="BM145" s="19">
+      <c r="BN145" s="19">
         <v>27337</v>
       </c>
-      <c r="BN145" s="12"/>
-    </row>
-    <row r="146" spans="18:66">
+      <c r="BO145" s="12"/>
+    </row>
+    <row r="146" spans="18:67">
       <c r="R146" s="20"/>
       <c r="S146" s="22"/>
       <c r="T146" s="22"/>
@@ -33881,18 +34390,21 @@
       <c r="BJ146" s="10">
         <v>26</v>
       </c>
-      <c r="BK146" s="35" t="s">
+      <c r="BK146" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL146" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="BL146" s="19">
+      <c r="BM146" s="19">
         <v>27338</v>
       </c>
-      <c r="BM146" s="19">
+      <c r="BN146" s="19">
         <v>29579</v>
       </c>
-      <c r="BN146" s="12"/>
-    </row>
-    <row r="147" spans="18:66">
+      <c r="BO146" s="12"/>
+    </row>
+    <row r="147" spans="18:67">
       <c r="R147" s="20"/>
       <c r="S147" s="22"/>
       <c r="T147" s="22"/>
@@ -33905,27 +34417,30 @@
       <c r="BJ147" s="10">
         <v>26</v>
       </c>
-      <c r="BK147" s="35" t="s">
+      <c r="BK147" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL147" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="BL147" s="19">
+      <c r="BM147" s="19">
         <v>29580</v>
       </c>
-      <c r="BM147" s="19">
+      <c r="BN147" s="19">
         <v>29857</v>
       </c>
-      <c r="BN147" s="12"/>
-    </row>
-    <row r="148" spans="18:66">
+      <c r="BO147" s="12"/>
+    </row>
+    <row r="148" spans="18:67">
       <c r="R148" s="20"/>
       <c r="S148" s="22"/>
       <c r="T148" s="22"/>
       <c r="U148" s="22"/>
       <c r="V148" s="22"/>
       <c r="BF148" s="56"/>
-      <c r="BK148" s="44"/>
-    </row>
-    <row r="149" spans="18:66">
+      <c r="BL148" s="44"/>
+    </row>
+    <row r="149" spans="18:67">
       <c r="R149" s="20"/>
       <c r="S149" s="22"/>
       <c r="T149" s="22"/>
@@ -33933,77 +34448,77 @@
       <c r="V149" s="22"/>
       <c r="BF149" s="56"/>
     </row>
-    <row r="150" spans="18:66">
+    <row r="150" spans="18:67">
       <c r="R150" s="20"/>
       <c r="S150" s="22"/>
       <c r="T150" s="22"/>
       <c r="U150" s="22"/>
       <c r="V150" s="22"/>
     </row>
-    <row r="151" spans="18:66">
+    <row r="151" spans="18:67">
       <c r="R151" s="20"/>
       <c r="S151" s="22"/>
       <c r="T151" s="22"/>
       <c r="U151" s="22"/>
       <c r="V151" s="22"/>
     </row>
-    <row r="152" spans="18:66">
+    <row r="152" spans="18:67">
       <c r="R152" s="20"/>
       <c r="S152" s="22"/>
       <c r="T152" s="22"/>
       <c r="U152" s="22"/>
       <c r="V152" s="22"/>
     </row>
-    <row r="153" spans="18:66">
+    <row r="153" spans="18:67">
       <c r="R153" s="20"/>
       <c r="S153" s="22"/>
       <c r="T153" s="22"/>
       <c r="U153" s="22"/>
       <c r="V153" s="22"/>
     </row>
-    <row r="154" spans="18:66">
+    <row r="154" spans="18:67">
       <c r="R154" s="20"/>
       <c r="S154" s="22"/>
       <c r="T154" s="22"/>
       <c r="U154" s="22"/>
       <c r="V154" s="22"/>
     </row>
-    <row r="155" spans="18:66">
+    <row r="155" spans="18:67">
       <c r="R155" s="20"/>
       <c r="S155" s="22"/>
       <c r="T155" s="22"/>
       <c r="U155" s="22"/>
       <c r="V155" s="22"/>
     </row>
-    <row r="156" spans="18:66">
+    <row r="156" spans="18:67">
       <c r="R156" s="20"/>
       <c r="S156" s="22"/>
       <c r="T156" s="22"/>
       <c r="U156" s="22"/>
       <c r="V156" s="22"/>
     </row>
-    <row r="157" spans="18:66">
+    <row r="157" spans="18:67">
       <c r="R157" s="20"/>
       <c r="S157" s="22"/>
       <c r="T157" s="22"/>
       <c r="U157" s="22"/>
       <c r="V157" s="22"/>
     </row>
-    <row r="158" spans="18:66">
+    <row r="158" spans="18:67">
       <c r="R158" s="20"/>
       <c r="S158" s="22"/>
       <c r="T158" s="22"/>
       <c r="U158" s="22"/>
       <c r="V158" s="22"/>
     </row>
-    <row r="159" spans="18:66">
+    <row r="159" spans="18:67">
       <c r="R159" s="20"/>
       <c r="S159" s="22"/>
       <c r="T159" s="22"/>
       <c r="U159" s="22"/>
       <c r="V159" s="22"/>
     </row>
-    <row r="160" spans="18:66">
+    <row r="160" spans="18:67">
       <c r="R160" s="20"/>
       <c r="S160" s="22"/>
       <c r="T160" s="22"/>
@@ -34246,7 +34761,7 @@
     <mergeCell ref="AH2:AM2"/>
     <mergeCell ref="AO2:AX2"/>
     <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BI2:BN2"/>
+    <mergeCell ref="BI2:BO2"/>
     <mergeCell ref="BD2:BG2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="A2:E2"/>
@@ -34274,10 +34789,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
@@ -34331,8 +34846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34362,35 +34877,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="21">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="F2" s="60" t="s">
         <v>567</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="J2" s="57" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="J2" s="60" t="s">
         <v>569</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="N2" s="58" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="N2" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="R2" s="57" t="s">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="R2" s="60" t="s">
         <v>592</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="U2" s="57" t="s">
+      <c r="S2" s="60"/>
+      <c r="U2" s="60" t="s">
         <v>593</v>
       </c>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1"/>
@@ -34502,7 +35017,7 @@
       <c r="B5" s="55">
         <v>2</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="58" t="s">
         <v>550</v>
       </c>
       <c r="D5" s="12">
@@ -34676,7 +35191,7 @@
       <c r="S8" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="U8" s="62"/>
+      <c r="U8" s="57"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
     </row>
@@ -34690,9 +35205,9 @@
       <c r="D9" s="12">
         <v>115</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="64"/>
+      <c r="H9" s="59"/>
       <c r="N9" s="7">
         <v>6</v>
       </c>
@@ -34713,9 +35228,9 @@
       <c r="D10" s="12">
         <v>135</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="64"/>
+      <c r="H10" s="59"/>
       <c r="N10" s="7">
         <v>7</v>
       </c>
@@ -34736,9 +35251,9 @@
       <c r="D11" s="12">
         <v>55</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="64"/>
+      <c r="H11" s="59"/>
       <c r="N11" s="7">
         <v>8</v>
       </c>
@@ -34759,9 +35274,9 @@
       <c r="D12" s="12">
         <v>45</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="64"/>
+      <c r="H12" s="59"/>
       <c r="N12" s="7">
         <v>9</v>
       </c>
@@ -34782,9 +35297,9 @@
       <c r="D13" s="12">
         <v>75</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="64"/>
+      <c r="H13" s="59"/>
       <c r="N13" s="7">
         <v>10</v>
       </c>
@@ -34805,9 +35320,9 @@
       <c r="D14" s="12">
         <v>100</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="64"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:23">
       <c r="B15" s="55">
@@ -34819,9 +35334,9 @@
       <c r="D15" s="12">
         <v>85</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="64"/>
+      <c r="H15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -34835,4 +35350,251 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="21">
+      <c r="B2" s="60" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="E2" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8"/>
+      <c r="B3" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="55">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="55">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="55">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="55">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="E6" s="55">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8"/>
+      <c r="B7" s="55">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="55">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="55">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="E8" s="55">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="55">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="55">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="55">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="55">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="55">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="55">
+        <v>8</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="55">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="E12" s="55">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8"/>
+      <c r="B13" s="55">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="55">
+        <v>10</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="55">
+        <v>11</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="55">
+        <v>12</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="621">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1880,10 +1880,13 @@
     <t>hBase</t>
   </si>
   <si>
-    <t>NewBooks table data - 12</t>
-  </si>
-  <si>
-    <t>OldBooks table data - 10</t>
+    <t>Hive</t>
+  </si>
+  <si>
+    <t>NewBooks table data - 16</t>
+  </si>
+  <si>
+    <t>OldBooks table data - 16</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2037,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2201,6 +2204,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -34758,17 +34764,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AH2:AM2"/>
-    <mergeCell ref="AO2:AX2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BI2:BO2"/>
-    <mergeCell ref="BD2:BG2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AH2:AM2"/>
+    <mergeCell ref="AO2:AX2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BI2:BO2"/>
+    <mergeCell ref="BD2:BG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35357,7 +35363,7 @@
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35370,11 +35376,11 @@
   <sheetData>
     <row r="2" spans="1:6" ht="21">
       <c r="B2" s="60" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C2" s="60"/>
       <c r="E2" s="60" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F2" s="60"/>
     </row>
@@ -35549,6 +35555,12 @@
       </c>
     </row>
     <row r="14" spans="1:6">
+      <c r="B14" s="55">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>597</v>
+      </c>
       <c r="E14" s="55">
         <v>11</v>
       </c>
@@ -35558,6 +35570,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8"/>
+      <c r="B15" s="55">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>600</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="55">
         <v>12</v>
@@ -35566,27 +35584,79 @@
         <v>617</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="16" spans="1:6">
+      <c r="B16" s="55">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="E16" s="55">
+        <v>13</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8"/>
+      <c r="B17" s="55">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>610</v>
+      </c>
       <c r="D17" s="8"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E17" s="55">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="55">
+        <v>15</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="E18" s="55">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3"/>
+      <c r="B19" s="65">
+        <v>16</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>618</v>
+      </c>
       <c r="D19" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E19" s="55">
+        <v>16</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6">
       <c r="A29" s="6"/>
       <c r="D29" s="6"/>
     </row>

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="623">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1887,6 +1887,12 @@
   </si>
   <si>
     <t>OldBooks table data - 16</t>
+  </si>
+  <si>
+    <t>OldBooks</t>
+  </si>
+  <si>
+    <t>NewBooks</t>
   </si>
 </sst>
 </file>
@@ -2190,6 +2196,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2204,9 +2213,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4420,86 +4426,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:62" ht="21">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="23"/>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="60" t="s">
+      <c r="X2" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="62" t="s">
+      <c r="AD2" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="62" t="s">
+      <c r="AI2" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="63" t="s">
+      <c r="AP2" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
       <c r="AZ2" s="39"/>
-      <c r="BA2" s="61" t="s">
+      <c r="BA2" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="61"/>
-      <c r="BE2" s="60" t="s">
+      <c r="BB2" s="62"/>
+      <c r="BC2" s="62"/>
+      <c r="BE2" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1">
       <c r="A3" s="14" t="s">
@@ -18638,92 +18644,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:67" ht="21">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="54"/>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="62" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="39"/>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="63" t="s">
         <v>542</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
       <c r="Q2" s="39"/>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="61" t="s">
         <v>543</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
       <c r="W2" s="39"/>
-      <c r="X2" s="60" t="s">
+      <c r="X2" s="61" t="s">
         <v>544</v>
       </c>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
       <c r="AB2" s="39"/>
-      <c r="AC2" s="62" t="s">
+      <c r="AC2" s="63" t="s">
         <v>545</v>
       </c>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
       <c r="AG2" s="39"/>
-      <c r="AH2" s="62" t="s">
+      <c r="AH2" s="63" t="s">
         <v>546</v>
       </c>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
       <c r="AN2" s="39"/>
-      <c r="AO2" s="63" t="s">
+      <c r="AO2" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
       <c r="AY2" s="39"/>
-      <c r="AZ2" s="61" t="s">
+      <c r="AZ2" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BD2" s="60" t="s">
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="62"/>
+      <c r="BD2" s="61" t="s">
         <v>537</v>
       </c>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BI2" s="60" t="s">
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BI2" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="61"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
     </row>
     <row r="3" spans="1:67" s="1" customFormat="1">
       <c r="A3" s="14" t="s">
@@ -34764,17 +34770,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AH2:AM2"/>
+    <mergeCell ref="AO2:AX2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BI2:BO2"/>
+    <mergeCell ref="BD2:BG2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AH2:AM2"/>
-    <mergeCell ref="AO2:AX2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BI2:BO2"/>
-    <mergeCell ref="BD2:BG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34795,10 +34801,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
@@ -34883,35 +34889,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="21">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="F2" s="60" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="F2" s="61" t="s">
         <v>567</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="J2" s="60" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="J2" s="61" t="s">
         <v>569</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="N2" s="61" t="s">
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="N2" s="62" t="s">
         <v>574</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="R2" s="60" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="R2" s="61" t="s">
         <v>592</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="U2" s="60" t="s">
+      <c r="S2" s="61"/>
+      <c r="U2" s="61" t="s">
         <v>593</v>
       </c>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1"/>
@@ -35360,10 +35366,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35372,19 +35378,31 @@
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="4.140625" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="21">
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="1:12" ht="21">
+      <c r="B2" s="61" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="61"/>
+      <c r="E2" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="F2" s="60"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="61"/>
+      <c r="H2" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="K2" s="61" t="s">
+        <v>622</v>
+      </c>
+      <c r="L2" s="61"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="8"/>
       <c r="B3" s="14" t="s">
         <v>249</v>
@@ -35399,8 +35417,22 @@
       <c r="F3" s="14" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="8"/>
+      <c r="H3" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="8"/>
       <c r="B4" s="55">
         <v>1</v>
@@ -35415,8 +35447,22 @@
       <c r="F4" s="12" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="8"/>
+      <c r="H4" s="55">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="55">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="8"/>
       <c r="B5" s="55">
         <v>2</v>
@@ -35431,8 +35477,22 @@
       <c r="F5" s="12" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="8"/>
+      <c r="H5" s="55">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="55">
+        <v>2</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="55">
         <v>3</v>
       </c>
@@ -35445,8 +35505,20 @@
       <c r="F6" s="12" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" s="55">
+        <v>3</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="K6" s="55">
+        <v>3</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="8"/>
       <c r="B7" s="55">
         <v>4</v>
@@ -35461,8 +35533,22 @@
       <c r="F7" s="12" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="8"/>
+      <c r="H7" s="55">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="55">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="55">
         <v>5</v>
       </c>
@@ -35475,8 +35561,20 @@
       <c r="F8" s="12" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" s="55">
+        <v>5</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="K8" s="55">
+        <v>5</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="8"/>
       <c r="B9" s="55">
         <v>6</v>
@@ -35491,8 +35589,22 @@
       <c r="F9" s="12" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="8"/>
+      <c r="H9" s="55">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="55">
+        <v>6</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="55">
         <v>7</v>
@@ -35507,8 +35619,22 @@
       <c r="F10" s="12" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3"/>
+      <c r="H10" s="55">
+        <v>7</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="55">
+        <v>7</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="8"/>
       <c r="B11" s="55">
         <v>8</v>
@@ -35523,8 +35649,22 @@
       <c r="F11" s="12" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="8"/>
+      <c r="H11" s="55">
+        <v>8</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="55">
+        <v>8</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" s="55">
         <v>9</v>
       </c>
@@ -35537,8 +35677,20 @@
       <c r="F12" s="12" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12" s="55">
+        <v>9</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="K12" s="55">
+        <v>9</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="8"/>
       <c r="B13" s="55">
         <v>10</v>
@@ -35553,8 +35705,22 @@
       <c r="F13" s="12" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="8"/>
+      <c r="H13" s="55">
+        <v>10</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="55">
+        <v>10</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="B14" s="55">
         <v>11</v>
       </c>
@@ -35567,8 +35733,20 @@
       <c r="F14" s="32" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" s="55">
+        <v>11</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="K14" s="55">
+        <v>11</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="8"/>
       <c r="B15" s="55">
         <v>12</v>
@@ -35583,8 +35761,22 @@
       <c r="F15" s="32" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="8"/>
+      <c r="H15" s="55">
+        <v>12</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="55">
+        <v>12</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="55">
         <v>13</v>
       </c>
@@ -35597,8 +35789,20 @@
       <c r="F16" s="12" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="55">
+        <v>13</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="K16" s="55">
+        <v>13</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="8"/>
       <c r="B17" s="55">
         <v>14</v>
@@ -35613,8 +35817,22 @@
       <c r="F17" s="12" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="8"/>
+      <c r="H17" s="55">
+        <v>14</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="55">
+        <v>14</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="B18" s="55">
         <v>15</v>
       </c>
@@ -35627,10 +35845,22 @@
       <c r="F18" s="12" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" s="55">
+        <v>15</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="K18" s="55">
+        <v>15</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3"/>
-      <c r="B19" s="65">
+      <c r="B19" s="60">
         <v>16</v>
       </c>
       <c r="C19" s="32" t="s">
@@ -35643,27 +35873,51 @@
       <c r="F19" s="12" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G19" s="3"/>
+      <c r="H19" s="60">
+        <v>16</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="55">
+        <v>16</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="6"/>
       <c r="D23" s="6"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4"/>
       <c r="D25" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="4"/>
       <c r="D27" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="6"/>
       <c r="D29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="625">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1893,6 +1893,12 @@
   </si>
   <si>
     <t>NewBooks</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +1987,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2037,13 +2043,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2213,6 +2232,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -34770,17 +34799,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AH2:AM2"/>
-    <mergeCell ref="AO2:AX2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BI2:BO2"/>
-    <mergeCell ref="BD2:BG2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AH2:AM2"/>
+    <mergeCell ref="AO2:AX2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BI2:BO2"/>
+    <mergeCell ref="BD2:BG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35366,43 +35395,72 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L29"/>
+  <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B11" sqref="B11:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="4.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21">
+    <row r="2" spans="1:26" ht="21">
       <c r="B2" s="61" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C2" s="61"/>
       <c r="E2" s="61" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F2" s="61"/>
       <c r="H2" s="61" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I2" s="61"/>
       <c r="K2" s="61" t="s">
+        <v>619</v>
+      </c>
+      <c r="L2" s="61"/>
+      <c r="N2" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="O2" s="61"/>
+      <c r="Q2" s="61" t="s">
         <v>622</v>
       </c>
-      <c r="L2" s="61"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="R2" s="61"/>
+      <c r="T2" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="U2" s="61"/>
+      <c r="W2" s="61" t="s">
+        <v>622</v>
+      </c>
+      <c r="X2" s="61"/>
+      <c r="Z2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="8"/>
       <c r="B3" s="14" t="s">
         <v>249</v>
@@ -35411,10 +35469,10 @@
         <v>250</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="69" t="s">
         <v>250</v>
       </c>
       <c r="G3" s="8"/>
@@ -35431,21 +35489,49 @@
       <c r="L3" s="14" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="8"/>
+      <c r="N3" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="X3" s="69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="8"/>
       <c r="B4" s="55">
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="55">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="55">
@@ -35461,21 +35547,49 @@
       <c r="L4" s="12" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="8"/>
+      <c r="N4" s="55">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="55">
+        <v>1</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="55">
+        <v>1</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="55">
+        <v>1</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="8"/>
       <c r="B5" s="55">
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="55">
         <v>2</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="55">
@@ -35491,19 +35605,47 @@
       <c r="L5" s="12" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="8"/>
+      <c r="N5" s="55">
+        <v>2</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="55">
+        <v>2</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="55">
+        <v>2</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="V5" s="8"/>
+      <c r="W5" s="55">
+        <v>2</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="B6" s="55">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="E6" s="55">
         <v>3</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="H6" s="55">
         <v>3</v>
@@ -35517,22 +35659,42 @@
       <c r="L6" s="12" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6" s="55">
+        <v>3</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>3</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="T6" s="55">
+        <v>3</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="W6" s="55">
+        <v>3</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="8"/>
-      <c r="B7" s="55">
+      <c r="B7" s="60">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>599</v>
+      <c r="C7" s="32" t="s">
+        <v>588</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="55">
-        <v>4</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>609</v>
-      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="8"/>
       <c r="H7" s="55">
         <v>4</v>
@@ -35547,20 +35709,40 @@
       <c r="L7" s="12" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="8"/>
+      <c r="N7" s="55">
+        <v>4</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="55">
+        <v>4</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="60">
+        <v>4</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="B8" s="55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="E8" s="55">
-        <v>5</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>610</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="22"/>
       <c r="H8" s="55">
         <v>5</v>
       </c>
@@ -35573,22 +35755,34 @@
       <c r="L8" s="12" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8" s="55">
+        <v>5</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="55">
+        <v>5</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="T8" s="55">
+        <v>4</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="W8" s="57"/>
+      <c r="X8" s="22"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="8"/>
-      <c r="B9" s="55">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="55">
-        <v>6</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>611</v>
-      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="8"/>
       <c r="H9" s="55">
         <v>6</v>
@@ -35603,22 +35797,35 @@
       <c r="L9" s="12" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="8"/>
+      <c r="N9" s="55">
+        <v>6</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="55">
+        <v>6</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="3"/>
-      <c r="B10" s="55">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="55">
-        <v>7</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>612</v>
-      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="3"/>
       <c r="H10" s="55">
         <v>7</v>
@@ -35633,22 +35840,37 @@
       <c r="L10" s="12" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="3"/>
+      <c r="N10" s="55">
+        <v>7</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="55">
+        <v>7</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+    </row>
+    <row r="11" spans="1:26" ht="21">
       <c r="A11" s="8"/>
-      <c r="B11" s="55">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="55">
-        <v>8</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>613</v>
-      </c>
+      <c r="B11" s="61" t="s">
+        <v>624</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="8"/>
       <c r="H11" s="55">
         <v>8</v>
@@ -35663,20 +35885,38 @@
       <c r="L11" s="12" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="55">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="E12" s="55">
-        <v>9</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>614</v>
-      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="55">
+        <v>8</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="55">
+        <v>8</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="B12" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="22"/>
       <c r="H12" s="55">
         <v>9</v>
       </c>
@@ -35689,22 +35929,36 @@
       <c r="L12" s="12" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="N12" s="55">
+        <v>9</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q12" s="55">
+        <v>9</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="T12" s="57"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="8"/>
       <c r="B13" s="55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="55">
-        <v>10</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>615</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="D13" s="66"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="8"/>
       <c r="H13" s="55">
         <v>10</v>
@@ -35719,20 +35973,38 @@
       <c r="L13" s="12" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="8"/>
+      <c r="N13" s="55">
+        <v>10</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="55">
+        <v>10</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="B14" s="55">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="E14" s="55">
-        <v>11</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>616</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="67"/>
       <c r="H14" s="55">
         <v>11</v>
       </c>
@@ -35745,22 +36017,36 @@
       <c r="L14" s="32" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="N14" s="55">
+        <v>11</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q14" s="55">
+        <v>11</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="T14" s="57"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="22"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="8"/>
       <c r="B15" s="55">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="55">
-        <v>12</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>617</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="8"/>
       <c r="H15" s="55">
         <v>12</v>
@@ -35775,20 +36061,38 @@
       <c r="L15" s="32" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="55">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="E16" s="55">
-        <v>13</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>597</v>
-      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="55">
+        <v>12</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="55">
+        <v>12</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="22"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="B16" s="60">
+        <v>4</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="22"/>
       <c r="H16" s="55">
         <v>13</v>
       </c>
@@ -35801,22 +36105,36 @@
       <c r="L16" s="12" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="N16" s="55">
+        <v>13</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q16" s="55">
+        <v>13</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="T16" s="57"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="8"/>
       <c r="B17" s="55">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="55">
-        <v>14</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>600</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="8"/>
       <c r="H17" s="55">
         <v>14</v>
@@ -35831,20 +36149,38 @@
       <c r="L17" s="12" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="8"/>
+      <c r="N17" s="55">
+        <v>14</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="55">
+        <v>14</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+    </row>
+    <row r="18" spans="1:25">
       <c r="B18" s="55">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="E18" s="55">
-        <v>15</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>605</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="22"/>
       <c r="H18" s="55">
         <v>15</v>
       </c>
@@ -35857,22 +36193,32 @@
       <c r="L18" s="12" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="N18" s="55">
+        <v>15</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q18" s="55">
+        <v>15</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="T18" s="57"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="3"/>
-      <c r="B19" s="60">
-        <v>16</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="55">
-        <v>16</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>607</v>
-      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="3"/>
       <c r="H19" s="60">
         <v>16</v>
@@ -35887,37 +36233,92 @@
       <c r="L19" s="12" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M19" s="3"/>
+      <c r="N19" s="60">
+        <v>16</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="55">
+        <v>16</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="6"/>
       <c r="D23" s="6"/>
       <c r="G23" s="6"/>
       <c r="J23" s="6"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="4"/>
       <c r="D25" s="4"/>
       <c r="G25" s="4"/>
       <c r="J25" s="4"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="4"/>
       <c r="D27" s="4"/>
       <c r="G27" s="4"/>
       <c r="J27" s="4"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="6"/>
       <c r="D29" s="6"/>
       <c r="G29" s="6"/>
       <c r="J29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="V29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="3NF Data" sheetId="3" r:id="rId6"/>
     <sheet name="Cross Join Tables" sheetId="7" r:id="rId7"/>
     <sheet name="SET" sheetId="8" r:id="rId8"/>
+    <sheet name="Movie Table" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2NF Data'!$AP$3:$AY$96</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="649">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1899,15 +1900,88 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Actor table data - 7</t>
+  </si>
+  <si>
+    <t>ACTORID</t>
+  </si>
+  <si>
+    <t>MOVIEID</t>
+  </si>
+  <si>
+    <t>Amitabh Bachchan</t>
+  </si>
+  <si>
+    <t>Salman Khan</t>
+  </si>
+  <si>
+    <t>Akshay Kumar</t>
+  </si>
+  <si>
+    <t>Ajay Devgn</t>
+  </si>
+  <si>
+    <t>Deepika Padukone</t>
+  </si>
+  <si>
+    <t>Kajol</t>
+  </si>
+  <si>
+    <t>Madhuri Dixit</t>
+  </si>
+  <si>
+    <t>Movie1</t>
+  </si>
+  <si>
+    <t>Movie2</t>
+  </si>
+  <si>
+    <t>Movie3</t>
+  </si>
+  <si>
+    <t>Movie4</t>
+  </si>
+  <si>
+    <t>Movie5</t>
+  </si>
+  <si>
+    <t>Movie6</t>
+  </si>
+  <si>
+    <t>Movie7</t>
+  </si>
+  <si>
+    <t>Movie8</t>
+  </si>
+  <si>
+    <t>Movie9</t>
+  </si>
+  <si>
+    <t>Movie10</t>
+  </si>
+  <si>
+    <t>Actor_Movie table data - 28</t>
+  </si>
+  <si>
+    <t>Movie table data - 10</t>
+  </si>
+  <si>
+    <t>RELEASE_DATE</t>
+  </si>
+  <si>
+    <t>RATING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2062,7 +2136,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2218,6 +2292,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2233,16 +2323,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4455,86 +4536,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:62" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="23"/>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="61" t="s">
+      <c r="X2" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="63" t="s">
+      <c r="AD2" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="63" t="s">
+      <c r="AI2" s="69" t="s">
         <v>341</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="64" t="s">
+      <c r="AP2" s="70" t="s">
         <v>403</v>
       </c>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
       <c r="AZ2" s="39"/>
-      <c r="BA2" s="62" t="s">
+      <c r="BA2" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="62"/>
-      <c r="BE2" s="61" t="s">
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="68"/>
+      <c r="BE2" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="61"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="67"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1">
       <c r="A3" s="14" t="s">
@@ -18601,8 +18682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BO193"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1:BH1048576"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18673,92 +18754,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:67" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="68" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="54"/>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="68" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="39"/>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="69" t="s">
         <v>542</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
       <c r="Q2" s="39"/>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
       <c r="W2" s="39"/>
-      <c r="X2" s="61" t="s">
+      <c r="X2" s="67" t="s">
         <v>544</v>
       </c>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
       <c r="AB2" s="39"/>
-      <c r="AC2" s="63" t="s">
+      <c r="AC2" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
       <c r="AG2" s="39"/>
-      <c r="AH2" s="63" t="s">
+      <c r="AH2" s="69" t="s">
         <v>546</v>
       </c>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
       <c r="AN2" s="39"/>
-      <c r="AO2" s="64" t="s">
+      <c r="AO2" s="70" t="s">
         <v>547</v>
       </c>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
       <c r="AY2" s="39"/>
-      <c r="AZ2" s="62" t="s">
+      <c r="AZ2" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="62"/>
-      <c r="BD2" s="61" t="s">
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="68"/>
+      <c r="BD2" s="67" t="s">
         <v>537</v>
       </c>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BI2" s="61" t="s">
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BI2" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="61"/>
-      <c r="BL2" s="61"/>
-      <c r="BM2" s="61"/>
-      <c r="BN2" s="61"/>
-      <c r="BO2" s="61"/>
+      <c r="BJ2" s="67"/>
+      <c r="BK2" s="67"/>
+      <c r="BL2" s="67"/>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="67"/>
     </row>
     <row r="3" spans="1:67" s="1" customFormat="1">
       <c r="A3" s="14" t="s">
@@ -34830,10 +34911,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
@@ -34887,8 +34968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34918,35 +34999,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="21">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="68" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="F2" s="61" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="F2" s="67" t="s">
         <v>567</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="J2" s="67" t="s">
         <v>569</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="N2" s="62" t="s">
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="N2" s="68" t="s">
         <v>574</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="R2" s="61" t="s">
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="R2" s="67" t="s">
         <v>592</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="U2" s="61" t="s">
+      <c r="S2" s="67"/>
+      <c r="U2" s="67" t="s">
         <v>593</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1"/>
@@ -35397,7 +35478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C18"/>
     </sheetView>
   </sheetViews>
@@ -35424,38 +35505,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="21">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="67" t="s">
         <v>621</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="E2" s="61" t="s">
+      <c r="C2" s="67"/>
+      <c r="E2" s="67" t="s">
         <v>622</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="H2" s="61" t="s">
+      <c r="F2" s="67"/>
+      <c r="H2" s="67" t="s">
         <v>620</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="K2" s="61" t="s">
+      <c r="I2" s="67"/>
+      <c r="K2" s="67" t="s">
         <v>619</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="67"/>
+      <c r="N2" s="67" t="s">
         <v>621</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="Q2" s="61" t="s">
+      <c r="O2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>622</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="T2" s="61" t="s">
+      <c r="R2" s="67"/>
+      <c r="T2" s="67" t="s">
         <v>621</v>
       </c>
-      <c r="U2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="U2" s="67"/>
+      <c r="W2" s="67" t="s">
         <v>622</v>
       </c>
-      <c r="X2" s="61"/>
+      <c r="X2" s="67"/>
       <c r="Z2" t="s">
         <v>623</v>
       </c>
@@ -35469,10 +35550,10 @@
         <v>250</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="65" t="s">
         <v>250</v>
       </c>
       <c r="G3" s="8"/>
@@ -35511,10 +35592,10 @@
         <v>250</v>
       </c>
       <c r="V3" s="8"/>
-      <c r="W3" s="69" t="s">
+      <c r="W3" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="X3" s="69" t="s">
+      <c r="X3" s="65" t="s">
         <v>250</v>
       </c>
     </row>
@@ -35780,7 +35861,7 @@
       <c r="A9" s="8"/>
       <c r="B9" s="57"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="66"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="57"/>
       <c r="F9" s="22"/>
       <c r="G9" s="8"/>
@@ -35814,7 +35895,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="57"/>
       <c r="U9" s="22"/>
-      <c r="V9" s="66"/>
+      <c r="V9" s="62"/>
       <c r="W9" s="57"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="22"/>
@@ -35864,11 +35945,11 @@
     </row>
     <row r="11" spans="1:26" ht="21">
       <c r="A11" s="8"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="67" t="s">
         <v>624</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="57"/>
       <c r="F11" s="22"/>
       <c r="G11" s="8"/>
@@ -35902,7 +35983,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="57"/>
       <c r="U11" s="22"/>
-      <c r="V11" s="66"/>
+      <c r="V11" s="62"/>
       <c r="W11" s="57"/>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -35956,7 +36037,7 @@
       <c r="C13" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="D13" s="66"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="57"/>
       <c r="F13" s="22"/>
       <c r="G13" s="8"/>
@@ -35990,7 +36071,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="57"/>
       <c r="U13" s="22"/>
-      <c r="V13" s="66"/>
+      <c r="V13" s="62"/>
       <c r="W13" s="57"/>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -36004,7 +36085,7 @@
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="57"/>
-      <c r="F14" s="67"/>
+      <c r="F14" s="63"/>
       <c r="H14" s="55">
         <v>11</v>
       </c>
@@ -36033,7 +36114,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="57"/>
-      <c r="X14" s="67"/>
+      <c r="X14" s="63"/>
       <c r="Y14" s="22"/>
     </row>
     <row r="15" spans="1:26">
@@ -36044,9 +36125,9 @@
       <c r="C15" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="D15" s="66"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="57"/>
-      <c r="F15" s="67"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="8"/>
       <c r="H15" s="55">
         <v>12</v>
@@ -36078,9 +36159,9 @@
       <c r="S15" s="8"/>
       <c r="T15" s="57"/>
       <c r="U15" s="22"/>
-      <c r="V15" s="66"/>
+      <c r="V15" s="62"/>
       <c r="W15" s="57"/>
-      <c r="X15" s="67"/>
+      <c r="X15" s="63"/>
       <c r="Y15" s="22"/>
     </row>
     <row r="16" spans="1:26">
@@ -36132,7 +36213,7 @@
       <c r="C17" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="D17" s="66"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="57"/>
       <c r="F17" s="22"/>
       <c r="G17" s="8"/>
@@ -36166,7 +36247,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="57"/>
       <c r="U17" s="22"/>
-      <c r="V17" s="66"/>
+      <c r="V17" s="62"/>
       <c r="W17" s="57"/>
       <c r="X17" s="22"/>
       <c r="Y17" s="22"/>
@@ -36214,8 +36295,8 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="3"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="67"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="28"/>
       <c r="E19" s="57"/>
       <c r="F19" s="22"/>
@@ -36248,8 +36329,8 @@
         <v>607</v>
       </c>
       <c r="S19" s="3"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="67"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="63"/>
       <c r="V19" s="28"/>
       <c r="W19" s="57"/>
       <c r="X19" s="22"/>
@@ -36322,4 +36403,966 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="21">
+      <c r="A2" s="61"/>
+      <c r="C2" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="68" t="s">
+        <v>646</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="69" t="s">
+        <v>645</v>
+      </c>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="C3" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="55">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>10</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="J4" s="72">
+        <v>29417</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>20</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="J5" s="72">
+        <v>29696</v>
+      </c>
+      <c r="L5" s="10">
+        <v>2</v>
+      </c>
+      <c r="M5" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="J6" s="72">
+        <v>29711</v>
+      </c>
+      <c r="L6" s="10">
+        <v>5</v>
+      </c>
+      <c r="M6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="10">
+        <v>40</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="J7" s="72">
+        <v>30216</v>
+      </c>
+      <c r="L7" s="10">
+        <v>6</v>
+      </c>
+      <c r="M7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10">
+        <v>50</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="J8" s="72">
+        <v>30010</v>
+      </c>
+      <c r="L8" s="10">
+        <v>3</v>
+      </c>
+      <c r="M8" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="10">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>60</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="J9" s="72">
+        <v>29782</v>
+      </c>
+      <c r="L9" s="10">
+        <v>7</v>
+      </c>
+      <c r="M9" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="30">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>70</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="J10" s="72">
+        <v>30216</v>
+      </c>
+      <c r="L10" s="10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="H11" s="10">
+        <v>80</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="J11" s="72">
+        <v>30010</v>
+      </c>
+      <c r="L11" s="10">
+        <v>6</v>
+      </c>
+      <c r="M11" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="H12" s="10">
+        <v>90</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="J12" s="72">
+        <v>29425</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="H13" s="10">
+        <v>100</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="J13" s="72">
+        <v>29417</v>
+      </c>
+      <c r="L13" s="10">
+        <v>7</v>
+      </c>
+      <c r="M13" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="L14" s="10">
+        <v>4</v>
+      </c>
+      <c r="M14" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L15" s="10">
+        <v>6</v>
+      </c>
+      <c r="M15" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="10">
+        <v>2</v>
+      </c>
+      <c r="M17" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" s="10">
+        <v>7</v>
+      </c>
+      <c r="M18" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="10">
+        <v>2</v>
+      </c>
+      <c r="M19" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="10">
+        <v>3</v>
+      </c>
+      <c r="M20" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="10">
+        <v>4</v>
+      </c>
+      <c r="M21" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" s="10">
+        <v>5</v>
+      </c>
+      <c r="M22" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="L23" s="10">
+        <v>7</v>
+      </c>
+      <c r="M23" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="L24" s="10">
+        <v>2</v>
+      </c>
+      <c r="M24" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="L25" s="10">
+        <v>5</v>
+      </c>
+      <c r="M25" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="L26" s="10">
+        <v>3</v>
+      </c>
+      <c r="M26" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="L27" s="10">
+        <v>5</v>
+      </c>
+      <c r="M27" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="L28" s="10">
+        <v>3</v>
+      </c>
+      <c r="M28" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="L29" s="10">
+        <v>6</v>
+      </c>
+      <c r="M29" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="L30" s="10">
+        <v>3</v>
+      </c>
+      <c r="M30" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="L31" s="10">
+        <v>7</v>
+      </c>
+      <c r="M31" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" spans="12:13">
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" spans="12:13">
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="12:13">
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" spans="12:13">
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="12:13">
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" spans="12:13">
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" spans="12:13">
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+    </row>
+    <row r="40" spans="12:13">
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+    </row>
+    <row r="41" spans="12:13">
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+    </row>
+    <row r="42" spans="12:13">
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+    </row>
+    <row r="43" spans="12:13">
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+    </row>
+    <row r="44" spans="12:13">
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+    </row>
+    <row r="45" spans="12:13">
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" spans="12:13">
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="12:13">
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+    </row>
+    <row r="48" spans="12:13">
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+    </row>
+    <row r="49" spans="12:13">
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+    </row>
+    <row r="50" spans="12:13">
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+    </row>
+    <row r="51" spans="12:13">
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+    </row>
+    <row r="52" spans="12:13">
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+    </row>
+    <row r="53" spans="12:13">
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+    </row>
+    <row r="54" spans="12:13">
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+    </row>
+    <row r="55" spans="12:13">
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+    </row>
+    <row r="56" spans="12:13">
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+    </row>
+    <row r="57" spans="12:13">
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+    </row>
+    <row r="58" spans="12:13">
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+    </row>
+    <row r="59" spans="12:13">
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+    </row>
+    <row r="60" spans="12:13">
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+    </row>
+    <row r="61" spans="12:13">
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+    </row>
+    <row r="62" spans="12:13">
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+    </row>
+    <row r="63" spans="12:13">
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+    </row>
+    <row r="64" spans="12:13">
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+    </row>
+    <row r="65" spans="12:13">
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+    </row>
+    <row r="66" spans="12:13">
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+    </row>
+    <row r="67" spans="12:13">
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+    </row>
+    <row r="68" spans="12:13">
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+    </row>
+    <row r="69" spans="12:13">
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+    </row>
+    <row r="70" spans="12:13">
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+    </row>
+    <row r="71" spans="12:13">
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+    </row>
+    <row r="72" spans="12:13">
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+    </row>
+    <row r="73" spans="12:13">
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+    </row>
+    <row r="74" spans="12:13">
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+    </row>
+    <row r="75" spans="12:13">
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+    </row>
+    <row r="76" spans="12:13">
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+    </row>
+    <row r="77" spans="12:13">
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+    </row>
+    <row r="78" spans="12:13">
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+    </row>
+    <row r="79" spans="12:13">
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+    </row>
+    <row r="80" spans="12:13">
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+    </row>
+    <row r="81" spans="12:13">
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+    </row>
+    <row r="82" spans="12:13">
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+    </row>
+    <row r="83" spans="12:13">
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+    </row>
+    <row r="84" spans="12:13">
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+    </row>
+    <row r="85" spans="12:13">
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+    </row>
+    <row r="86" spans="12:13">
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+    </row>
+    <row r="87" spans="12:13">
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+    </row>
+    <row r="88" spans="12:13">
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+    </row>
+    <row r="89" spans="12:13">
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+    </row>
+    <row r="90" spans="12:13">
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+    </row>
+    <row r="91" spans="12:13">
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+    </row>
+    <row r="92" spans="12:13">
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+    </row>
+    <row r="93" spans="12:13">
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+    </row>
+    <row r="94" spans="12:13">
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+    </row>
+    <row r="95" spans="12:13">
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+    </row>
+    <row r="96" spans="12:13">
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+    </row>
+    <row r="97" spans="12:13">
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+    </row>
+    <row r="98" spans="12:13">
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+    </row>
+    <row r="99" spans="12:13">
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+    </row>
+    <row r="100" spans="12:13">
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+    </row>
+    <row r="101" spans="12:13">
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+    </row>
+    <row r="102" spans="12:13">
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+    </row>
+    <row r="103" spans="12:13">
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+    </row>
+    <row r="104" spans="12:13">
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+    </row>
+    <row r="105" spans="12:13">
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+    </row>
+    <row r="106" spans="12:13">
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+    </row>
+    <row r="107" spans="12:13">
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+    </row>
+    <row r="108" spans="12:13">
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+    </row>
+    <row r="109" spans="12:13">
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+    </row>
+    <row r="110" spans="12:13">
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
+    </row>
+    <row r="111" spans="12:13">
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+    </row>
+    <row r="112" spans="12:13">
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+    </row>
+    <row r="113" spans="12:13">
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+    </row>
+    <row r="114" spans="12:13">
+      <c r="L114" s="20"/>
+      <c r="M114" s="20"/>
+    </row>
+    <row r="115" spans="12:13">
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
+    </row>
+    <row r="116" spans="12:13">
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
+    </row>
+    <row r="117" spans="12:13">
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
+    </row>
+    <row r="118" spans="12:13">
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
+    </row>
+    <row r="119" spans="12:13">
+      <c r="L119" s="20"/>
+      <c r="M119" s="20"/>
+    </row>
+    <row r="120" spans="12:13">
+      <c r="L120" s="20"/>
+      <c r="M120" s="20"/>
+    </row>
+    <row r="121" spans="12:13">
+      <c r="L121" s="20"/>
+      <c r="M121" s="20"/>
+    </row>
+    <row r="122" spans="12:13">
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+    </row>
+    <row r="123" spans="12:13">
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+    </row>
+    <row r="124" spans="12:13">
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
+    </row>
+    <row r="125" spans="12:13">
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
+    </row>
+    <row r="126" spans="12:13">
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
+    </row>
+    <row r="127" spans="12:13">
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
+    </row>
+    <row r="128" spans="12:13">
+      <c r="L128" s="20"/>
+      <c r="M128" s="20"/>
+    </row>
+    <row r="129" spans="12:13">
+      <c r="L129" s="20"/>
+      <c r="M129" s="20"/>
+    </row>
+    <row r="130" spans="12:13">
+      <c r="L130" s="20"/>
+      <c r="M130" s="20"/>
+    </row>
+    <row r="131" spans="12:13">
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+    </row>
+    <row r="132" spans="12:13">
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+    </row>
+    <row r="133" spans="12:13">
+      <c r="L133" s="20"/>
+      <c r="M133" s="20"/>
+    </row>
+    <row r="134" spans="12:13">
+      <c r="L134" s="20"/>
+      <c r="M134" s="20"/>
+    </row>
+    <row r="135" spans="12:13">
+      <c r="L135" s="20"/>
+      <c r="M135" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1981,7 +1981,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2308,6 +2308,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2323,7 +2324,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4468,9 +4468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ193"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:J3"/>
+      <selection pane="bottomLeft" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4536,86 +4536,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:62" ht="21">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="23"/>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="67" t="s">
+      <c r="X2" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AD2" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="69" t="s">
+      <c r="AI2" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="70" t="s">
+      <c r="AP2" s="71" t="s">
         <v>403</v>
       </c>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
       <c r="AZ2" s="39"/>
-      <c r="BA2" s="68" t="s">
+      <c r="BA2" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BE2" s="67" t="s">
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BE2" s="68" t="s">
         <v>446</v>
       </c>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="67"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="67"/>
-      <c r="BJ2" s="67"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="68"/>
+      <c r="BJ2" s="68"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1">
       <c r="A3" s="14" t="s">
@@ -18682,8 +18682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BO193"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="BW10" sqref="BW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18745,101 +18745,101 @@
     <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="4.140625" customWidth="1"/>
-    <col min="61" max="61" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.140625" customWidth="1"/>
-    <col min="63" max="63" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="35.140625" customWidth="1"/>
+    <col min="61" max="61" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="64" max="65" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="35.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:67" ht="21">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="54"/>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="69" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="39"/>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
       <c r="Q2" s="39"/>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="68" t="s">
         <v>543</v>
       </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
       <c r="W2" s="39"/>
-      <c r="X2" s="67" t="s">
+      <c r="X2" s="68" t="s">
         <v>544</v>
       </c>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
       <c r="AB2" s="39"/>
-      <c r="AC2" s="69" t="s">
+      <c r="AC2" s="70" t="s">
         <v>545</v>
       </c>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
       <c r="AG2" s="39"/>
-      <c r="AH2" s="69" t="s">
+      <c r="AH2" s="70" t="s">
         <v>546</v>
       </c>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
       <c r="AN2" s="39"/>
-      <c r="AO2" s="70" t="s">
+      <c r="AO2" s="71" t="s">
         <v>547</v>
       </c>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
       <c r="AY2" s="39"/>
-      <c r="AZ2" s="68" t="s">
+      <c r="AZ2" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="BA2" s="68"/>
-      <c r="BB2" s="68"/>
-      <c r="BD2" s="67" t="s">
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BD2" s="68" t="s">
         <v>537</v>
       </c>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="67"/>
-      <c r="BI2" s="67" t="s">
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BI2" s="68" t="s">
         <v>446</v>
       </c>
-      <c r="BJ2" s="67"/>
-      <c r="BK2" s="67"/>
-      <c r="BL2" s="67"/>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
+      <c r="BJ2" s="68"/>
+      <c r="BK2" s="68"/>
+      <c r="BL2" s="68"/>
+      <c r="BM2" s="68"/>
+      <c r="BN2" s="68"/>
+      <c r="BO2" s="68"/>
     </row>
     <row r="3" spans="1:67" s="1" customFormat="1">
       <c r="A3" s="14" t="s">
@@ -34880,17 +34880,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AH2:AM2"/>
+    <mergeCell ref="AO2:AX2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BI2:BO2"/>
+    <mergeCell ref="BD2:BG2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AH2:AM2"/>
-    <mergeCell ref="AO2:AX2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BI2:BO2"/>
-    <mergeCell ref="BD2:BG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34911,10 +34911,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
@@ -34999,35 +34999,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="21">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="F2" s="67" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="F2" s="68" t="s">
         <v>567</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="J2" s="67" t="s">
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="J2" s="68" t="s">
         <v>569</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="N2" s="68" t="s">
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="N2" s="69" t="s">
         <v>574</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="R2" s="67" t="s">
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="R2" s="68" t="s">
         <v>592</v>
       </c>
-      <c r="S2" s="67"/>
-      <c r="U2" s="67" t="s">
+      <c r="S2" s="68"/>
+      <c r="U2" s="68" t="s">
         <v>593</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1"/>
@@ -35478,8 +35478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35505,38 +35505,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="21">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>621</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="E2" s="67" t="s">
+      <c r="C2" s="68"/>
+      <c r="E2" s="68" t="s">
         <v>622</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="H2" s="67" t="s">
+      <c r="F2" s="68"/>
+      <c r="H2" s="68" t="s">
         <v>620</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="68"/>
+      <c r="K2" s="68" t="s">
         <v>619</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="N2" s="67" t="s">
+      <c r="L2" s="68"/>
+      <c r="N2" s="68" t="s">
         <v>621</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="Q2" s="67" t="s">
+      <c r="O2" s="68"/>
+      <c r="Q2" s="68" t="s">
         <v>622</v>
       </c>
-      <c r="R2" s="67"/>
-      <c r="T2" s="67" t="s">
+      <c r="R2" s="68"/>
+      <c r="T2" s="68" t="s">
         <v>621</v>
       </c>
-      <c r="U2" s="67"/>
-      <c r="W2" s="67" t="s">
+      <c r="U2" s="68"/>
+      <c r="W2" s="68" t="s">
         <v>622</v>
       </c>
-      <c r="X2" s="67"/>
+      <c r="X2" s="68"/>
       <c r="Z2" t="s">
         <v>623</v>
       </c>
@@ -35945,10 +35945,10 @@
     </row>
     <row r="11" spans="1:26" ht="21">
       <c r="A11" s="8"/>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="68" t="s">
         <v>624</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="62"/>
       <c r="E11" s="57"/>
       <c r="F11" s="22"/>
@@ -36409,7 +36409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -36432,23 +36432,23 @@
   <sheetData>
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="61"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="69" t="s">
         <v>625</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
       <c r="G2" s="39"/>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="69" t="s">
         <v>646</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="39"/>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="70" t="s">
         <v>645</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" s="31"/>
@@ -36502,7 +36502,7 @@
       <c r="I4" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="67">
         <v>29417</v>
       </c>
       <c r="L4" s="10">
@@ -36534,7 +36534,7 @@
       <c r="I5" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="67">
         <v>29696</v>
       </c>
       <c r="L5" s="10">
@@ -36566,7 +36566,7 @@
       <c r="I6" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="67">
         <v>29711</v>
       </c>
       <c r="L6" s="10">
@@ -36598,7 +36598,7 @@
       <c r="I7" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="67">
         <v>30216</v>
       </c>
       <c r="L7" s="10">
@@ -36630,7 +36630,7 @@
       <c r="I8" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="67">
         <v>30010</v>
       </c>
       <c r="L8" s="10">
@@ -36662,7 +36662,7 @@
       <c r="I9" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="67">
         <v>29782</v>
       </c>
       <c r="L9" s="10">
@@ -36694,7 +36694,7 @@
       <c r="I10" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="67">
         <v>30216</v>
       </c>
       <c r="L10" s="10">
@@ -36715,7 +36715,7 @@
       <c r="I11" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="67">
         <v>30010</v>
       </c>
       <c r="L11" s="10">
@@ -36736,7 +36736,7 @@
       <c r="I12" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="67">
         <v>29425</v>
       </c>
       <c r="L12" s="10">
@@ -36757,7 +36757,7 @@
       <c r="I13" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="67">
         <v>29417</v>
       </c>
       <c r="L13" s="10">

--- a/Saleel Tables/Assignments/2NF DATA.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA.xlsx
@@ -18682,8 +18682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BO193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BW10" sqref="BW10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34880,17 +34880,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AH2:AM2"/>
-    <mergeCell ref="AO2:AX2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BI2:BO2"/>
-    <mergeCell ref="BD2:BG2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AH2:AM2"/>
+    <mergeCell ref="AO2:AX2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BI2:BO2"/>
+    <mergeCell ref="BD2:BG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
